--- a/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0134619863511391</v>
+        <v>0.01346169945484399</v>
       </c>
       <c r="F2">
         <v>0.5117566843776564</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.007465856810903656</v>
+        <v>0.007240865138925249</v>
       </c>
       <c r="F3">
         <v>0.5102851192138108</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>104</v>
       </c>
       <c r="E4">
-        <v>0.005590261024252923</v>
+        <v>0.005269976108616141</v>
       </c>
       <c r="F4">
         <v>0.5294883572113379</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.01080667195460116</v>
+        <v>0.01034909697080863</v>
       </c>
       <c r="F5">
         <v>0.5340276981817065</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6">
-        <v>0.01138455644969323</v>
+        <v>0.01054872919713661</v>
       </c>
       <c r="F6">
         <v>0.5273345442925071</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>118</v>
       </c>
       <c r="E2">
-        <v>0.0134619863511391</v>
+        <v>0.01346169945484399</v>
       </c>
       <c r="F2">
         <v>0.7024013055911</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.007465856810903656</v>
+        <v>0.007240865138925249</v>
       </c>
       <c r="F3">
         <v>0.7023046741619299</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>116</v>
       </c>
       <c r="E4">
-        <v>0.005590261024252923</v>
+        <v>0.005269976108616141</v>
       </c>
       <c r="F4">
         <v>0.7017409043978573</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>116</v>
       </c>
       <c r="E5">
-        <v>0.01080667195460116</v>
+        <v>0.01034909697080863</v>
       </c>
       <c r="F5">
         <v>0.7092993273708775</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>0.01138455644969323</v>
+        <v>0.01054872919713661</v>
       </c>
       <c r="F6">
         <v>0.7077517961171015</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>152</v>
       </c>
       <c r="E2">
-        <v>0.0134619863511391</v>
+        <v>0.01346169945484399</v>
       </c>
       <c r="F2">
         <v>0.8089283614913357</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.007465856810903656</v>
+        <v>0.007240865138925249</v>
       </c>
       <c r="F3">
         <v>0.8054174692799241</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.005590261024252923</v>
+        <v>0.005269976108616141</v>
       </c>
       <c r="F4">
         <v>0.8002244730820962</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.01080667195460116</v>
+        <v>0.01034909697080863</v>
       </c>
       <c r="F5">
         <v>0.8136450143545099</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6">
-        <v>0.01138455644969323</v>
+        <v>0.01054872919713661</v>
       </c>
       <c r="F6">
         <v>0.8178145224102199</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.0134619863511391</v>
+        <v>0.01346169945484399</v>
       </c>
       <c r="F2">
         <v>0.9056854089081023</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="E3">
-        <v>0.007465856810903656</v>
+        <v>0.007240865138925249</v>
       </c>
       <c r="F3">
         <v>0.9059261820275557</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.005590261024252923</v>
+        <v>0.005269976108616141</v>
       </c>
       <c r="F4">
         <v>0.9089534948206478</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.01080667195460116</v>
+        <v>0.01034909697080863</v>
       </c>
       <c r="F5">
         <v>0.9033041651793094</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>169</v>
       </c>
       <c r="E6">
-        <v>0.01138455644969323</v>
+        <v>0.01054872919713661</v>
       </c>
       <c r="F6">
         <v>0.9108033773173373</v>
       </c>
       <c r="G6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>36</v>

--- a/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001550313273574756</v>
+        <v>7.91455359046516E-05</v>
       </c>
       <c r="C2">
-        <v>9.346423840689275E-05</v>
+        <v>1.674594512498182E-05</v>
       </c>
       <c r="D2">
-        <v>7.694170868852092E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.07989754750284E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>7.067169879539386E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.302608841436106E-05</v>
+        <v>1.63018705276586E-05</v>
       </c>
       <c r="H2">
-        <v>8.938481847642688E-05</v>
+        <v>1.261136383133289E-05</v>
       </c>
       <c r="I2">
-        <v>0.0001755164070083054</v>
+        <v>9.990761202500743E-05</v>
       </c>
       <c r="J2">
-        <v>0.0002038544965252798</v>
+        <v>0.0001286288853461511</v>
       </c>
       <c r="K2">
-        <v>0.0001539933673751677</v>
+        <v>7.809354076819694E-05</v>
       </c>
       <c r="L2">
-        <v>0.0001151693880369263</v>
+        <v>3.874458884537447E-05</v>
       </c>
       <c r="M2">
-        <v>0.0003015872748594149</v>
+        <v>0.0002276831930576167</v>
       </c>
       <c r="N2">
-        <v>0.0006900893882373577</v>
+        <v>0.0006214385793367824</v>
       </c>
       <c r="O2">
-        <v>0.0006428475890425989</v>
+        <v>0.0005735579829386904</v>
       </c>
       <c r="P2">
-        <v>0.0004991736414915356</v>
+        <v>0.0004279412957491751</v>
       </c>
       <c r="Q2">
-        <v>0.0003554479239413548</v>
+        <v>0.0002822721385336335</v>
       </c>
       <c r="R2">
-        <v>0.0001685155071276364</v>
+        <v>9.281204692538374E-05</v>
       </c>
       <c r="S2">
-        <v>0.0001192977079665587</v>
+        <v>4.292873135734842E-05</v>
       </c>
       <c r="T2">
-        <v>4.273802127152618E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.189509579724691E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>8.28195985883317E-08</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.273404961249586E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>6.506427489097295E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000183273496876085</v>
+        <v>0.0001077695922102179</v>
       </c>
       <c r="Z2">
-        <v>0.0002122078663828958</v>
+        <v>0.0001370952083383726</v>
       </c>
       <c r="AA2">
-        <v>0.0002332570560241103</v>
+        <v>0.0001584290222679171</v>
       </c>
       <c r="AB2">
-        <v>0.0003470086940852023</v>
+        <v>0.0002737187945556168</v>
       </c>
       <c r="AC2">
-        <v>0.0005872496899902705</v>
+        <v>0.0005172082966337342</v>
       </c>
       <c r="AD2">
-        <v>0.0004942362915756932</v>
+        <v>0.0004229371836572116</v>
       </c>
       <c r="AE2">
-        <v>0.0003864240634133634</v>
+        <v>0.0003136671331636178</v>
       </c>
       <c r="AF2">
-        <v>0.0003350388642892292</v>
+        <v>0.0002615871103440971</v>
       </c>
       <c r="AG2">
-        <v>0.0003420544941696471</v>
+        <v>0.0002686976046205291</v>
       </c>
       <c r="AH2">
-        <v>0.0002577442156067242</v>
+        <v>0.0001832472939022642</v>
       </c>
       <c r="AI2">
-        <v>0.0001160672480216222</v>
+        <v>3.965458957104519E-05</v>
       </c>
       <c r="AJ2">
-        <v>0.0001214689179295502</v>
+        <v>4.512930012707146E-05</v>
       </c>
       <c r="AK2">
-        <v>2.043203265173397E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.342194891896657E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.153964929195253E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.827348851807557E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>6.748851484965155E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001705012270937896</v>
+        <v>9.482461752768124E-05</v>
       </c>
       <c r="AQ2">
-        <v>0.0001554161573509161</v>
+        <v>7.953556951708545E-05</v>
       </c>
       <c r="AR2">
-        <v>0.0002022245465530625</v>
+        <v>0.0001269768954114096</v>
       </c>
       <c r="AS2">
-        <v>0.0003062402447801045</v>
+        <v>0.0002323990798066912</v>
       </c>
       <c r="AT2">
-        <v>0.0004706291619780791</v>
+        <v>0.0003990108416540008</v>
       </c>
       <c r="AU2">
-        <v>0.0003197308645501556</v>
+        <v>0.0002460721179081189</v>
       </c>
       <c r="AV2">
-        <v>0.0003176887345849639</v>
+        <v>0.0002440023745384244</v>
       </c>
       <c r="AW2">
-        <v>0.0003576077939045396</v>
+        <v>0.00028446121396561</v>
       </c>
       <c r="AX2">
-        <v>0.0001878494067980882</v>
+        <v>0.000112407376965752</v>
       </c>
       <c r="AY2">
-        <v>0.000116811988008928</v>
+        <v>4.040939983148225E-05</v>
       </c>
       <c r="AZ2">
-        <v>7.844042866297509E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.632109172180537E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.299032777857857E-07</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>9.194625843276687E-08</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>5.501455506227144E-07</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>1.002720532908529E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>5.587909904753519E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>5.905838899334388E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>3.517651940041272E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.000110387444118435</v>
+        <v>3.389798412958725E-05</v>
       </c>
       <c r="BJ2">
-        <v>0.0001036820982327283</v>
+        <v>2.710196946597238E-05</v>
       </c>
       <c r="BK2">
-        <v>7.461829872812367E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0001550313273574756</v>
+        <v>7.91455359046516E-05</v>
       </c>
       <c r="BM2">
-        <v>0.0001503200874377791</v>
+        <v>7.437059123754435E-05</v>
       </c>
       <c r="BN2">
-        <v>0.0001470654674932545</v>
+        <v>7.107196276341428E-05</v>
       </c>
       <c r="BO2">
-        <v>0.0001160672480216222</v>
+        <v>3.965458957104519E-05</v>
       </c>
       <c r="BP2">
-        <v>0.0001036820982327283</v>
+        <v>2.710196946597238E-05</v>
       </c>
       <c r="BQ2">
-        <v>0.000110387444118435</v>
+        <v>3.389798412958725E-05</v>
       </c>
       <c r="BR2">
-        <v>0.0001231556979007989</v>
+        <v>4.683888850838575E-05</v>
       </c>
       <c r="BS2">
-        <v>0.0001244283978791056</v>
+        <v>4.812879776323743E-05</v>
       </c>
       <c r="BT2">
-        <v>8.169538860749396E-05</v>
+        <v>4.817958534299733E-06</v>
       </c>
       <c r="BU2">
-        <v>8.517810854813065E-05</v>
+        <v>8.34777134176183E-06</v>
       </c>
       <c r="BV2">
-        <v>7.930073864831102E-05</v>
+        <v>2.390928443052355E-06</v>
       </c>
       <c r="BW2">
-        <v>6.292913892736657E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.874484968049217E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>4.390375525165612E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1.324650777421196E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>3.269145144277095E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>4.273802127152618E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>9.156085243933616E-05</v>
+        <v>1.48168218304465E-05</v>
       </c>
       <c r="CD2">
-        <v>0.0001539933673751677</v>
+        <v>7.809354076819694E-05</v>
       </c>
       <c r="CE2">
-        <v>0.000128203767814754</v>
+        <v>5.195521773926425E-05</v>
       </c>
       <c r="CF2">
-        <v>8.09423786203291E-05</v>
+        <v>4.054766448186867E-06</v>
       </c>
       <c r="CG2">
-        <v>0.0001621422572362691</v>
+        <v>8.63526188131158E-05</v>
       </c>
       <c r="CH2">
-        <v>0.0001947046366812401</v>
+        <v>0.0001193553023379032</v>
       </c>
       <c r="CI2">
-        <v>0.0001931117567083909</v>
+        <v>0.0001177408836580351</v>
       </c>
       <c r="CJ2">
-        <v>3.558703539341544E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>3.627269238172834E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>5.580131404886104E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>2.868962951098241E-07</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.007564134871068568</v>
+        <v>0.007588433973154967</v>
       </c>
       <c r="CO2">
-        <v>0.04598435721619205</v>
+        <v>0.0465281693555428</v>
       </c>
       <c r="CP2">
-        <v>0.03177596945837544</v>
+        <v>0.03212765770493904</v>
       </c>
       <c r="CQ2">
-        <v>0.03228093244976829</v>
+        <v>0.03263944873743504</v>
       </c>
       <c r="CR2">
-        <v>0.01840044168636264</v>
+        <v>0.01857126785994206</v>
       </c>
       <c r="CS2">
-        <v>0.002380343359426811</v>
+        <v>0.00233454793554803</v>
       </c>
       <c r="CT2">
-        <v>0.0002577442156067242</v>
+        <v>0.0001832472939022642</v>
       </c>
       <c r="CU2">
-        <v>0.03400796642033083</v>
+        <v>0.034389835427184</v>
       </c>
       <c r="CV2">
-        <v>0.003334974843155022</v>
+        <v>0.003302087816763503</v>
       </c>
       <c r="CW2">
-        <v>0.0681904788376865</v>
+        <v>0.06903455914273954</v>
       </c>
       <c r="CX2">
-        <v>0.08546185854329412</v>
+        <v>0.08653948010295015</v>
       </c>
       <c r="CY2">
-        <v>0.04474992223723312</v>
+        <v>0.04527704251417185</v>
       </c>
       <c r="CZ2">
-        <v>0.02717735753675923</v>
+        <v>0.02746686397643118</v>
       </c>
       <c r="DA2">
-        <v>0.01568862773258578</v>
+        <v>0.01582278512556921</v>
       </c>
       <c r="DB2">
-        <v>0.08103958861867214</v>
+        <v>0.08205741284401018</v>
       </c>
       <c r="DC2">
-        <v>0.04730347419370757</v>
+        <v>0.04786512325397305</v>
       </c>
       <c r="DD2">
-        <v>0.1098426481277211</v>
+        <v>0.1112499434184173</v>
       </c>
       <c r="DE2">
-        <v>0.006726487885346345</v>
+        <v>0.00673946043846593</v>
       </c>
       <c r="DF2">
-        <v>0.004426841924544039</v>
+        <v>0.004408718976783976</v>
       </c>
       <c r="DG2">
-        <v>0.004371683925484212</v>
+        <v>0.004352815138739574</v>
       </c>
       <c r="DH2">
-        <v>0.0006162431894960735</v>
+        <v>0.0005465938423087103</v>
       </c>
       <c r="DI2">
-        <v>0.0005182561911662716</v>
+        <v>0.0004472818770732654</v>
       </c>
       <c r="DJ2">
-        <v>0.0004942362915756932</v>
+        <v>0.0004229371836572116</v>
       </c>
       <c r="DK2">
-        <v>0.000919931084319683</v>
+        <v>0.0008543881636699646</v>
       </c>
       <c r="DL2">
-        <v>0.001718002670716473</v>
+        <v>0.001663251165849803</v>
       </c>
       <c r="DM2">
-        <v>0.01030287482438647</v>
+        <v>0.01036420679678384</v>
       </c>
       <c r="DN2">
-        <v>5.225662910928056E-06</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003398715242068561</v>
+        <v>0.003366690104708775</v>
       </c>
       <c r="DP2">
-        <v>0.004831449917647455</v>
+        <v>0.004818798024310513</v>
       </c>
       <c r="DQ2">
-        <v>0.008415905856550047</v>
+        <v>0.008451722490412971</v>
       </c>
       <c r="DR2">
-        <v>0.00725237357638257</v>
+        <v>0.007272457084513034</v>
       </c>
       <c r="DS2">
-        <v>1.024693682533994E-05</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0004898466916505144</v>
+        <v>0.0004184882281570176</v>
       </c>
       <c r="DU2">
-        <v>0.002015642765643168</v>
+        <v>0.001964915909783941</v>
       </c>
       <c r="DV2">
-        <v>0.001423366375738578</v>
+        <v>0.001364630838840097</v>
       </c>
       <c r="DW2">
-        <v>0.01168884280076251</v>
+        <v>0.01176891564421706</v>
       </c>
       <c r="DX2">
-        <v>0.001610392672550697</v>
+        <v>0.001554186079879356</v>
       </c>
       <c r="DY2">
-        <v>0.003341584143042366</v>
+        <v>0.003308786486707788</v>
       </c>
       <c r="DZ2">
-        <v>0.005407387307830545</v>
+        <v>0.005402523161793979</v>
       </c>
       <c r="EA2">
-        <v>0.0006124627895605108</v>
+        <v>0.0005427623243177923</v>
       </c>
       <c r="EB2">
-        <v>0.0003144281146405415</v>
+        <v>0.0002406976649332115</v>
       </c>
       <c r="EC2">
-        <v>0.000886914384882456</v>
+        <v>0.0008209250168995859</v>
       </c>
       <c r="ED2">
-        <v>0.001154325980324399</v>
+        <v>0.001091952515677533</v>
       </c>
       <c r="EE2">
-        <v>0.009108880844738218</v>
+        <v>0.009154067792432956</v>
       </c>
       <c r="EF2">
-        <v>0.008142490861210433</v>
+        <v>0.008174610414577919</v>
       </c>
       <c r="EG2">
-        <v>0.0002274699661227518</v>
+        <v>0.0001525636801215671</v>
       </c>
       <c r="EH2">
-        <v>0.006344880891850873</v>
+        <v>0.006352693406945398</v>
       </c>
       <c r="EI2">
-        <v>0.007681283469071759</v>
+        <v>0.007707166638616518</v>
       </c>
       <c r="EJ2">
-        <v>0.0008005532263544906</v>
+        <v>0.0007333960944954641</v>
       </c>
       <c r="EK2">
-        <v>0.0007842494866323894</v>
+        <v>0.0007168718978154174</v>
       </c>
       <c r="EL2">
-        <v>0.001024516782537009</v>
+        <v>0.0009603880555181146</v>
       </c>
       <c r="EM2">
-        <v>0.0005400158907953754</v>
+        <v>0.0004693358084104195</v>
       </c>
       <c r="EN2">
-        <v>7.844042866297509E-06</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>6.383983891184359E-05</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0001099112541265517</v>
+        <v>3.341535516119892E-05</v>
       </c>
       <c r="EQ2">
-        <v>0.0002366527959662295</v>
+        <v>0.0001618706789451152</v>
       </c>
       <c r="ER2">
-        <v>0.002037958465262795</v>
+        <v>0.001987533359268103</v>
       </c>
       <c r="ES2">
-        <v>0.001453736075220924</v>
+        <v>0.001395411193281103</v>
       </c>
       <c r="ET2">
-        <v>0.0004373255625457423</v>
+        <v>0.0003652569154656783</v>
       </c>
       <c r="EU2">
-        <v>0.0003877819333902183</v>
+        <v>0.0003150433640741902</v>
       </c>
       <c r="EV2">
-        <v>0.001912571467400029</v>
+        <v>0.001860450895421095</v>
       </c>
       <c r="EW2">
-        <v>0.0157699227312001</v>
+        <v>0.01590517938413224</v>
       </c>
       <c r="EX2">
-        <v>0.01528530173946051</v>
+        <v>0.01541400541305071</v>
       </c>
       <c r="EY2">
-        <v>0.01181284129864895</v>
+        <v>0.01189459083297932</v>
       </c>
       <c r="EZ2">
-        <v>0.002734565553389058</v>
+        <v>0.002693559873989077</v>
       </c>
       <c r="FA2">
-        <v>0.0008643488252670883</v>
+        <v>0.0007980543288466979</v>
       </c>
       <c r="FB2">
-        <v>0.002566143556259828</v>
+        <v>0.002522860497450514</v>
       </c>
       <c r="FC2">
-        <v>8.873352448752824E-05</v>
+        <v>1.195126313342343E-05</v>
       </c>
       <c r="FD2">
-        <v>0.003180467945788607</v>
+        <v>0.003145491698080042</v>
       </c>
       <c r="FE2">
-        <v>0.01356058476885848</v>
+        <v>0.01366596705342156</v>
       </c>
       <c r="FF2">
-        <v>0.01214330179301621</v>
+        <v>0.01222951976934524</v>
       </c>
       <c r="FG2">
-        <v>0.01166490580117052</v>
+        <v>0.01174465497176213</v>
       </c>
       <c r="FH2">
-        <v>0.01658063571738141</v>
+        <v>0.01672685472139048</v>
       </c>
       <c r="FI2">
-        <v>0.006275216893038303</v>
+        <v>0.006282087420986423</v>
       </c>
       <c r="FJ2">
-        <v>0.00131639947756184</v>
+        <v>0.001256217548769543</v>
       </c>
       <c r="FK2">
-        <v>5.163338511990381E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.007023657580281057</v>
+        <v>0.007040648421723173</v>
       </c>
       <c r="FM2">
-        <v>0.01568862773258578</v>
+        <v>0.01582278512556921</v>
       </c>
       <c r="FN2">
-        <v>0.006493991589309266</v>
+        <v>0.006503820359037337</v>
       </c>
       <c r="FO2">
-        <v>0.001390472276299261</v>
+        <v>0.001331291949848177</v>
       </c>
       <c r="FP2">
-        <v>0.0003433321241478697</v>
+        <v>0.0002699925105380871</v>
       </c>
       <c r="FQ2">
-        <v>1.089019931437547E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>3.118317446847968E-05</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>8.546338854326804E-05</v>
+        <v>8.636908854313179E-06</v>
       </c>
       <c r="FT2">
-        <v>0.004678952920246782</v>
+        <v>0.004664238983187612</v>
       </c>
       <c r="FU2">
-        <v>6.506427489097295E-05</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.007181727877586733</v>
+        <v>0.007200856124156724</v>
       </c>
       <c r="FW2">
-        <v>0.004381773925312227</v>
+        <v>0.00436304157417719</v>
       </c>
       <c r="FX2">
-        <v>0.005446712407160245</v>
+        <v>0.00544238000978484</v>
       </c>
       <c r="FY2">
-        <v>0.00581286490091914</v>
+        <v>0.005813483567918789</v>
       </c>
       <c r="FZ2">
-        <v>0.003980020432160155</v>
+        <v>0.003955855624763305</v>
       </c>
       <c r="GA2">
-        <v>0.0001348456077015432</v>
+        <v>5.86868676844548E-05</v>
       </c>
       <c r="GB2">
-        <v>0.001630345772210594</v>
+        <v>0.001574408982647471</v>
       </c>
       <c r="GC2">
-        <v>0.001630345772210594</v>
+        <v>0.001574408982647471</v>
       </c>
       <c r="GD2">
-        <v>0.004523770922891875</v>
+        <v>0.004506958635905149</v>
       </c>
       <c r="GE2">
-        <v>0.003751997936046822</v>
+        <v>0.003724749839374436</v>
       </c>
       <c r="GF2">
-        <v>0.002531129356856648</v>
+        <v>0.002487372840790479</v>
       </c>
       <c r="GG2">
-        <v>0.002114400263959837</v>
+        <v>0.002065008793602604</v>
       </c>
       <c r="GH2">
-        <v>0.0007767926267594924</v>
+        <v>0.000709314207294373</v>
       </c>
       <c r="GI2">
-        <v>0.001423366375738578</v>
+        <v>0.001364630838840097</v>
       </c>
       <c r="GJ2">
-        <v>4.892987216598545E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0002461309458046735</v>
+        <v>0.0001714769910405598</v>
       </c>
       <c r="GL2">
-        <v>0.001482957474722842</v>
+        <v>0.001425027720585042</v>
       </c>
       <c r="GM2">
-        <v>0.000991829283094171</v>
+        <v>0.0009272585601398133</v>
       </c>
       <c r="GN2">
-        <v>0.0002205138262413199</v>
+        <v>0.0001455134802598213</v>
       </c>
       <c r="GO2">
-        <v>0.0002083375364488659</v>
+        <v>0.0001331725443277416</v>
       </c>
       <c r="GP2">
-        <v>0.002111227964013909</v>
+        <v>0.002061793598246931</v>
       </c>
       <c r="GQ2">
-        <v>0.004710800419703938</v>
+        <v>0.004696517120214318</v>
       </c>
       <c r="GR2">
-        <v>0.000856519545400539</v>
+        <v>0.0007901191825193425</v>
       </c>
       <c r="GS2">
-        <v>0.0009375819240188228</v>
+        <v>0.0008722776756302901</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.548209488429642E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.733904169424146E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.63385748804075E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.201231985464539E-05</v>
+        <v>5.699671540688201E-06</v>
       </c>
       <c r="F3">
-        <v>3.615471683583649E-05</v>
+        <v>9.860997488740532E-06</v>
       </c>
       <c r="G3">
-        <v>0.0001688255392334336</v>
+        <v>0.0001431380683004851</v>
       </c>
       <c r="H3">
-        <v>0.0001039020855282239</v>
+        <v>7.791794242472232E-05</v>
       </c>
       <c r="I3">
-        <v>1.507973193152922E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0001208928794510758</v>
+        <v>9.498637694469031E-05</v>
       </c>
       <c r="K3">
-        <v>0.0002494295788674442</v>
+        <v>0.0002241104336169548</v>
       </c>
       <c r="L3">
-        <v>0.0001736420092115639</v>
+        <v>0.0001479765474682267</v>
       </c>
       <c r="M3">
-        <v>0.000200225809090858</v>
+        <v>0.0001746818238427108</v>
       </c>
       <c r="N3">
-        <v>0.0001757269492020971</v>
+        <v>0.0001500710147349161</v>
       </c>
       <c r="O3">
-        <v>0.0001057865295196674</v>
+        <v>7.981099751211533E-05</v>
       </c>
       <c r="P3">
-        <v>7.697417965049232E-05</v>
+        <v>5.086698763586117E-05</v>
       </c>
       <c r="Q3">
-        <v>3.215150985401338E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.953997968424792E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2.27210438968332E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001285853694161474</v>
+        <v>0.0001027140182697813</v>
       </c>
       <c r="U3">
-        <v>0.0001010278795412745</v>
+        <v>7.5030602556562E-05</v>
       </c>
       <c r="V3">
-        <v>3.991537181876092E-05</v>
+        <v>1.363883704230643E-05</v>
       </c>
       <c r="W3">
-        <v>1.787329991884479E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>7.678974965132973E-05</v>
+        <v>5.068171487117944E-05</v>
       </c>
       <c r="Y3">
-        <v>5.125401376727687E-05</v>
+        <v>2.502929169218089E-05</v>
       </c>
       <c r="Z3">
-        <v>8.409797961814611E-05</v>
+        <v>5.802334029562199E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0001451885293407594</v>
+        <v>0.000119393047471392</v>
       </c>
       <c r="AB3">
-        <v>3.508770984068132E-05</v>
+        <v>8.789114732004881E-06</v>
       </c>
       <c r="AC3">
-        <v>2.068830190606304E-07</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.30308799408322E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001757966392017807</v>
+        <v>0.0001501410231878287</v>
       </c>
       <c r="AF3">
-        <v>0.000130680779406633</v>
+        <v>0.0001048190033798054</v>
       </c>
       <c r="AG3">
-        <v>7.433445266247822E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.613990779049789E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.832067591681344E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.571937692862486E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.266252094250477E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.437352093473583E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.433445266247822E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.914075364065481E-08</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.281362980560114E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>3.678983583295269E-05</v>
+        <v>1.049901870563526E-05</v>
       </c>
       <c r="AQ3">
-        <v>4.537231479398322E-05</v>
+        <v>1.912071589238829E-05</v>
       </c>
       <c r="AR3">
-        <v>3.615471683583649E-05</v>
+        <v>9.860997488740532E-06</v>
       </c>
       <c r="AS3">
-        <v>7.468476966088757E-05</v>
+        <v>4.856711603042826E-05</v>
       </c>
       <c r="AT3">
-        <v>0.0001200271994550065</v>
+        <v>9.411674116455867E-05</v>
       </c>
       <c r="AU3">
-        <v>0.0001348613393876508</v>
+        <v>0.0001090186667161272</v>
       </c>
       <c r="AV3">
-        <v>9.782959955579655E-05</v>
+        <v>7.181770781152988E-05</v>
       </c>
       <c r="AW3">
-        <v>8.404977361836499E-05</v>
+        <v>5.797491401522157E-05</v>
       </c>
       <c r="AX3">
-        <v>0.0001499150193192983</v>
+        <v>0.0001241411354697683</v>
       </c>
       <c r="AY3">
-        <v>5.602832174559873E-05</v>
+        <v>2.982541619796675E-05</v>
       </c>
       <c r="AZ3">
-        <v>2.729155987608039E-05</v>
+        <v>9.573397259134364E-07</v>
       </c>
       <c r="BA3">
-        <v>4.770378678339697E-05</v>
+        <v>2.146284170282062E-05</v>
       </c>
       <c r="BB3">
-        <v>1.796233091844054E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>2.03785479074695E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.027991977169983E-05</v>
+        <v>2.405074650734175E-05</v>
       </c>
       <c r="BE3">
-        <v>3.05420438613213E-05</v>
+        <v>4.222677020462689E-06</v>
       </c>
       <c r="BF3">
-        <v>2.902569986820639E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.499816593189958E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.219357894463404E-08</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.038503586203421E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>9.504122956845737E-05</v>
+        <v>6.901659617646191E-05</v>
       </c>
       <c r="BK3">
-        <v>5.125401376727687E-05</v>
+        <v>2.502929169218089E-05</v>
       </c>
       <c r="BL3">
-        <v>8.799992960042898E-05</v>
+        <v>6.194312050572805E-05</v>
       </c>
       <c r="BM3">
-        <v>0.0002368043489247701</v>
+        <v>0.00021142751182092</v>
       </c>
       <c r="BN3">
-        <v>0.0002621271388097899</v>
+        <v>0.0002368660159295509</v>
       </c>
       <c r="BO3">
-        <v>0.0003356208284760856</v>
+        <v>0.0003106955400468951</v>
       </c>
       <c r="BP3">
-        <v>7.678974965132973E-05</v>
+        <v>5.068171487117944E-05</v>
       </c>
       <c r="BQ3">
-        <v>0.000130680779406633</v>
+        <v>0.0001048190033798054</v>
       </c>
       <c r="BR3">
-        <v>0.0001853346791584724</v>
+        <v>0.0001597226478716919</v>
       </c>
       <c r="BS3">
-        <v>0.0003472802284231451</v>
+        <v>0.0003224082184209672</v>
       </c>
       <c r="BT3">
-        <v>0.0001778944291922555</v>
+        <v>0.000152248399173415</v>
       </c>
       <c r="BU3">
-        <v>5.200968676384568E-05</v>
+        <v>2.578841778828963E-05</v>
       </c>
       <c r="BV3">
-        <v>7.16354856747331E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>9.189486958274368E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>6.67943456967147E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>8.70198496048791E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>5.084075976915329E-05</v>
+        <v>2.461414930159485E-05</v>
       </c>
       <c r="CA3">
-        <v>0.000101239405540314</v>
+        <v>7.524309513814888E-05</v>
       </c>
       <c r="CB3">
-        <v>8.332822462164123E-05</v>
+        <v>5.72500678509135E-05</v>
       </c>
       <c r="CC3">
-        <v>0.0001401017793638562</v>
+        <v>0.0001142830532419024</v>
       </c>
       <c r="CD3">
-        <v>0.0003132714985775646</v>
+        <v>0.0002882440833539261</v>
       </c>
       <c r="CE3">
-        <v>0.0002859727987015167</v>
+        <v>0.0002608206401981649</v>
       </c>
       <c r="CF3">
-        <v>8.332822462164123E-05</v>
+        <v>5.72500678509135E-05</v>
       </c>
       <c r="CG3">
-        <v>0.0001318253894014358</v>
+        <v>0.0001059688437484133</v>
       </c>
       <c r="CH3">
-        <v>0.000121761673447131</v>
+        <v>9.585914095444414E-05</v>
       </c>
       <c r="CI3">
-        <v>9.861129355224719E-05</v>
+        <v>7.260297381226251E-05</v>
       </c>
       <c r="CJ3">
-        <v>0.0001112639654947967</v>
+        <v>8.531346300627147E-05</v>
       </c>
       <c r="CK3">
-        <v>0.0001722589692178438</v>
+        <v>0.0001465871875784831</v>
       </c>
       <c r="CL3">
-        <v>5.273270276056276E-05</v>
+        <v>2.651473765614802E-05</v>
       </c>
       <c r="CM3">
-        <v>0.000940916295727691</v>
+        <v>0.0009187569464136755</v>
       </c>
       <c r="CN3">
-        <v>0.1079259795099531</v>
+        <v>0.1083926957380943</v>
       </c>
       <c r="CO3">
-        <v>0.008269102962453447</v>
+        <v>0.008280430264273355</v>
       </c>
       <c r="CP3">
-        <v>0.0413328148123249</v>
+        <v>0.04149522901111709</v>
       </c>
       <c r="CQ3">
-        <v>0.02699056987744706</v>
+        <v>0.02708744620521418</v>
       </c>
       <c r="CR3">
-        <v>0.001293992594124519</v>
+        <v>0.001273446651150404</v>
       </c>
       <c r="CS3">
-        <v>0.0007940725963944471</v>
+        <v>0.0007712422347339374</v>
       </c>
       <c r="CT3">
-        <v>1.089465995053189E-06</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.05176620576495122</v>
+        <v>0.05197629605864433</v>
       </c>
       <c r="CV3">
-        <v>0.05532352574879891</v>
+        <v>0.05554987145992177</v>
       </c>
       <c r="CW3">
-        <v>0.000368667818326033</v>
+        <v>0.0003438935403814903</v>
       </c>
       <c r="CX3">
-        <v>0.1502424193178117</v>
+        <v>0.1509025034173679</v>
       </c>
       <c r="CY3">
-        <v>0.0002886466986893756</v>
+        <v>0.000263506758755246</v>
       </c>
       <c r="CZ3">
-        <v>0.002812746187228491</v>
+        <v>0.002799140292869894</v>
       </c>
       <c r="DA3">
-        <v>0.05446851275268118</v>
+        <v>0.05469095142332895</v>
       </c>
       <c r="DB3">
-        <v>0.01339043093919963</v>
+        <v>0.01342516050014571</v>
       </c>
       <c r="DC3">
-        <v>0.1072860495128587</v>
+        <v>0.1077498415370274</v>
       </c>
       <c r="DD3">
-        <v>0.01234326394395438</v>
+        <v>0.0123732084035591</v>
       </c>
       <c r="DE3">
-        <v>0.03040611586193849</v>
+        <v>0.03051859976113032</v>
       </c>
       <c r="DF3">
-        <v>0.0019922989909538</v>
+        <v>0.001974944006911093</v>
       </c>
       <c r="DG3">
-        <v>0.002635746688032172</v>
+        <v>0.002621331982333195</v>
       </c>
       <c r="DH3">
-        <v>0.001817915391745603</v>
+        <v>0.001799763549896766</v>
       </c>
       <c r="DI3">
-        <v>0.00184040439164349</v>
+        <v>0.001822355314820733</v>
       </c>
       <c r="DJ3">
-        <v>0.0003540745183922951</v>
+        <v>0.0003292335553637065</v>
       </c>
       <c r="DK3">
-        <v>0.0002330967989416045</v>
+        <v>0.0002077030199340484</v>
       </c>
       <c r="DL3">
-        <v>0.01972015791045898</v>
+        <v>0.0197838115925416</v>
       </c>
       <c r="DM3">
-        <v>0.007349441266629248</v>
+        <v>0.007356566111310731</v>
       </c>
       <c r="DN3">
-        <v>0.00437332998014253</v>
+        <v>0.004366855280363876</v>
       </c>
       <c r="DO3">
-        <v>0.0006602196370022177</v>
+        <v>0.000636777625071558</v>
       </c>
       <c r="DP3">
-        <v>1.237499144381032E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.004027496981712814</v>
+        <v>0.004019441974349803</v>
       </c>
       <c r="DR3">
-        <v>7.91109556407901E-05</v>
+        <v>5.301352777046813E-05</v>
       </c>
       <c r="DS3">
-        <v>0.002064527190625842</v>
+        <v>0.002047502258290937</v>
       </c>
       <c r="DT3">
-        <v>0.000333696978484821</v>
+        <v>0.0003087628988912646</v>
       </c>
       <c r="DU3">
-        <v>0.003761730382919549</v>
+        <v>0.003752460936871829</v>
       </c>
       <c r="DV3">
-        <v>0.005521653974928469</v>
+        <v>0.005520426620332316</v>
       </c>
       <c r="DW3">
-        <v>0.01181507794635265</v>
+        <v>0.01184260882384765</v>
       </c>
       <c r="DX3">
-        <v>0.0001496575893204672</v>
+        <v>0.0001238825291269173</v>
       </c>
       <c r="DY3">
-        <v>0.001312976994038318</v>
+        <v>0.001292517801580506</v>
       </c>
       <c r="DZ3">
-        <v>0.0002607667988159666</v>
+        <v>0.0002354994597689093</v>
       </c>
       <c r="EA3">
-        <v>1.707439992247226E-06</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>2.185225090077803E-05</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>5.389569675528209E-06</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>4.400146980020766E-05</v>
+        <v>1.774360672847721E-05</v>
       </c>
       <c r="EE3">
-        <v>0.002586040888257865</v>
+        <v>0.002571399048500755</v>
       </c>
       <c r="EF3">
-        <v>0.0001177909694651603</v>
+        <v>9.187029256853732E-05</v>
       </c>
       <c r="EG3">
-        <v>4.898338377758685E-05</v>
+        <v>2.27482859031592E-05</v>
       </c>
       <c r="EH3">
-        <v>0.005443394975283811</v>
+        <v>0.005441810010826123</v>
       </c>
       <c r="EI3">
-        <v>0.00272284168763671</v>
+        <v>0.002708824968506567</v>
       </c>
       <c r="EJ3">
-        <v>7.610012965446102E-05</v>
+        <v>4.998894360847916E-05</v>
       </c>
       <c r="EK3">
-        <v>0.000480569747817933</v>
+        <v>0.0004563068134082271</v>
       </c>
       <c r="EL3">
-        <v>0.0001247388294336129</v>
+        <v>9.884990125921442E-05</v>
       </c>
       <c r="EM3">
-        <v>0.0001138299894831454</v>
+        <v>8.789121261707049E-05</v>
       </c>
       <c r="EN3">
-        <v>1.654296292488529E-05</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>9.953942954803291E-10</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>9.981591954677749E-09</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>3.144954485720072E-05</v>
+        <v>5.134324904328826E-06</v>
       </c>
       <c r="ER3">
-        <v>1.754139892035181E-05</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0001049768295233439</v>
+        <v>7.899759753617435E-05</v>
       </c>
       <c r="ET3">
-        <v>0.0003165373985627355</v>
+        <v>0.0002915249070928735</v>
       </c>
       <c r="EU3">
-        <v>0.0001413493293581915</v>
+        <v>0.0001155363040014246</v>
       </c>
       <c r="EV3">
-        <v>0.003211057985419923</v>
+        <v>0.003199272204117279</v>
       </c>
       <c r="EW3">
-        <v>0.01084970095073603</v>
+        <v>0.01087282047189758</v>
       </c>
       <c r="EX3">
-        <v>0.007363423166565763</v>
+        <v>0.007370611902497108</v>
       </c>
       <c r="EY3">
-        <v>0.004502939479554028</v>
+        <v>0.00449705703926436</v>
       </c>
       <c r="EZ3">
-        <v>0.0008382335661939305</v>
+        <v>0.0008156050011110278</v>
       </c>
       <c r="FA3">
-        <v>0.005523216374921375</v>
+        <v>0.005521996159819052</v>
       </c>
       <c r="FB3">
-        <v>0.0007407662266364891</v>
+        <v>0.0007176922778665781</v>
       </c>
       <c r="FC3">
-        <v>0.004245269980723997</v>
+        <v>0.004238210102002753</v>
       </c>
       <c r="FD3">
-        <v>0.01170047594687301</v>
+        <v>0.01172748314267834</v>
       </c>
       <c r="FE3">
-        <v>0.01199235294554772</v>
+        <v>0.01202069389329922</v>
       </c>
       <c r="FF3">
-        <v>0.004559217479298492</v>
+        <v>0.004553592205185079</v>
       </c>
       <c r="FG3">
-        <v>0.006885914968733929</v>
+        <v>0.006890921698234271</v>
       </c>
       <c r="FH3">
-        <v>0.006014344972691365</v>
+        <v>0.006015369003370893</v>
       </c>
       <c r="FI3">
-        <v>0.0002841971587095791</v>
+        <v>0.0002590368862976093</v>
       </c>
       <c r="FJ3">
-        <v>8.132439963073978E-07</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.00819562996278706</v>
+        <v>0.008206621524700291</v>
       </c>
       <c r="FL3">
-        <v>0.02226828589888899</v>
+        <v>0.02234358342642394</v>
       </c>
       <c r="FM3">
-        <v>0.02141350890277018</v>
+        <v>0.02148490046824819</v>
       </c>
       <c r="FN3">
-        <v>0.01227383994426961</v>
+        <v>0.01230346716615052</v>
       </c>
       <c r="FO3">
-        <v>0.006620607269938581</v>
+        <v>0.0066244016577292</v>
       </c>
       <c r="FP3">
-        <v>0.0009992136954629868</v>
+        <v>0.0009773207401118618</v>
       </c>
       <c r="FQ3">
-        <v>0.002468677488790764</v>
+        <v>0.00245349934893752</v>
       </c>
       <c r="FR3">
-        <v>0.0009491605456902573</v>
+        <v>0.0009270388690413787</v>
       </c>
       <c r="FS3">
-        <v>0.005025381977181833</v>
+        <v>0.005021886873685187</v>
       </c>
       <c r="FT3">
-        <v>0.002671230387871055</v>
+        <v>0.002656977827369995</v>
       </c>
       <c r="FU3">
-        <v>0.006357575771132897</v>
+        <v>0.006360168218465623</v>
       </c>
       <c r="FV3">
-        <v>0.0142269819354012</v>
+        <v>0.01426553417344867</v>
       </c>
       <c r="FW3">
-        <v>0.009240436958043025</v>
+        <v>0.009256202837115955</v>
       </c>
       <c r="FX3">
-        <v>0.01055000795209681</v>
+        <v>0.01057175800556476</v>
       </c>
       <c r="FY3">
-        <v>0.01688733892332163</v>
+        <v>0.01693804784492503</v>
       </c>
       <c r="FZ3">
-        <v>0.008860274959769182</v>
+        <v>0.00887430366254059</v>
       </c>
       <c r="GA3">
-        <v>0.0001781750891909811</v>
+        <v>0.0001525303416672369</v>
       </c>
       <c r="GB3">
-        <v>2.319976389465954E-05</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>9.755859455702706E-06</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001430979893502517</v>
+        <v>0.001411059923379896</v>
       </c>
       <c r="GE3">
-        <v>5.353009375694214E-08</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0005080403976932002</v>
+        <v>0.0004839029923005119</v>
       </c>
       <c r="GG3">
-        <v>0.0004053809681593339</v>
+        <v>0.0003807744534687046</v>
       </c>
       <c r="GH3">
-        <v>0.0001010278795412745</v>
+        <v>7.5030602556562E-05</v>
       </c>
       <c r="GI3">
-        <v>0.0008582957661028365</v>
+        <v>0.0008357588766171697</v>
       </c>
       <c r="GJ3">
-        <v>6.548922970264068E-05</v>
+        <v>3.932955642222238E-05</v>
       </c>
       <c r="GK3">
-        <v>0.003052170586141365</v>
+        <v>0.003039658757980037</v>
       </c>
       <c r="GL3">
-        <v>0.003221494985372533</v>
+        <v>0.003209756896656362</v>
       </c>
       <c r="GM3">
-        <v>0.002954198486586215</v>
+        <v>0.002941238968202481</v>
       </c>
       <c r="GN3">
-        <v>0.001238979394374311</v>
+        <v>0.001218182064814185</v>
       </c>
       <c r="GO3">
-        <v>0.0001508822993149063</v>
+        <v>0.0001251128355175986</v>
       </c>
       <c r="GP3">
-        <v>0.0007068166967906398</v>
+        <v>0.0006835876133177236</v>
       </c>
       <c r="GQ3">
-        <v>0.0004689977778704764</v>
+        <v>0.0004446819645511323</v>
       </c>
       <c r="GR3">
-        <v>5.450380575252092E-05</v>
+        <v>2.829393382459188E-05</v>
       </c>
       <c r="GS3">
-        <v>0.0004090949681424701</v>
+        <v>0.0003845054248292638</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>9.416777165728422E-06</v>
+        <v>8.01802413587599E-06</v>
       </c>
       <c r="C4">
-        <v>0.0001163332320473802</v>
+        <v>0.0001149635240741297</v>
       </c>
       <c r="D4">
-        <v>1.461065825713695E-05</v>
+        <v>1.321331620345699E-05</v>
       </c>
       <c r="E4">
-        <v>8.975119157955561E-07</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.972343934711817E-05</v>
+        <v>1.832748623788382E-05</v>
       </c>
       <c r="G4">
-        <v>1.984147734919555E-06</v>
+        <v>5.83375547746973E-07</v>
       </c>
       <c r="H4">
-        <v>6.418067112953308E-07</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.400930624655359E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.148192020207344E-05</v>
+        <v>1.008372819153695E-05</v>
       </c>
       <c r="K4">
-        <v>9.693728670602566E-05</v>
+        <v>9.556230960623226E-05</v>
       </c>
       <c r="L4">
-        <v>6.69247911778276E-05</v>
+        <v>6.554166084631372E-05</v>
       </c>
       <c r="M4">
-        <v>1.422028275026662E-05</v>
+        <v>1.28228346466928E-05</v>
       </c>
       <c r="N4">
-        <v>0.0003220325556675385</v>
+        <v>0.0003207187282274027</v>
       </c>
       <c r="O4">
-        <v>0.0002724261747945023</v>
+        <v>0.0002710988712234766</v>
       </c>
       <c r="P4">
-        <v>0.0001452160425556966</v>
+        <v>0.0001438541809225343</v>
       </c>
       <c r="Q4">
-        <v>0.0001345735523683965</v>
+        <v>0.000133208799583164</v>
       </c>
       <c r="R4">
-        <v>5.333821593871376E-05</v>
+        <v>5.195139466133676E-05</v>
       </c>
       <c r="S4">
-        <v>3.477605461203324E-05</v>
+        <v>3.338419071491184E-05</v>
       </c>
       <c r="T4">
-        <v>2.519704944344972E-05</v>
+        <v>2.380258330191591E-05</v>
       </c>
       <c r="U4">
-        <v>2.047283036030691E-05</v>
+        <v>1.907708083156369E-05</v>
       </c>
       <c r="V4">
-        <v>8.827911155364807E-05</v>
+        <v>8.690178236326536E-05</v>
       </c>
       <c r="W4">
-        <v>0.0001319762423226858</v>
+        <v>0.0001306107839489882</v>
       </c>
       <c r="X4">
-        <v>3.753213666053828E-06</v>
+        <v>2.352922065523958E-06</v>
       </c>
       <c r="Y4">
-        <v>4.321104476048292E-06</v>
+        <v>2.920967149439479E-06</v>
       </c>
       <c r="Z4">
-        <v>3.271541657576751E-06</v>
+        <v>1.87111920543227E-06</v>
       </c>
       <c r="AA4">
-        <v>6.62394111657654E-06</v>
+        <v>5.224429381422692E-06</v>
       </c>
       <c r="AB4">
-        <v>6.538217115067861E-05</v>
+        <v>6.399862174909688E-05</v>
       </c>
       <c r="AC4">
-        <v>9.59584416887987E-05</v>
+        <v>9.458319867475514E-05</v>
       </c>
       <c r="AD4">
-        <v>8.734511153721036E-05</v>
+        <v>8.596752861522596E-05</v>
       </c>
       <c r="AE4">
-        <v>0.0001513998026645263</v>
+        <v>0.0001500396209192969</v>
       </c>
       <c r="AF4">
-        <v>0.0001052073718515731</v>
+        <v>0.000103834641413357</v>
       </c>
       <c r="AG4">
-        <v>0.0001746538530737806</v>
+        <v>0.000173299988552697</v>
       </c>
       <c r="AH4">
-        <v>0.0003981652070074177</v>
+        <v>0.0003968720618576727</v>
       </c>
       <c r="AI4">
-        <v>0.0004149494073028074</v>
+        <v>0.0004136608217697102</v>
       </c>
       <c r="AJ4">
-        <v>4.767534583905137E-05</v>
+        <v>4.628698617936683E-05</v>
       </c>
       <c r="AK4">
-        <v>2.452637543164635E-06</v>
+        <v>1.051992626513816E-06</v>
       </c>
       <c r="AL4">
-        <v>3.458657460869853E-05</v>
+        <v>3.319465923720466E-05</v>
       </c>
       <c r="AM4">
-        <v>0.0001052073718515731</v>
+        <v>0.000103834641413357</v>
       </c>
       <c r="AN4">
-        <v>8.05571114177465E-07</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.080362536612866E-06</v>
+        <v>6.796164872725207E-07</v>
       </c>
       <c r="AP4">
-        <v>1.679884229564739E-06</v>
+        <v>2.790293857913116E-07</v>
       </c>
       <c r="AQ4">
-        <v>1.211666171324442E-08</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.296435922816328E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.329993258605457E-06</v>
+        <v>1.929586685495332E-06</v>
       </c>
       <c r="AT4">
-        <v>2.150348937844576E-05</v>
+        <v>2.010801983980839E-05</v>
       </c>
       <c r="AU4">
-        <v>2.192283938582601E-05</v>
+        <v>2.052748376833122E-05</v>
       </c>
       <c r="AV4">
-        <v>8.568918150806719E-06</v>
+        <v>7.169934790523803E-06</v>
       </c>
       <c r="AW4">
-        <v>9.240175162620355E-06</v>
+        <v>7.84137415684895E-06</v>
       </c>
       <c r="AX4">
-        <v>3.004018652868541E-05</v>
+        <v>2.864703607977278E-05</v>
       </c>
       <c r="AY4">
-        <v>2.817645049588501E-06</v>
+        <v>1.417099291329119E-06</v>
       </c>
       <c r="AZ4">
-        <v>4.388242477229872E-06</v>
+        <v>2.988123389413643E-06</v>
       </c>
       <c r="BA4">
-        <v>5.010251388176776E-05</v>
+        <v>4.871481358956096E-05</v>
       </c>
       <c r="BB4">
-        <v>0.0001030104818129095</v>
+        <v>0.0001016371545648235</v>
       </c>
       <c r="BC4">
-        <v>4.085890871908704E-05</v>
+        <v>3.946869729764898E-05</v>
       </c>
       <c r="BD4">
-        <v>2.375025741798724E-05</v>
+        <v>2.235539823913922E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0001118705319688399</v>
+        <v>0.0001104996116529568</v>
       </c>
       <c r="BF4">
-        <v>3.943341769399944E-05</v>
+        <v>3.804281902190333E-05</v>
       </c>
       <c r="BG4">
-        <v>4.743176883476459E-05</v>
+        <v>4.604334300464928E-05</v>
       </c>
       <c r="BH4">
-        <v>5.667515099744139E-05</v>
+        <v>5.528923623597688E-05</v>
       </c>
       <c r="BI4">
-        <v>2.668604846965502E-06</v>
+        <v>1.268018600260015E-06</v>
       </c>
       <c r="BJ4">
-        <v>1.122681519758377E-07</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.679884229564739E-06</v>
+        <v>2.790293857913116E-07</v>
       </c>
       <c r="BL4">
-        <v>6.16290610846266E-07</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.987503087776423E-05</v>
+        <v>4.848726878724271E-05</v>
       </c>
       <c r="BN4">
-        <v>0.000162962822868027</v>
+        <v>0.0001616057823471926</v>
       </c>
       <c r="BO4">
-        <v>1.557196327405521E-05</v>
+        <v>1.41748823696872E-05</v>
       </c>
       <c r="BP4">
-        <v>7.754366136471198E-05</v>
+        <v>7.616341576862978E-05</v>
       </c>
       <c r="BQ4">
-        <v>0.0002241182139443174</v>
+        <v>0.0002227777869727938</v>
       </c>
       <c r="BR4">
-        <v>8.176004643891728E-05</v>
+        <v>8.038094627122842E-05</v>
       </c>
       <c r="BS4">
-        <v>0.0001156063680345879</v>
+        <v>0.0001142364626005591</v>
       </c>
       <c r="BT4">
-        <v>2.469922243468833E-05</v>
+        <v>2.330462105285251E-05</v>
       </c>
       <c r="BU4">
-        <v>0.0001091670819212611</v>
+        <v>0.0001077954271827886</v>
       </c>
       <c r="BV4">
-        <v>0.0001716931130216738</v>
+        <v>0.0001703384441822792</v>
       </c>
       <c r="BW4">
-        <v>5.099347689744806E-05</v>
+        <v>4.9606018645358E-05</v>
       </c>
       <c r="BX4">
-        <v>7.485866131745793E-06</v>
+        <v>6.086588548209484E-06</v>
       </c>
       <c r="BY4">
-        <v>5.549570897668407E-05</v>
+        <v>5.410947380653888E-05</v>
       </c>
       <c r="BZ4">
-        <v>1.89021113326634E-06</v>
+        <v>4.894134271601652E-07</v>
       </c>
       <c r="CA4">
-        <v>7.420451130594537E-08</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1.308046923020674E-09</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.294335057977898E-05</v>
+        <v>3.155098880800947E-05</v>
       </c>
       <c r="CD4">
-        <v>2.553699644943254E-05</v>
+        <v>2.414262265832356E-05</v>
       </c>
       <c r="CE4">
-        <v>2.559482345045025E-06</v>
+        <v>1.158866453985465E-06</v>
       </c>
       <c r="CF4">
-        <v>6.509687114565752E-05</v>
+        <v>6.371324423912294E-05</v>
       </c>
       <c r="CG4">
-        <v>5.73546910094008E-05</v>
+        <v>5.596896085261789E-05</v>
       </c>
       <c r="CH4">
-        <v>4.274989075236695E-05</v>
+        <v>4.136019303745096E-05</v>
       </c>
       <c r="CI4">
-        <v>5.91606580411845E-06</v>
+        <v>4.516361766680165E-06</v>
       </c>
       <c r="CJ4">
-        <v>1.91708103373923E-05</v>
+        <v>1.777470710027647E-05</v>
       </c>
       <c r="CK4">
-        <v>0.0001379879524284875</v>
+        <v>0.0001366241272034058</v>
       </c>
       <c r="CL4">
-        <v>0.0001822969632082938</v>
+        <v>0.0001809451750239791</v>
       </c>
       <c r="CM4">
-        <v>0.0003259080457357443</v>
+        <v>0.0003245952711160421</v>
       </c>
       <c r="CN4">
-        <v>0.1356265723869289</v>
+        <v>0.1356620155584208</v>
       </c>
       <c r="CO4">
-        <v>0.01188200220911459</v>
+        <v>0.01188382877735323</v>
       </c>
       <c r="CP4">
-        <v>0.04683997082434938</v>
+        <v>0.04685129411765473</v>
       </c>
       <c r="CQ4">
-        <v>0.04012209570611967</v>
+        <v>0.040131594013147</v>
       </c>
       <c r="CR4">
-        <v>0.001518319526721318</v>
+        <v>0.00151733068408193</v>
       </c>
       <c r="CS4">
-        <v>9.531268767743389E-07</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001975707734771018</v>
+        <v>0.001974843146778929</v>
       </c>
       <c r="CU4">
-        <v>0.02315677740754242</v>
+        <v>0.02316166689518084</v>
       </c>
       <c r="CV4">
-        <v>0.07332937129054354</v>
+        <v>0.07334789072719972</v>
       </c>
       <c r="CW4">
-        <v>0.004623183081364656</v>
+        <v>0.004623037709805427</v>
       </c>
       <c r="CX4">
-        <v>0.1187380120897026</v>
+        <v>0.1187688672939792</v>
       </c>
       <c r="CY4">
-        <v>0.003972549069913971</v>
+        <v>0.003972226946313061</v>
       </c>
       <c r="CZ4">
-        <v>0.004236292674555667</v>
+        <v>0.00423604219986917</v>
       </c>
       <c r="DA4">
-        <v>0.0575503810128448</v>
+        <v>0.05756461390945208</v>
       </c>
       <c r="DB4">
-        <v>0.00313749515521763</v>
+        <v>0.003136946179835627</v>
       </c>
       <c r="DC4">
-        <v>0.1190372280949685</v>
+        <v>0.1190681645846359</v>
       </c>
       <c r="DD4">
-        <v>0.009516524167483895</v>
+        <v>0.009517708127026937</v>
       </c>
       <c r="DE4">
-        <v>0.01800579231688883</v>
+        <v>0.01800928248153549</v>
       </c>
       <c r="DF4">
-        <v>0.000386135976795712</v>
+        <v>0.0003848395637703836</v>
       </c>
       <c r="DG4">
-        <v>0.001298126122846074</v>
+        <v>0.001297077462193772</v>
       </c>
       <c r="DH4">
-        <v>0.003139474455252464</v>
+        <v>0.003138926017569561</v>
       </c>
       <c r="DI4">
-        <v>0.0008188835144117536</v>
+        <v>0.0008177046621186652</v>
       </c>
       <c r="DJ4">
-        <v>0.0003400424659844998</v>
+        <v>0.0003387335311389148</v>
       </c>
       <c r="DK4">
-        <v>2.937432551696674E-05</v>
+        <v>2.798099417942667E-05</v>
       </c>
       <c r="DL4">
-        <v>0.01407138424764611</v>
+        <v>0.01407380558612197</v>
       </c>
       <c r="DM4">
-        <v>0.00247208634350692</v>
+        <v>0.00247135660234269</v>
       </c>
       <c r="DN4">
-        <v>0.006720235118271244</v>
+        <v>0.006720659434466595</v>
       </c>
       <c r="DO4">
-        <v>0.004991261887842574</v>
+        <v>0.004991216509027961</v>
       </c>
       <c r="DP4">
-        <v>0.002678043047131608</v>
+        <v>0.002677369256420664</v>
       </c>
       <c r="DQ4">
-        <v>0.004228139374412175</v>
+        <v>0.004227886684790059</v>
       </c>
       <c r="DR4">
-        <v>0.0002599465045748692</v>
+        <v>0.0002586158107611694</v>
       </c>
       <c r="DS4">
-        <v>7.390818130073016E-05</v>
+        <v>7.252694808562946E-05</v>
       </c>
       <c r="DT4">
-        <v>0.001539812427099577</v>
+        <v>0.001538829423248136</v>
       </c>
       <c r="DU4">
-        <v>0.002766078348680965</v>
+        <v>0.002765428473749115</v>
       </c>
       <c r="DV4">
-        <v>0.006720235118271244</v>
+        <v>0.006720659434466595</v>
       </c>
       <c r="DW4">
-        <v>0.009262393163011376</v>
+        <v>0.009263508085010877</v>
       </c>
       <c r="DX4">
-        <v>0.0001156063680345879</v>
+        <v>0.0001142364626005591</v>
       </c>
       <c r="DY4">
-        <v>0.004215816074195293</v>
+        <v>0.004215560036810172</v>
       </c>
       <c r="DZ4">
-        <v>0.001183246520824277</v>
+        <v>0.001182166651836954</v>
       </c>
       <c r="EA4">
-        <v>0.0001561425927479959</v>
+        <v>0.0001547836994349969</v>
       </c>
       <c r="EB4">
-        <v>0.0003423573260252397</v>
+        <v>0.0003410490200374015</v>
       </c>
       <c r="EC4">
-        <v>0.0005426644095504984</v>
+        <v>0.0005414105192331498</v>
       </c>
       <c r="ED4">
-        <v>0.001789856931500178</v>
+        <v>0.001788941855048606</v>
       </c>
       <c r="EE4">
-        <v>0.006527188814873771</v>
+        <v>0.006527560687871158</v>
       </c>
       <c r="EF4">
-        <v>0.0002105212837050213</v>
+        <v>0.0002091771629745824</v>
       </c>
       <c r="EG4">
-        <v>0.002265183039865572</v>
+        <v>0.002264397091093524</v>
       </c>
       <c r="EH4">
-        <v>0.008347652146912599</v>
+        <v>0.008348518569234308</v>
       </c>
       <c r="EI4">
-        <v>0.004995348087914489</v>
+        <v>0.00499530381916205</v>
       </c>
       <c r="EJ4">
-        <v>8.739015153800304E-06</v>
+        <v>7.340078002279969E-06</v>
       </c>
       <c r="EK4">
-        <v>0.0003718706465446526</v>
+        <v>0.0003705703581820335</v>
       </c>
       <c r="EL4">
-        <v>0.0006148501508209149</v>
+        <v>0.0006136158705714774</v>
       </c>
       <c r="EM4">
-        <v>0.0001682991329619422</v>
+        <v>0.0001669435421097195</v>
       </c>
       <c r="EN4">
-        <v>3.023410353209821E-05</v>
+        <v>2.884100576291899E-05</v>
       </c>
       <c r="EO4">
-        <v>5.449462795906577E-05</v>
+        <v>5.3108120834011E-05</v>
       </c>
       <c r="EP4">
-        <v>0.000601533810586557</v>
+        <v>0.0006002959128036326</v>
       </c>
       <c r="EQ4">
-        <v>0.0009460774166502736</v>
+        <v>0.0009449331180102596</v>
       </c>
       <c r="ER4">
-        <v>0.0006684096117635225</v>
+        <v>0.0006671898815436045</v>
       </c>
       <c r="ES4">
-        <v>0.0001092682019230408</v>
+        <v>0.0001078965746549532</v>
       </c>
       <c r="ET4">
-        <v>0.0001102109619396327</v>
+        <v>0.0001088395907828992</v>
       </c>
       <c r="EU4">
-        <v>0.0005449888095914062</v>
+        <v>0.0005437355507234526</v>
       </c>
       <c r="EV4">
-        <v>0.00823177014487316</v>
+        <v>0.008232605086546618</v>
       </c>
       <c r="EW4">
-        <v>0.01609118528319314</v>
+        <v>0.01609415532332084</v>
       </c>
       <c r="EX4">
-        <v>0.01267577722308445</v>
+        <v>0.01267781942922687</v>
       </c>
       <c r="EY4">
-        <v>0.00665216611707328</v>
+        <v>0.006652571941559429</v>
       </c>
       <c r="EZ4">
-        <v>0.0001059008368637776</v>
+        <v>0.0001045282948131258</v>
       </c>
       <c r="FA4">
-        <v>0.003612407763575746</v>
+        <v>0.003611987803541343</v>
       </c>
       <c r="FB4">
-        <v>0.0004806060284583161</v>
+        <v>0.0004793352792842701</v>
       </c>
       <c r="FC4">
-        <v>0.004431795377996372</v>
+        <v>0.004431598013816518</v>
       </c>
       <c r="FD4">
-        <v>0.0113174451991788</v>
+        <v>0.01131911839916064</v>
       </c>
       <c r="FE4">
-        <v>0.01830156332209419</v>
+        <v>0.01830513383625857</v>
       </c>
       <c r="FF4">
-        <v>0.009435489166057739</v>
+        <v>0.009436651111531892</v>
       </c>
       <c r="FG4">
-        <v>0.009960551175298447</v>
+        <v>0.009961855759768578</v>
       </c>
       <c r="FH4">
-        <v>0.009084766159885268</v>
+        <v>0.00908583282751302</v>
       </c>
       <c r="FI4">
-        <v>0.001831983432241574</v>
+        <v>0.001831079799927388</v>
       </c>
       <c r="FJ4">
-        <v>0.0002008418735346707</v>
+        <v>0.0001994951232836723</v>
       </c>
       <c r="FK4">
-        <v>0.00592280980423714</v>
+        <v>0.005923017490883676</v>
       </c>
       <c r="FL4">
-        <v>0.01471491825897185</v>
+        <v>0.01471751442069456</v>
       </c>
       <c r="FM4">
-        <v>0.01206771321238297</v>
+        <v>0.01206959023110285</v>
       </c>
       <c r="FN4">
-        <v>0.005099934089755126</v>
+        <v>0.005099918232965529</v>
       </c>
       <c r="FO4">
-        <v>0.001618484628484151</v>
+        <v>0.001617522996820412</v>
       </c>
       <c r="FP4">
-        <v>6.803369119734342E-05</v>
+        <v>6.665086211098278E-05</v>
       </c>
       <c r="FQ4">
-        <v>0.000848394074931118</v>
+        <v>0.0008472232395134637</v>
       </c>
       <c r="FR4">
-        <v>0.0003836773067524412</v>
+        <v>0.0003823802258017626</v>
       </c>
       <c r="FS4">
-        <v>0.005252085092432873</v>
+        <v>0.005252110569173176</v>
       </c>
       <c r="FT4">
-        <v>0.001385834324389675</v>
+        <v>0.001384809490656073</v>
       </c>
       <c r="FU4">
-        <v>0.005016042088278688</v>
+        <v>0.005016003441284028</v>
       </c>
       <c r="FV4">
-        <v>0.008471444149091248</v>
+        <v>0.008472344200901646</v>
       </c>
       <c r="FW4">
-        <v>0.005712718800539691</v>
+        <v>0.005712869413603861</v>
       </c>
       <c r="FX4">
-        <v>0.00584612940288762</v>
+        <v>0.005846316258441319</v>
       </c>
       <c r="FY4">
-        <v>0.008044174141571606</v>
+        <v>0.008044958120682377</v>
       </c>
       <c r="FZ4">
-        <v>0.003840369467587706</v>
+        <v>0.003840011435912258</v>
       </c>
       <c r="GA4">
-        <v>7.644405734535975E-05</v>
+        <v>7.506351302948726E-05</v>
       </c>
       <c r="GB4">
-        <v>0.001035282218220213</v>
+        <v>0.001034162153067118</v>
       </c>
       <c r="GC4">
-        <v>0.002314090740726312</v>
+        <v>0.002313318078280876</v>
       </c>
       <c r="GD4">
-        <v>0.003202096656354569</v>
+        <v>0.003201565230696406</v>
       </c>
       <c r="GE4">
-        <v>0.001152820520288802</v>
+        <v>0.001151732385736476</v>
       </c>
       <c r="GF4">
-        <v>0.002089300736770171</v>
+        <v>0.002088467007593747</v>
       </c>
       <c r="GG4">
-        <v>0.0004202043673952909</v>
+        <v>0.0004189172094311633</v>
       </c>
       <c r="GH4">
-        <v>0.0003305670758177399</v>
+        <v>0.0003292555668759223</v>
       </c>
       <c r="GI4">
-        <v>0.000841853414816007</v>
+        <v>0.000840680802554522</v>
       </c>
       <c r="GJ4">
-        <v>1.660329129220584E-05</v>
+        <v>1.520649055968505E-05</v>
       </c>
       <c r="GK4">
-        <v>0.002158771037992798</v>
+        <v>0.002157956181204477</v>
       </c>
       <c r="GL4">
-        <v>0.002830345449812019</v>
+        <v>0.002829713033760489</v>
       </c>
       <c r="GM4">
-        <v>0.001856554432674006</v>
+        <v>0.00185565747534824</v>
       </c>
       <c r="GN4">
-        <v>6.437279113291425E-05</v>
+        <v>6.298896752190628E-05</v>
       </c>
       <c r="GO4">
-        <v>0.001359634723928581</v>
+        <v>0.001358602772779057</v>
       </c>
       <c r="GP4">
-        <v>0.003773735866415003</v>
+        <v>0.003773359732972902</v>
       </c>
       <c r="GQ4">
-        <v>0.002816680849571532</v>
+        <v>0.00281604472137777</v>
       </c>
       <c r="GR4">
-        <v>0.0007221300727089634</v>
+        <v>0.0007209249362560251</v>
       </c>
       <c r="GS4">
-        <v>0.0003299824058074501</v>
+        <v>0.0003286707380334531</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.699048673588725E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.117221564187391E-05</v>
+        <v>1.490563849101272E-05</v>
       </c>
       <c r="D5">
-        <v>7.632340162860045E-05</v>
+        <v>5.021924670977327E-05</v>
       </c>
       <c r="E5">
-        <v>2.837615837476418E-05</v>
+        <v>2.050454792625714E-06</v>
       </c>
       <c r="F5">
-        <v>1.269656427280815E-07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.140617577396781E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.633513449166321E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001612072107669062</v>
+        <v>0.0001354952764049899</v>
       </c>
       <c r="J5">
-        <v>5.280864697540085E-05</v>
+        <v>2.659583800040763E-05</v>
       </c>
       <c r="K5">
-        <v>8.979597985696265E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.277010468662055E-05</v>
+        <v>6.674194464948222E-05</v>
       </c>
       <c r="M5">
-        <v>0.0004742373428382008</v>
+        <v>0.0004499718192108788</v>
       </c>
       <c r="N5">
-        <v>0.0004476228743625364</v>
+        <v>0.0004232343739066132</v>
       </c>
       <c r="O5">
-        <v>0.0001043906940210548</v>
+        <v>7.841622895904373E-05</v>
       </c>
       <c r="P5">
-        <v>8.10748653564618E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6.847941307786251E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3.208593416228791E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2.644363848544867E-05</v>
+        <v>1.090053555563581E-07</v>
       </c>
       <c r="T5">
-        <v>8.496314913376155E-05</v>
+        <v>5.889891568656063E-05</v>
       </c>
       <c r="U5">
-        <v>0.0001117697635984209</v>
+        <v>8.582939482412941E-05</v>
       </c>
       <c r="V5">
-        <v>0.0002549599853972446</v>
+        <v>0.0002296812522058547</v>
       </c>
       <c r="W5">
-        <v>0.0002843561637135875</v>
+        <v>0.0002592132607299526</v>
       </c>
       <c r="X5">
-        <v>0.0005521555683754583</v>
+        <v>0.0005282500796019437</v>
       </c>
       <c r="Y5">
-        <v>0.0003235627814680404</v>
+        <v>0.0002986010395515907</v>
       </c>
       <c r="Z5">
-        <v>6.056906953092502E-05</v>
+        <v>3.439211895210287E-05</v>
       </c>
       <c r="AA5">
-        <v>4.805377724773456E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>5.464627287015139E-05</v>
+        <v>2.844195496853422E-05</v>
       </c>
       <c r="AC5">
-        <v>0.0002320376067101169</v>
+        <v>0.0002066529566398115</v>
       </c>
       <c r="AD5">
-        <v>2.727653243774492E-05</v>
+        <v>9.457478407251737E-07</v>
       </c>
       <c r="AE5">
-        <v>4.478373143502544E-05</v>
+        <v>1.85338419275448E-05</v>
       </c>
       <c r="AF5">
-        <v>0.0001013450041954958</v>
+        <v>7.535646598842104E-05</v>
       </c>
       <c r="AG5">
-        <v>6.614452621159243E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>5.619818378126617E-05</v>
+        <v>3.000103675673396E-05</v>
       </c>
       <c r="AI5">
-        <v>2.215619773101053E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.668978047135096E-05</v>
+        <v>3.56284683759493E-07</v>
       </c>
       <c r="AK5">
-        <v>8.392513519321348E-05</v>
+        <v>5.785610542018817E-05</v>
       </c>
       <c r="AL5">
-        <v>0.0002010040484875544</v>
+        <v>0.0001754760024078977</v>
       </c>
       <c r="AM5">
-        <v>0.0002437508360392452</v>
+        <v>0.0002184203090034423</v>
       </c>
       <c r="AN5">
-        <v>0.000145850291646469</v>
+        <v>0.0001200673979410572</v>
       </c>
       <c r="AO5">
-        <v>0.0001139845484715698</v>
+        <v>8.805441349999288E-05</v>
       </c>
       <c r="AP5">
-        <v>0.0003428728203620638</v>
+        <v>0.0003180003038737125</v>
       </c>
       <c r="AQ5">
-        <v>0.0002223759572634849</v>
+        <v>0.000196946663844052</v>
       </c>
       <c r="AR5">
-        <v>6.347631636441333E-05</v>
+        <v>3.731279923048113E-05</v>
       </c>
       <c r="AS5">
-        <v>0.0001043906940210548</v>
+        <v>7.841622895904373E-05</v>
       </c>
       <c r="AT5">
-        <v>0.0001888252591850909</v>
+        <v>0.0001632409388692611</v>
       </c>
       <c r="AU5">
-        <v>1.833806794969275E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>5.481920386024682E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.731029443581122E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.593353708741152E-06</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001013450041954958</v>
+        <v>7.535646598842104E-05</v>
       </c>
       <c r="AZ5">
-        <v>6.291419039660893E-05</v>
+        <v>3.674807586085907E-05</v>
       </c>
       <c r="BA5">
-        <v>2.003931385225441E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>4.951161216423751E-05</v>
+        <v>2.328356866050534E-05</v>
       </c>
       <c r="BC5">
-        <v>0.0001060202739277211</v>
+        <v>8.005333862603784E-05</v>
       </c>
       <c r="BD5">
-        <v>8.709257501179932E-05</v>
+        <v>6.103818095107579E-05</v>
       </c>
       <c r="BE5">
-        <v>0.0001776140198272112</v>
+        <v>0.0001519778960097567</v>
       </c>
       <c r="BF5">
-        <v>0.0003445412802665033</v>
+        <v>0.000319676473190342</v>
       </c>
       <c r="BG5">
-        <v>0.0002000027385449041</v>
+        <v>0.0001744700657366953</v>
       </c>
       <c r="BH5">
-        <v>0.0001227047529721227</v>
+        <v>9.681491123785814E-05</v>
       </c>
       <c r="BI5">
-        <v>0.0001715471601746887</v>
+        <v>0.0001458830033660694</v>
       </c>
       <c r="BJ5">
-        <v>0.0001776140198272112</v>
+        <v>0.0001519778960097567</v>
       </c>
       <c r="BK5">
-        <v>0.0001176710432604269</v>
+        <v>9.175794238585641E-05</v>
       </c>
       <c r="BL5">
-        <v>0.0001715471601746887</v>
+        <v>0.0001458830033660694</v>
       </c>
       <c r="BM5">
-        <v>6.419539232322847E-05</v>
+        <v>3.803519780612852E-05</v>
       </c>
       <c r="BN5">
-        <v>4.43912674575037E-07</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>5.115341007020404E-05</v>
+        <v>2.493295278221254E-05</v>
       </c>
       <c r="BP5">
-        <v>3.577542795097327E-05</v>
+        <v>9.48391399419888E-06</v>
       </c>
       <c r="BQ5">
-        <v>9.057195481251891E-05</v>
+        <v>6.453363783760238E-05</v>
       </c>
       <c r="BR5">
-        <v>0.0001987319986176854</v>
+        <v>0.0001731934541323334</v>
       </c>
       <c r="BS5">
-        <v>4.728837429157279E-05</v>
+        <v>2.10500579265563E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0001691738603106188</v>
+        <v>0.0001434987372529131</v>
       </c>
       <c r="BU5">
-        <v>0.000133109622376187</v>
+        <v>0.0001072678581694707</v>
       </c>
       <c r="BV5">
-        <v>0.0001974394686917147</v>
+        <v>0.0001718949518447011</v>
       </c>
       <c r="BW5">
-        <v>0.0003574794495254736</v>
+        <v>0.0003326744255340215</v>
       </c>
       <c r="BX5">
-        <v>0.0001847462194187167</v>
+        <v>0.0001591430511828292</v>
       </c>
       <c r="BY5">
-        <v>0.0001785577097731616</v>
+        <v>0.0001529259464409387</v>
       </c>
       <c r="BZ5">
-        <v>0.0001439158417572641</v>
+        <v>0.0001181240095861948</v>
       </c>
       <c r="CA5">
-        <v>0.0002199858274003788</v>
+        <v>0.0001945454899658915</v>
       </c>
       <c r="CB5">
-        <v>4.357514350424695E-05</v>
+        <v>1.731966950384477E-05</v>
       </c>
       <c r="CC5">
-        <v>8.979597985696265E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>2.140617577396781E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.633513449166321E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>3.371828606879545E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0001315040024681484</v>
+        <v>0.0001056548192124884</v>
       </c>
       <c r="CH5">
-        <v>8.559920509733165E-05</v>
+        <v>5.953791065848568E-05</v>
       </c>
       <c r="CI5">
-        <v>3.453940202176628E-05</v>
+        <v>8.242176789976887E-06</v>
       </c>
       <c r="CJ5">
-        <v>0.0001441693217427461</v>
+        <v>0.0001183786608204942</v>
       </c>
       <c r="CK5">
-        <v>0.00029333041319959</v>
+        <v>0.0002682289773127665</v>
       </c>
       <c r="CL5">
-        <v>0.000179762319704168</v>
+        <v>0.0001541361224838196</v>
       </c>
       <c r="CM5">
-        <v>0.0002778126640883644</v>
+        <v>0.0002526395257148099</v>
       </c>
       <c r="CN5">
-        <v>0.00101620654179708</v>
+        <v>0.0009944452820947886</v>
       </c>
       <c r="CO5">
-        <v>0.1093022037397496</v>
+        <v>0.1097807969593972</v>
       </c>
       <c r="CP5">
-        <v>0.02308277467794112</v>
+        <v>0.02316297587411035</v>
       </c>
       <c r="CQ5">
-        <v>0.0492537741790051</v>
+        <v>0.0494549030774467</v>
       </c>
       <c r="CR5">
-        <v>0.03258945613344885</v>
+        <v>0.0327135846219098</v>
       </c>
       <c r="CS5">
-        <v>8.215935829434781E-07</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>6.089168951244706E-06</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0003012793127443193</v>
+        <v>0.0002762146061447168</v>
       </c>
       <c r="CV5">
-        <v>0.03568129395636477</v>
+        <v>0.03581970882482084</v>
       </c>
       <c r="CW5">
-        <v>0.0757584356609587</v>
+        <v>0.07608203400549041</v>
       </c>
       <c r="CX5">
-        <v>0.01250669528368284</v>
+        <v>0.01253802784645708</v>
       </c>
       <c r="CY5">
-        <v>0.1110014136424279</v>
+        <v>0.1114878583600361</v>
       </c>
       <c r="CZ5">
-        <v>0.004047338168189941</v>
+        <v>0.004039582784833714</v>
       </c>
       <c r="DA5">
-        <v>7.218101086585462E-06</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.0686660260671743</v>
+        <v>0.06895685268681578</v>
       </c>
       <c r="DC5">
-        <v>0.001217871130246802</v>
+        <v>0.00119704169721433</v>
       </c>
       <c r="DD5">
-        <v>0.1196696431459577</v>
+        <v>0.1201961409412708</v>
       </c>
       <c r="DE5">
-        <v>0.000194521088858864</v>
+        <v>0.0001689630871249804</v>
       </c>
       <c r="DF5">
-        <v>0.02689092045983073</v>
+        <v>0.02698871786279762</v>
       </c>
       <c r="DG5">
-        <v>0.004565384438518999</v>
+        <v>0.004560022778992048</v>
       </c>
       <c r="DH5">
-        <v>4.586568737305675E-05</v>
+        <v>1.962079723312188E-05</v>
       </c>
       <c r="DI5">
-        <v>0.000689223190524952</v>
+        <v>0.0006659510467867237</v>
       </c>
       <c r="DJ5">
-        <v>0.003211899816039418</v>
+        <v>0.003200284142963966</v>
       </c>
       <c r="DK5">
-        <v>5.93247646021922E-05</v>
+        <v>3.314206449378285E-05</v>
       </c>
       <c r="DL5">
-        <v>3.246539614055434E-06</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01872372892760414</v>
+        <v>0.01878378838686083</v>
       </c>
       <c r="DN5">
-        <v>0.00421109025881109</v>
+        <v>0.004204091520766033</v>
       </c>
       <c r="DO5">
-        <v>0.006084526651510592</v>
+        <v>0.006086184455540414</v>
       </c>
       <c r="DP5">
-        <v>0.0001785577097731616</v>
+        <v>0.0001529259464409387</v>
       </c>
       <c r="DQ5">
-        <v>0.0002736496243268012</v>
+        <v>0.0002484572498964499</v>
       </c>
       <c r="DR5">
-        <v>0.004475976743639797</v>
+        <v>0.004470201960146878</v>
       </c>
       <c r="DS5">
-        <v>2.076520581067917E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001747885899890368</v>
+        <v>0.001729505493241501</v>
       </c>
       <c r="DU5">
-        <v>0.0002282343169279491</v>
+        <v>0.0002028320930888462</v>
       </c>
       <c r="DV5">
-        <v>0.002444559359988608</v>
+        <v>0.002429398055489829</v>
       </c>
       <c r="DW5">
-        <v>0.002952045830922475</v>
+        <v>0.002939229456844174</v>
       </c>
       <c r="DX5">
-        <v>0.006378106634695888</v>
+        <v>0.006381120976629366</v>
       </c>
       <c r="DY5">
-        <v>4.43912674575037E-07</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.005132695706026419</v>
+        <v>0.005129955407905635</v>
       </c>
       <c r="EA5">
-        <v>0.0007922632046233665</v>
+        <v>0.0007694671753776905</v>
       </c>
       <c r="EB5">
-        <v>8.304789524345712E-06</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>4.126605063649954E-06</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>1.45285941678792E-05</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>1.116338636062045E-06</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001951209288245083</v>
+        <v>0.001933768373042501</v>
       </c>
       <c r="EG5">
-        <v>1.774427198370223E-06</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0001745674100017049</v>
+        <v>0.0001489172087881652</v>
       </c>
       <c r="EI5">
-        <v>0.002456970559277761</v>
+        <v>0.00244186660290634</v>
       </c>
       <c r="EJ5">
-        <v>0.001135907634941237</v>
+        <v>0.00111469947517511</v>
       </c>
       <c r="EK5">
-        <v>0.0003036751126071006</v>
+        <v>0.0002786214762217824</v>
       </c>
       <c r="EL5">
-        <v>0.001345226322952573</v>
+        <v>0.001324985356968359</v>
       </c>
       <c r="EM5">
-        <v>0.0005883804063006917</v>
+        <v>0.0005646423007566678</v>
       </c>
       <c r="EN5">
-        <v>0.0003858007579033793</v>
+        <v>0.0003611265974942427</v>
       </c>
       <c r="EO5">
-        <v>1.736042100568718E-05</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>9.746591441766948E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>4.888035320039268E-05</v>
+        <v>2.264939285368576E-05</v>
       </c>
       <c r="ER5">
-        <v>0.0006465556629687215</v>
+        <v>0.0006230863664213769</v>
       </c>
       <c r="ES5">
-        <v>0.0001034544940746754</v>
+        <v>7.747570313629192E-05</v>
       </c>
       <c r="ET5">
-        <v>3.870590578313105E-05</v>
+        <v>1.242793261415839E-05</v>
       </c>
       <c r="EU5">
-        <v>0.0004017087769922524</v>
+        <v>0.0003771081223808613</v>
       </c>
       <c r="EV5">
-        <v>4.790929325600984E-05</v>
+        <v>2.167384595618376E-05</v>
       </c>
       <c r="EW5">
-        <v>0.005109825307336315</v>
+        <v>0.005106979332519326</v>
       </c>
       <c r="EX5">
-        <v>0.009307198466933047</v>
+        <v>0.009323747192412054</v>
       </c>
       <c r="EY5">
-        <v>0.00863749950528985</v>
+        <v>0.008650953769029157</v>
       </c>
       <c r="EZ5">
-        <v>0.003050146425303794</v>
+        <v>0.003037783342261228</v>
       </c>
       <c r="FA5">
-        <v>0.002056023882241859</v>
+        <v>0.0020390672812901</v>
       </c>
       <c r="FB5">
-        <v>0.006840784208196171</v>
+        <v>0.006845936433165186</v>
       </c>
       <c r="FC5">
-        <v>0.001632744306485068</v>
+        <v>0.001613831867869828</v>
       </c>
       <c r="FD5">
-        <v>0.007177128988932127</v>
+        <v>0.007183835354067017</v>
       </c>
       <c r="FE5">
-        <v>0.01592762508775013</v>
+        <v>0.01597476465785033</v>
       </c>
       <c r="FF5">
-        <v>0.01433259217910515</v>
+        <v>0.0143723616193529</v>
       </c>
       <c r="FG5">
-        <v>0.006025428654895412</v>
+        <v>0.006026813386246474</v>
       </c>
       <c r="FH5">
-        <v>0.008669364503464793</v>
+        <v>0.008682966005027862</v>
       </c>
       <c r="FI5">
-        <v>0.00643492593144158</v>
+        <v>0.006438202816920631</v>
       </c>
       <c r="FJ5">
-        <v>0.0002088654280372963</v>
+        <v>0.0001833737068433437</v>
       </c>
       <c r="FK5">
-        <v>0.0001612072107669062</v>
+        <v>0.0001354952764049899</v>
       </c>
       <c r="FL5">
-        <v>0.01053461939663289</v>
+        <v>0.0105568396362145</v>
       </c>
       <c r="FM5">
-        <v>0.02347186465565611</v>
+        <v>0.02355386371044286</v>
       </c>
       <c r="FN5">
-        <v>0.01982028286479934</v>
+        <v>0.01988540914422228</v>
       </c>
       <c r="FO5">
-        <v>0.01253238428221151</v>
+        <v>0.01256383554551783</v>
       </c>
       <c r="FP5">
-        <v>0.005910286361490151</v>
+        <v>0.005911139057640368</v>
       </c>
       <c r="FQ5">
-        <v>0.001236368929187347</v>
+        <v>0.001215624968485532</v>
       </c>
       <c r="FR5">
-        <v>0.00322763691513808</v>
+        <v>0.003216093958094523</v>
       </c>
       <c r="FS5">
-        <v>0.001055426239550784</v>
+        <v>0.001033846201354113</v>
       </c>
       <c r="FT5">
-        <v>0.006831444908731076</v>
+        <v>0.0068365539798257</v>
       </c>
       <c r="FU5">
-        <v>0.001379972820962478</v>
+        <v>0.001359892407278385</v>
       </c>
       <c r="FV5">
-        <v>0.006055763653157984</v>
+        <v>0.006057288552699343</v>
       </c>
       <c r="FW5">
-        <v>0.01139002534763977</v>
+        <v>0.01141619814074007</v>
       </c>
       <c r="FX5">
-        <v>0.007719961557841557</v>
+        <v>0.007729176176254055</v>
       </c>
       <c r="FY5">
-        <v>0.007020446097906092</v>
+        <v>0.007026428482208824</v>
       </c>
       <c r="FZ5">
-        <v>0.01596531508559145</v>
+        <v>0.01601262880895</v>
       </c>
       <c r="GA5">
-        <v>0.005864343664121505</v>
+        <v>0.005864984073964936</v>
       </c>
       <c r="GB5">
-        <v>8.059361538402525E-05</v>
+        <v>5.45091917382675E-05</v>
       </c>
       <c r="GC5">
-        <v>7.615733063811212E-08</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>6.040478954033411E-05</v>
+        <v>3.422707987694621E-05</v>
       </c>
       <c r="GE5">
-        <v>0.0006683361917212485</v>
+        <v>0.0006449675359345371</v>
       </c>
       <c r="GF5">
-        <v>8.121313534854246E-05</v>
+        <v>5.513157430365013E-05</v>
       </c>
       <c r="GG5">
-        <v>0.0003858007579033793</v>
+        <v>0.0003611265974942427</v>
       </c>
       <c r="GH5">
-        <v>1.610592107753828E-07</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0001199432631302862</v>
+        <v>9.404066144692577E-05</v>
       </c>
       <c r="GJ5">
-        <v>6.908246604332283E-05</v>
+        <v>4.294485310916099E-05</v>
       </c>
       <c r="GK5">
-        <v>1.40013961980743E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001974686186900451</v>
+        <v>0.001957353750833744</v>
       </c>
       <c r="GM5">
-        <v>0.002326821866731988</v>
+        <v>0.002311116535455391</v>
       </c>
       <c r="GN5">
-        <v>0.002259756270573149</v>
+        <v>0.00224374105092394</v>
       </c>
       <c r="GO5">
-        <v>0.0002199858274003788</v>
+        <v>0.0001945454899658915</v>
       </c>
       <c r="GP5">
-        <v>0.0005553972081897943</v>
+        <v>0.0005315066979827012</v>
       </c>
       <c r="GQ5">
-        <v>0.001377347121112864</v>
+        <v>0.001357254574921196</v>
       </c>
       <c r="GR5">
-        <v>0.0003125083521011795</v>
+        <v>0.0002874955312512251</v>
       </c>
       <c r="GS5">
-        <v>3.432923403380359E-07</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.781371574891991E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.610057501240037E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.134505134217181E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002282442443519444</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002619294564700627</v>
+        <v>8.157617425283296E-06</v>
       </c>
       <c r="G6">
-        <v>0.0002540547759749046</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002282442443519444</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002678271168409061</v>
+        <v>1.426718047856236E-05</v>
       </c>
       <c r="J6">
-        <v>0.0002426340852567743</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.317178071463142E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.771774614446891E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.007670566400208E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5.152428623983501E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001282349780633853</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.23412444048122E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.907888245727095E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>8.470692532635155E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.670487205039843E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.17261889949353E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.525680958814225E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001116802570224283</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.181668974303067E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.584923799659636E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001234644777634173</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001998940825692929</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001939119221931361</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002702921769959085</v>
+        <v>1.682081013848106E-05</v>
       </c>
       <c r="AC6">
-        <v>0.0002038312228168594</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002692418469298641</v>
+        <v>1.573274175852181E-05</v>
       </c>
       <c r="AE6">
-        <v>0.0002506853657630369</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0002112006632802481</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001323836883242552</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001648165003636228</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>7.499677071577932E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.890916644659924E-07</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>5.213814327843419E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>5.573837550481595E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0001132513571212187</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0002808901676623077</v>
+        <v>2.779958615185274E-05</v>
       </c>
       <c r="AO6">
-        <v>0.00030051336889621</v>
+        <v>4.812784815866676E-05</v>
       </c>
       <c r="AP6">
-        <v>0.0003637645228734277</v>
+        <v>0.0001136516133668028</v>
       </c>
       <c r="AQ6">
-        <v>0.0004281861769242461</v>
+        <v>0.0001803879346656363</v>
       </c>
       <c r="AR6">
-        <v>0.0002844740978876644</v>
+        <v>3.151228683543548E-05</v>
       </c>
       <c r="AS6">
-        <v>0.0001839363515658746</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0002493203156772029</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001965776923607591</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>3.543043822785763E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>5.375110337985675E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1.492537193850388E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>2.778085074685336E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0001819326114398798</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001398438087933458</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001686700506059331</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>5.061790518284198E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002738080972169888</v>
+        <v>2.046305722127073E-05</v>
       </c>
       <c r="BE6">
-        <v>0.0003777396037521775</v>
+        <v>0.0001281288182980161</v>
       </c>
       <c r="BF6">
-        <v>6.12889598538354E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>2.669344667847765E-07</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.263770279465578E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>4.317878771507202E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>4.459086580386316E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001041524165490795</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>5.034732316582785E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.762681636596537E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>7.063175444130811E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>5.153194324031648E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.377928149523563E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1.332765083803955E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>3.294434207153249E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>2.380159649663879E-08</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0001282349780633853</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0001282349780633853</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>9.771774614446891E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>9.211118579192971E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0002250351841501595</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>5.415828840546044E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>4.317178071463142E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0003147194697894863</v>
+        <v>6.284437364355206E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0003094474894579854</v>
+        <v>5.738297128640929E-05</v>
       </c>
       <c r="CC6">
-        <v>5.962327874909775E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.12407927068184E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>9.714438610841617E-07</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>3.884270744242031E-07</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>5.966855375194463E-07</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>3.633061228446036E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>6.885162432937395E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.317878771507202E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>4.17894326277097E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0002403319151120143</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0008358272525566212</v>
+        <v>0.0006026755365416183</v>
       </c>
       <c r="CN6">
-        <v>0.02630942165433025</v>
+        <v>0.02699153508510103</v>
       </c>
       <c r="CO6">
-        <v>0.0199358712535629</v>
+        <v>0.02038898329367407</v>
       </c>
       <c r="CP6">
-        <v>0.05333197835350226</v>
+        <v>0.05498501107951284</v>
       </c>
       <c r="CQ6">
-        <v>0.06267834894119985</v>
+        <v>0.06466719635880605</v>
       </c>
       <c r="CR6">
-        <v>0.02247722541336265</v>
+        <v>0.02302164819868777</v>
       </c>
       <c r="CS6">
-        <v>0.001863721417190365</v>
+        <v>0.001667501894121334</v>
       </c>
       <c r="CT6">
-        <v>0.001526305295973718</v>
+        <v>0.001317962426240593</v>
       </c>
       <c r="CU6">
-        <v>0.0267538516822759</v>
+        <v>0.02745193346475818</v>
       </c>
       <c r="CV6">
-        <v>0.0008606599541180957</v>
+        <v>0.0006284004759978034</v>
       </c>
       <c r="CW6">
-        <v>0.0401863525269084</v>
+        <v>0.04136706348465959</v>
       </c>
       <c r="CX6">
-        <v>0.1166984513379712</v>
+        <v>0.1206282387018506</v>
       </c>
       <c r="CY6">
-        <v>0.04146529260732786</v>
+        <v>0.04269195582693785</v>
       </c>
       <c r="CZ6">
-        <v>0.01100032769169802</v>
+        <v>0.0111323860375103</v>
       </c>
       <c r="DA6">
-        <v>0.01438607490459301</v>
+        <v>0.01463978300155207</v>
       </c>
       <c r="DB6">
-        <v>0.0764761048087995</v>
+        <v>0.07896070499887639</v>
       </c>
       <c r="DC6">
-        <v>0.02746650172708717</v>
+        <v>0.02819018899490393</v>
       </c>
       <c r="DD6">
-        <v>0.08920385560911748</v>
+        <v>0.09214576333580549</v>
       </c>
       <c r="DE6">
-        <v>0.01266161579615942</v>
+        <v>0.01285336415182275</v>
       </c>
       <c r="DF6">
-        <v>0.00536531713736988</v>
+        <v>0.005294909797311483</v>
       </c>
       <c r="DG6">
-        <v>0.001961646923347897</v>
+        <v>0.001768945859486222</v>
       </c>
       <c r="DH6">
-        <v>8.392398527712047E-05</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003864401742992673</v>
+        <v>0.003740066577630908</v>
       </c>
       <c r="DJ6">
-        <v>0.002952963985681682</v>
+        <v>0.002795880901059913</v>
       </c>
       <c r="DK6">
-        <v>0.001486552193474052</v>
+        <v>0.001276780996484841</v>
       </c>
       <c r="DL6">
-        <v>0.00699931894011553</v>
+        <v>0.00698762121426588</v>
       </c>
       <c r="DM6">
-        <v>0.02837115378397148</v>
+        <v>0.02912734516112495</v>
       </c>
       <c r="DN6">
-        <v>5.372640337830362E-06</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.006255074793317633</v>
+        <v>0.006216636407413507</v>
       </c>
       <c r="DP6">
-        <v>0.0006238637392284053</v>
+        <v>0.0003830961833331038</v>
       </c>
       <c r="DQ6">
-        <v>0.0008107207509779302</v>
+        <v>0.0005766669594454222</v>
       </c>
       <c r="DR6">
-        <v>0.00185453031661243</v>
+        <v>0.00165798055769655</v>
       </c>
       <c r="DS6">
-        <v>0.001442542590706739</v>
+        <v>0.00123119013059064</v>
       </c>
       <c r="DT6">
-        <v>0.0002228182740107607</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002362594848559408</v>
+        <v>0.00218429982633576</v>
       </c>
       <c r="DV6">
-        <v>0.001602987300795465</v>
+        <v>0.001397399612184095</v>
       </c>
       <c r="DW6">
-        <v>0.01008339563404155</v>
+        <v>0.01018250865061968</v>
       </c>
       <c r="DX6">
-        <v>0.001514627095239396</v>
+        <v>0.001305864628258206</v>
       </c>
       <c r="DY6">
-        <v>0.001829873115061991</v>
+        <v>0.001632437423959218</v>
       </c>
       <c r="DZ6">
-        <v>0.003900262745247605</v>
+        <v>0.003777216064148212</v>
       </c>
       <c r="EA6">
-        <v>0.0007326119460664669</v>
+        <v>0.0004957517085465966</v>
       </c>
       <c r="EB6">
-        <v>0.0001340937384317827</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0001762276210811514</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0001683794805876621</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001796290012950294</v>
+        <v>0.001597647682438924</v>
       </c>
       <c r="EF6">
-        <v>0.001291284081195639</v>
+        <v>0.001074496909364863</v>
       </c>
       <c r="EG6">
-        <v>0.0001085376368248211</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.001224756277012387</v>
+        <v>0.00100557876405029</v>
       </c>
       <c r="EI6">
-        <v>0.002187792837567899</v>
+        <v>0.002003217186638102</v>
       </c>
       <c r="EJ6">
-        <v>0.0001742523409569462</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0008333333523998053</v>
+        <v>0.0006000920306598666</v>
       </c>
       <c r="EL6">
-        <v>0.002771600574277593</v>
+        <v>0.002608001110116203</v>
       </c>
       <c r="EM6">
-        <v>0.001121079270493201</v>
+        <v>0.0008981766471641321</v>
       </c>
       <c r="EN6">
-        <v>2.438891553356928E-06</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>3.3800158125346E-05</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0001056698266444939</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0003678414731297853</v>
+        <v>0.0001178750482698094</v>
       </c>
       <c r="ER6">
-        <v>0.0007017588441264311</v>
+        <v>0.0004637900559862377</v>
       </c>
       <c r="ES6">
-        <v>3.505080720398652E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.000177077571134596</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0004978807313066234</v>
+        <v>0.0002525866113772328</v>
       </c>
       <c r="EV6">
-        <v>0.0005204624327265554</v>
+        <v>0.0002759796723539986</v>
       </c>
       <c r="EW6">
-        <v>0.008087122508516363</v>
+        <v>0.008114509517902867</v>
       </c>
       <c r="EX6">
-        <v>0.007583395076842099</v>
+        <v>0.007592683181361873</v>
       </c>
       <c r="EY6">
-        <v>0.006467586406680313</v>
+        <v>0.006436783553867054</v>
       </c>
       <c r="EZ6">
-        <v>0.000159375230021477</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.005132213322712367</v>
+        <v>0.005053430572659848</v>
       </c>
       <c r="FB6">
-        <v>0.004835783304072918</v>
+        <v>0.004746349836251929</v>
       </c>
       <c r="FC6">
-        <v>0.002144142434823172</v>
+        <v>0.001957998426807787</v>
       </c>
       <c r="FD6">
-        <v>0.008043190005753898</v>
+        <v>0.008068998522213358</v>
       </c>
       <c r="FE6">
-        <v>0.01993903425376179</v>
+        <v>0.02039225994033351</v>
       </c>
       <c r="FF6">
-        <v>0.01263776279465955</v>
+        <v>0.01282865411300907</v>
       </c>
       <c r="FG6">
-        <v>0.005654936355581069</v>
+        <v>0.005594935021525876</v>
       </c>
       <c r="FH6">
-        <v>0.008363668525905511</v>
+        <v>0.008400991821754246</v>
       </c>
       <c r="FI6">
-        <v>0.00421107776479158</v>
+        <v>0.004099198653921944</v>
       </c>
       <c r="FJ6">
-        <v>0.0007268536057043839</v>
+        <v>0.0004897864712639762</v>
       </c>
       <c r="FK6">
-        <v>0.002465225155012778</v>
+        <v>0.002290617635267939</v>
       </c>
       <c r="FL6">
-        <v>0.01574896899029147</v>
+        <v>0.01605164581289348</v>
       </c>
       <c r="FM6">
-        <v>0.02548615060256316</v>
+        <v>0.02613868393999667</v>
       </c>
       <c r="FN6">
-        <v>0.01769421111260783</v>
+        <v>0.01806678040065995</v>
       </c>
       <c r="FO6">
-        <v>0.008075625507793434</v>
+        <v>0.008102599430440456</v>
       </c>
       <c r="FP6">
-        <v>0.001174517173853364</v>
+        <v>0.0009535345720843247</v>
       </c>
       <c r="FQ6">
-        <v>0.0008149750012454365</v>
+        <v>0.0005810740647413215</v>
       </c>
       <c r="FR6">
-        <v>0.002979608487357081</v>
+        <v>0.002823482738529875</v>
       </c>
       <c r="FS6">
-        <v>0.002614535364401369</v>
+        <v>0.002445292554031943</v>
       </c>
       <c r="FT6">
-        <v>0.007054623443593065</v>
+        <v>0.007044912806165053</v>
       </c>
       <c r="FU6">
-        <v>0.0001028512264672609</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.01076019567659858</v>
+        <v>0.01088362608947837</v>
       </c>
       <c r="FW6">
-        <v>0.01038323265289523</v>
+        <v>0.0104931188006124</v>
       </c>
       <c r="FX6">
-        <v>0.007585343876964639</v>
+        <v>0.007594702001788657</v>
       </c>
       <c r="FY6">
-        <v>0.008966801563830375</v>
+        <v>0.009025795403685621</v>
       </c>
       <c r="FZ6">
-        <v>0.01233999377593591</v>
+        <v>0.01252018626630176</v>
       </c>
       <c r="GA6">
-        <v>0.001522975995764373</v>
+        <v>0.001314513504418501</v>
       </c>
       <c r="GB6">
-        <v>0.0005272929931560595</v>
+        <v>0.000283055654524759</v>
       </c>
       <c r="GC6">
-        <v>5.526196347485927E-05</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001517947395448175</v>
+        <v>0.001309304226710101</v>
       </c>
       <c r="GE6">
-        <v>0.0001299302581699841</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0004568815087286019</v>
+        <v>0.0002101142885025227</v>
       </c>
       <c r="GG6">
-        <v>0.0006132606385616848</v>
+        <v>0.00037211211371732</v>
       </c>
       <c r="GH6">
-        <v>1.012349463656296E-05</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0004804143702083427</v>
+        <v>0.0002344926846789707</v>
       </c>
       <c r="GJ6">
-        <v>0.000179068751259801</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002608955164050487</v>
+        <v>7.086527938383799E-06</v>
       </c>
       <c r="GL6">
-        <v>0.002384403449930728</v>
+        <v>0.002206892009812553</v>
       </c>
       <c r="GM6">
-        <v>0.00215397513544145</v>
+        <v>0.001968184415934657</v>
       </c>
       <c r="GN6">
-        <v>0.002293684644226351</v>
+        <v>0.002112913681336884</v>
       </c>
       <c r="GO6">
-        <v>7.009533440757815E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0009835792618472327</v>
+        <v>0.000755736269145413</v>
       </c>
       <c r="GQ6">
-        <v>0.00261458976440479</v>
+        <v>0.002445348908625137</v>
       </c>
       <c r="GR6">
-        <v>3.947967248247253E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>5.045878317283642E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001550313273574756</v>
+        <v>7.91455359046516E-05</v>
       </c>
       <c r="C2">
-        <v>0.0002484955657643683</v>
+        <v>9.589148102963342E-05</v>
       </c>
       <c r="D2">
-        <v>0.0003254372744528893</v>
+        <v>9.589148102963342E-05</v>
       </c>
       <c r="E2">
-        <v>0.0003562362499279177</v>
+        <v>9.589148102963342E-05</v>
       </c>
       <c r="F2">
-        <v>0.0003569429669158716</v>
+        <v>9.589148102963342E-05</v>
       </c>
       <c r="G2">
-        <v>0.0004499690553302327</v>
+        <v>0.000112193351557292</v>
       </c>
       <c r="H2">
-        <v>0.0005393538738066595</v>
+        <v>0.0001248047153886249</v>
       </c>
       <c r="I2">
-        <v>0.0007148702808149649</v>
+        <v>0.0002247123274136324</v>
       </c>
       <c r="J2">
-        <v>0.0009187247773402447</v>
+        <v>0.0003533412127597835</v>
       </c>
       <c r="K2">
-        <v>0.001072718144715412</v>
+        <v>0.0004314347535279804</v>
       </c>
       <c r="L2">
-        <v>0.001187887532752339</v>
+        <v>0.0004701793423733549</v>
       </c>
       <c r="M2">
-        <v>0.001489474807611754</v>
+        <v>0.0006978625354309715</v>
       </c>
       <c r="N2">
-        <v>0.002179564195849111</v>
+        <v>0.001319301114767754</v>
       </c>
       <c r="O2">
-        <v>0.00282241178489171</v>
+        <v>0.001892859097706444</v>
       </c>
       <c r="P2">
-        <v>0.003321585426383246</v>
+        <v>0.00232080039345562</v>
       </c>
       <c r="Q2">
-        <v>0.003677033350324601</v>
+        <v>0.002603072531989253</v>
       </c>
       <c r="R2">
-        <v>0.003845548857452237</v>
+        <v>0.002695884578914637</v>
       </c>
       <c r="S2">
-        <v>0.003964846565418796</v>
+        <v>0.002738813310271985</v>
       </c>
       <c r="T2">
-        <v>0.004007584586690322</v>
+        <v>0.002738813310271985</v>
       </c>
       <c r="U2">
-        <v>0.004019479682487568</v>
+        <v>0.002738813310271985</v>
       </c>
       <c r="V2">
-        <v>0.004019562502086156</v>
+        <v>0.002738813310271985</v>
       </c>
       <c r="W2">
-        <v>0.004042296551698652</v>
+        <v>0.002738813310271985</v>
       </c>
       <c r="X2">
-        <v>0.004107360826589625</v>
+        <v>0.002738813310271985</v>
       </c>
       <c r="Y2">
-        <v>0.00429063432346571</v>
+        <v>0.002846582902482203</v>
       </c>
       <c r="Z2">
-        <v>0.004502842189848606</v>
+        <v>0.002983678110820575</v>
       </c>
       <c r="AA2">
-        <v>0.004736099245872716</v>
+        <v>0.003142107133088492</v>
       </c>
       <c r="AB2">
-        <v>0.005083107939957919</v>
+        <v>0.003415825927644109</v>
       </c>
       <c r="AC2">
-        <v>0.005670357629948189</v>
+        <v>0.003933034224277843</v>
       </c>
       <c r="AD2">
-        <v>0.006164593921523883</v>
+        <v>0.004355971407935055</v>
       </c>
       <c r="AE2">
-        <v>0.006551017984937246</v>
+        <v>0.004669638541098673</v>
       </c>
       <c r="AF2">
-        <v>0.006886056849226475</v>
+        <v>0.00493122565144277</v>
       </c>
       <c r="AG2">
-        <v>0.007228111343396123</v>
+        <v>0.005199923256063299</v>
       </c>
       <c r="AH2">
-        <v>0.007485855559002847</v>
+        <v>0.005383170549965564</v>
       </c>
       <c r="AI2">
-        <v>0.007601922807024469</v>
+        <v>0.005422825139536609</v>
       </c>
       <c r="AJ2">
-        <v>0.00772339172495402</v>
+        <v>0.00546795443966368</v>
       </c>
       <c r="AK2">
-        <v>0.007743823757605754</v>
+        <v>0.00546795443966368</v>
       </c>
       <c r="AL2">
-        <v>0.00775016595249765</v>
+        <v>0.00546795443966368</v>
       </c>
       <c r="AM2">
-        <v>0.007754319917426845</v>
+        <v>0.00546795443966368</v>
       </c>
       <c r="AN2">
-        <v>0.007782593405944921</v>
+        <v>0.00546795443966368</v>
       </c>
       <c r="AO2">
-        <v>0.007850081920794573</v>
+        <v>0.00546795443966368</v>
       </c>
       <c r="AP2">
-        <v>0.008020583147888363</v>
+        <v>0.005562779057191361</v>
       </c>
       <c r="AQ2">
-        <v>0.008175999305239278</v>
+        <v>0.005642314626708447</v>
       </c>
       <c r="AR2">
-        <v>0.00837822385179234</v>
+        <v>0.005769291522119857</v>
       </c>
       <c r="AS2">
-        <v>0.008684464096572446</v>
+        <v>0.006001690601926548</v>
       </c>
       <c r="AT2">
-        <v>0.009155093258550524</v>
+        <v>0.006400701443580549</v>
       </c>
       <c r="AU2">
-        <v>0.00947482412310068</v>
+        <v>0.006646773561488668</v>
       </c>
       <c r="AV2">
-        <v>0.009792512857685644</v>
+        <v>0.006890775936027093</v>
       </c>
       <c r="AW2">
-        <v>0.01015012065159018</v>
+        <v>0.007175237149992702</v>
       </c>
       <c r="AX2">
-        <v>0.01033797005838827</v>
+        <v>0.007287644526958455</v>
       </c>
       <c r="AY2">
-        <v>0.0104547820463972</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="AZ2">
-        <v>0.0104626260892635</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BA2">
-        <v>0.0104789471809853</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BB2">
-        <v>0.01047907708426309</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BC2">
-        <v>0.01047916903052152</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BD2">
-        <v>0.01047971917607214</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BE2">
-        <v>0.01048974638140123</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BF2">
-        <v>0.01054562548044876</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BG2">
-        <v>0.01060468386944211</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BH2">
-        <v>0.01063986038884252</v>
+        <v>0.007328053926789937</v>
       </c>
       <c r="BI2">
-        <v>0.01075024783296095</v>
+        <v>0.007361951910919524</v>
       </c>
       <c r="BJ2">
-        <v>0.01085392993119368</v>
+        <v>0.007389053880385497</v>
       </c>
       <c r="BK2">
-        <v>0.01092854822992181</v>
+        <v>0.007389053880385497</v>
       </c>
       <c r="BL2">
-        <v>0.01108357955727928</v>
+        <v>0.007468199416290148</v>
       </c>
       <c r="BM2">
-        <v>0.01123389964471706</v>
+        <v>0.007542570007527692</v>
       </c>
       <c r="BN2">
-        <v>0.01138096511221032</v>
+        <v>0.007613641970291106</v>
       </c>
       <c r="BO2">
-        <v>0.01149703236023194</v>
+        <v>0.007653296559862151</v>
       </c>
       <c r="BP2">
-        <v>0.01160071445846467</v>
+        <v>0.007680398529328124</v>
       </c>
       <c r="BQ2">
-        <v>0.0117111019025831</v>
+        <v>0.007714296513457711</v>
       </c>
       <c r="BR2">
-        <v>0.0118342576004839</v>
+        <v>0.007761135401966096</v>
       </c>
       <c r="BS2">
-        <v>0.01195868599836301</v>
+        <v>0.007809264199729334</v>
       </c>
       <c r="BT2">
-        <v>0.0120403813869705</v>
+        <v>0.007814082158263633</v>
       </c>
       <c r="BU2">
-        <v>0.01212555949551863</v>
+        <v>0.007822429929605395</v>
       </c>
       <c r="BV2">
-        <v>0.01220486023416694</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="BW2">
-        <v>0.01226778937309431</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="BX2">
-        <v>0.0122865342227748</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="BY2">
-        <v>0.01229092459829997</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="BZ2">
-        <v>0.01230417110607418</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="CA2">
-        <v>0.01233686255751695</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="CB2">
-        <v>0.01237960057878848</v>
+        <v>0.007824820858048448</v>
       </c>
       <c r="CC2">
-        <v>0.01247116143122781</v>
+        <v>0.007839637679878894</v>
       </c>
       <c r="CD2">
-        <v>0.01262515479860298</v>
+        <v>0.007917731220647092</v>
       </c>
       <c r="CE2">
-        <v>0.01275335856641773</v>
+        <v>0.007969686438386355</v>
       </c>
       <c r="CF2">
-        <v>0.01283430094503806</v>
+        <v>0.007973741204834541</v>
       </c>
       <c r="CG2">
-        <v>0.01299644320227433</v>
+        <v>0.008060093823647656</v>
       </c>
       <c r="CH2">
-        <v>0.01319114783895557</v>
+        <v>0.008179449125985559</v>
       </c>
       <c r="CI2">
-        <v>0.01338425959566396</v>
+        <v>0.008297190009643594</v>
       </c>
       <c r="CJ2">
-        <v>0.01341984663105738</v>
+        <v>0.008297190009643594</v>
       </c>
       <c r="CK2">
-        <v>0.01345611932343911</v>
+        <v>0.008297190009643594</v>
       </c>
       <c r="CL2">
-        <v>0.01346169945484399</v>
+        <v>0.008297190009643594</v>
       </c>
       <c r="CM2">
-        <v>0.0134619863511391</v>
+        <v>0.008297190009643594</v>
       </c>
       <c r="CN2">
-        <v>0.02102612122220767</v>
+        <v>0.01588562398279856</v>
       </c>
       <c r="CO2">
-        <v>0.06701047843839972</v>
+        <v>0.06241379333834136</v>
       </c>
       <c r="CP2">
-        <v>0.09878644789677515</v>
+        <v>0.09454145104328041</v>
       </c>
       <c r="CQ2">
-        <v>0.1310673803465434</v>
+        <v>0.1271808997807155</v>
       </c>
       <c r="CR2">
-        <v>0.1494678220329061</v>
+        <v>0.1457521676406575</v>
       </c>
       <c r="CS2">
-        <v>0.1518481653923329</v>
+        <v>0.1480867155762055</v>
       </c>
       <c r="CT2">
-        <v>0.1521059096079396</v>
+        <v>0.1482699628701078</v>
       </c>
       <c r="CU2">
-        <v>0.1861138760282705</v>
+        <v>0.1826597982972918</v>
       </c>
       <c r="CV2">
-        <v>0.1894488508714255</v>
+        <v>0.1859618861140553</v>
       </c>
       <c r="CW2">
-        <v>0.257639329709112</v>
+        <v>0.2549964452567948</v>
       </c>
       <c r="CX2">
-        <v>0.3431011882524061</v>
+        <v>0.341535925359745</v>
       </c>
       <c r="CY2">
-        <v>0.3878511104896392</v>
+        <v>0.3868129678739168</v>
       </c>
       <c r="CZ2">
-        <v>0.4150284680263985</v>
+        <v>0.414279831850348</v>
       </c>
       <c r="DA2">
-        <v>0.4307170957589843</v>
+        <v>0.4301026169759172</v>
       </c>
       <c r="DB2">
-        <v>0.5117566843776564</v>
+        <v>0.5121600298199274</v>
       </c>
       <c r="DC2">
-        <v>0.559060158571364</v>
+        <v>0.5600251530739004</v>
       </c>
       <c r="DD2">
-        <v>0.6689028066990852</v>
+        <v>0.6712750964923178</v>
       </c>
       <c r="DE2">
-        <v>0.6756292945844316</v>
+        <v>0.6780145569307837</v>
       </c>
       <c r="DF2">
-        <v>0.6800561365089756</v>
+        <v>0.6824232759075677</v>
       </c>
       <c r="DG2">
-        <v>0.6844278204344598</v>
+        <v>0.6867760910463072</v>
       </c>
       <c r="DH2">
-        <v>0.6850440636239559</v>
+        <v>0.6873226848886159</v>
       </c>
       <c r="DI2">
-        <v>0.6855623198151222</v>
+        <v>0.6877699667656891</v>
       </c>
       <c r="DJ2">
-        <v>0.6860565561066979</v>
+        <v>0.6881929039493463</v>
       </c>
       <c r="DK2">
-        <v>0.6869764871910176</v>
+        <v>0.6890472921130163</v>
       </c>
       <c r="DL2">
-        <v>0.688694489861734</v>
+        <v>0.6907105432788661</v>
       </c>
       <c r="DM2">
-        <v>0.6989973646861205</v>
+        <v>0.7010747500756499</v>
       </c>
       <c r="DN2">
-        <v>0.6990025903490314</v>
+        <v>0.7010747500756499</v>
       </c>
       <c r="DO2">
-        <v>0.7024013055911</v>
+        <v>0.7044414401803587</v>
       </c>
       <c r="DP2">
-        <v>0.7072327555087475</v>
+        <v>0.7092602382046692</v>
       </c>
       <c r="DQ2">
-        <v>0.7156486613652976</v>
+        <v>0.7177119606950821</v>
       </c>
       <c r="DR2">
-        <v>0.7229010349416801</v>
+        <v>0.7249844177795952</v>
       </c>
       <c r="DS2">
-        <v>0.7229112818785055</v>
+        <v>0.7249844177795952</v>
       </c>
       <c r="DT2">
-        <v>0.723401128570156</v>
+        <v>0.7254029060077523</v>
       </c>
       <c r="DU2">
-        <v>0.7254167713357992</v>
+        <v>0.7273678219175362</v>
       </c>
       <c r="DV2">
-        <v>0.7268401377115378</v>
+        <v>0.7287324527563763</v>
       </c>
       <c r="DW2">
-        <v>0.7385289805123003</v>
+        <v>0.7405013684005933</v>
       </c>
       <c r="DX2">
-        <v>0.740139373184851</v>
+        <v>0.7420555544804727</v>
       </c>
       <c r="DY2">
-        <v>0.7434809573278934</v>
+        <v>0.7453643409671804</v>
       </c>
       <c r="DZ2">
-        <v>0.748888344635724</v>
+        <v>0.7507668641289744</v>
       </c>
       <c r="EA2">
-        <v>0.7495008074252845</v>
+        <v>0.7513096264532922</v>
       </c>
       <c r="EB2">
-        <v>0.749815235539925</v>
+        <v>0.7515503241182254</v>
       </c>
       <c r="EC2">
-        <v>0.7507021499248074</v>
+        <v>0.752371249135125</v>
       </c>
       <c r="ED2">
-        <v>0.7518564759051318</v>
+        <v>0.7534632016508025</v>
       </c>
       <c r="EE2">
-        <v>0.7609653567498701</v>
+        <v>0.7626172694432355</v>
       </c>
       <c r="EF2">
-        <v>0.7691078476110805</v>
+        <v>0.7707918798578134</v>
       </c>
       <c r="EG2">
-        <v>0.7693353175772033</v>
+        <v>0.770944443537935</v>
       </c>
       <c r="EH2">
-        <v>0.7756801984690542</v>
+        <v>0.7772971369448805</v>
       </c>
       <c r="EI2">
-        <v>0.7833614819381259</v>
+        <v>0.7850043035834969</v>
       </c>
       <c r="EJ2">
-        <v>0.7841620351644805</v>
+        <v>0.7857376996779923</v>
       </c>
       <c r="EK2">
-        <v>0.7849462846511128</v>
+        <v>0.7864545715758078</v>
       </c>
       <c r="EL2">
-        <v>0.7859708014336498</v>
+        <v>0.7874149596313259</v>
       </c>
       <c r="EM2">
-        <v>0.7865108173244452</v>
+        <v>0.7878842954397364</v>
       </c>
       <c r="EN2">
-        <v>0.7865186613673114</v>
+        <v>0.7878842954397364</v>
       </c>
       <c r="EO2">
-        <v>0.7865825012062233</v>
+        <v>0.7878842954397364</v>
       </c>
       <c r="EP2">
-        <v>0.7866924124603498</v>
+        <v>0.7879177107948976</v>
       </c>
       <c r="EQ2">
-        <v>0.786929065256316</v>
+        <v>0.7880795814738427</v>
       </c>
       <c r="ER2">
-        <v>0.7889670237215788</v>
+        <v>0.7900671148331109</v>
       </c>
       <c r="ES2">
-        <v>0.7904207597967997</v>
+        <v>0.791462526026392</v>
       </c>
       <c r="ET2">
-        <v>0.7908580853593454</v>
+        <v>0.7918277829418576</v>
       </c>
       <c r="EU2">
-        <v>0.7912458672927356</v>
+        <v>0.7921428263059318</v>
       </c>
       <c r="EV2">
-        <v>0.7931584387601356</v>
+        <v>0.7940032772013529</v>
       </c>
       <c r="EW2">
-        <v>0.8089283614913357</v>
+        <v>0.8099084565854852</v>
       </c>
       <c r="EX2">
-        <v>0.8242136632307963</v>
+        <v>0.8253224619985359</v>
       </c>
       <c r="EY2">
-        <v>0.8360265045294452</v>
+        <v>0.8372170528315152</v>
       </c>
       <c r="EZ2">
-        <v>0.8387610700828342</v>
+        <v>0.8399106127055043</v>
       </c>
       <c r="FA2">
-        <v>0.8396254189081013</v>
+        <v>0.840708667034351</v>
       </c>
       <c r="FB2">
-        <v>0.8421915624643611</v>
+        <v>0.8432315275318015</v>
       </c>
       <c r="FC2">
-        <v>0.8422802959888487</v>
+        <v>0.843243478794935</v>
       </c>
       <c r="FD2">
-        <v>0.8454607639346373</v>
+        <v>0.8463889704930151</v>
       </c>
       <c r="FE2">
-        <v>0.8590213487034958</v>
+        <v>0.8600549375464367</v>
       </c>
       <c r="FF2">
-        <v>0.871164650496512</v>
+        <v>0.872284457315782</v>
       </c>
       <c r="FG2">
-        <v>0.8828295562976826</v>
+        <v>0.8840291122875441</v>
       </c>
       <c r="FH2">
-        <v>0.899410192015064</v>
+        <v>0.9007559670089346</v>
       </c>
       <c r="FI2">
-        <v>0.9056854089081023</v>
+        <v>0.907038054429921</v>
       </c>
       <c r="FJ2">
-        <v>0.9070018083856641</v>
+        <v>0.9082942719786906</v>
       </c>
       <c r="FK2">
-        <v>0.9070534417707841</v>
+        <v>0.9082942719786906</v>
       </c>
       <c r="FL2">
-        <v>0.9140770993510651</v>
+        <v>0.9153349204004138</v>
       </c>
       <c r="FM2">
-        <v>0.9297657270836508</v>
+        <v>0.931157705525983</v>
       </c>
       <c r="FN2">
-        <v>0.9362597186729601</v>
+        <v>0.9376615258850203</v>
       </c>
       <c r="FO2">
-        <v>0.9376501909492594</v>
+        <v>0.9389928178348684</v>
       </c>
       <c r="FP2">
-        <v>0.9379935230734072</v>
+        <v>0.9392628103454065</v>
       </c>
       <c r="FQ2">
-        <v>0.9380044132727215</v>
+        <v>0.9392628103454065</v>
       </c>
       <c r="FR2">
-        <v>0.93803559644719</v>
+        <v>0.9392628103454065</v>
       </c>
       <c r="FS2">
-        <v>0.9381210598357334</v>
+        <v>0.9392714472542608</v>
       </c>
       <c r="FT2">
-        <v>0.9428000127559801</v>
+        <v>0.9439356862374484</v>
       </c>
       <c r="FU2">
-        <v>0.9428650770308711</v>
+        <v>0.9439356862374484</v>
       </c>
       <c r="FV2">
-        <v>0.9500468049084578</v>
+        <v>0.9511365423616052</v>
       </c>
       <c r="FW2">
-        <v>0.9544285788337701</v>
+        <v>0.9554995839357824</v>
       </c>
       <c r="FX2">
-        <v>0.9598752912409303</v>
+        <v>0.9609419639455672</v>
       </c>
       <c r="FY2">
-        <v>0.9656881561418494</v>
+        <v>0.966755447513486</v>
       </c>
       <c r="FZ2">
-        <v>0.9696681765740096</v>
+        <v>0.9707113031382493</v>
       </c>
       <c r="GA2">
-        <v>0.9698030221817111</v>
+        <v>0.9707699900059338</v>
       </c>
       <c r="GB2">
-        <v>0.9714333679539217</v>
+        <v>0.9723443989885813</v>
       </c>
       <c r="GC2">
-        <v>0.9730637137261322</v>
+        <v>0.9739188079712288</v>
       </c>
       <c r="GD2">
-        <v>0.9775874846490241</v>
+        <v>0.9784257666071339</v>
       </c>
       <c r="GE2">
-        <v>0.981339482585071</v>
+        <v>0.9821505164465083</v>
       </c>
       <c r="GF2">
-        <v>0.9838706119419276</v>
+        <v>0.9846378892872988</v>
       </c>
       <c r="GG2">
-        <v>0.9859850122058874</v>
+        <v>0.9867028980809014</v>
       </c>
       <c r="GH2">
-        <v>0.9867618048326469</v>
+        <v>0.9874122122881958</v>
       </c>
       <c r="GI2">
-        <v>0.9881851712083854</v>
+        <v>0.9887768431270358</v>
       </c>
       <c r="GJ2">
-        <v>0.9882341010805514</v>
+        <v>0.9887768431270358</v>
       </c>
       <c r="GK2">
-        <v>0.9884802320263562</v>
+        <v>0.9889483201180764</v>
       </c>
       <c r="GL2">
-        <v>0.989963189501079</v>
+        <v>0.9903733478386615</v>
       </c>
       <c r="GM2">
-        <v>0.9909550187841731</v>
+        <v>0.9913006063988014</v>
       </c>
       <c r="GN2">
-        <v>0.9911755326104145</v>
+        <v>0.9914461198790612</v>
       </c>
       <c r="GO2">
-        <v>0.9913838701468634</v>
+        <v>0.9915792924233889</v>
       </c>
       <c r="GP2">
-        <v>0.9934950981108772</v>
+        <v>0.9936410860216359</v>
       </c>
       <c r="GQ2">
-        <v>0.9982058985305812</v>
+        <v>0.9983376031418503</v>
       </c>
       <c r="GR2">
-        <v>0.9990624180759817</v>
+        <v>0.9991277223243696</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.548209488429642E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.988725118267111E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.332729999867461E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.533961985332E-05</v>
+        <v>5.699671540688201E-06</v>
       </c>
       <c r="F3">
-        <v>0.0001014943366891565</v>
+        <v>1.556066902942873E-05</v>
       </c>
       <c r="G3">
-        <v>0.0002703198759225901</v>
+        <v>0.0001586987373299138</v>
       </c>
       <c r="H3">
-        <v>0.000374221961450814</v>
+        <v>0.0002366166797546361</v>
       </c>
       <c r="I3">
-        <v>0.0003893016933823432</v>
+        <v>0.0002366166797546361</v>
       </c>
       <c r="J3">
-        <v>0.000510194572833419</v>
+        <v>0.0003316030566993264</v>
       </c>
       <c r="K3">
-        <v>0.0007596241517008632</v>
+        <v>0.0005557134903162812</v>
       </c>
       <c r="L3">
-        <v>0.0009332661609124271</v>
+        <v>0.0007036900377845078</v>
       </c>
       <c r="M3">
-        <v>0.001133491970003285</v>
+        <v>0.0008783718616272185</v>
       </c>
       <c r="N3">
-        <v>0.001309218919205382</v>
+        <v>0.001028442876362135</v>
       </c>
       <c r="O3">
-        <v>0.00141500544872505</v>
+        <v>0.00110825387387425</v>
       </c>
       <c r="P3">
-        <v>0.001491979628375542</v>
+        <v>0.001159120861510111</v>
       </c>
       <c r="Q3">
-        <v>0.001495194779360943</v>
+        <v>0.001159120861510111</v>
       </c>
       <c r="R3">
-        <v>0.001502148777329368</v>
+        <v>0.001159120861510111</v>
       </c>
       <c r="S3">
-        <v>0.001524869821226201</v>
+        <v>0.001159120861510111</v>
       </c>
       <c r="T3">
-        <v>0.001653455190642349</v>
+        <v>0.001261834879779892</v>
       </c>
       <c r="U3">
-        <v>0.001754483070183623</v>
+        <v>0.001336865482336454</v>
       </c>
       <c r="V3">
-        <v>0.001794398442002384</v>
+        <v>0.001350504319378761</v>
       </c>
       <c r="W3">
-        <v>0.001812271741921229</v>
+        <v>0.001350504319378761</v>
       </c>
       <c r="X3">
-        <v>0.001889061491572559</v>
+        <v>0.00140118603424994</v>
       </c>
       <c r="Y3">
-        <v>0.001940315505339835</v>
+        <v>0.001426215325942121</v>
       </c>
       <c r="Z3">
-        <v>0.002024413484957981</v>
+        <v>0.001484238666237743</v>
       </c>
       <c r="AA3">
-        <v>0.002169602014298741</v>
+        <v>0.001603631713709135</v>
       </c>
       <c r="AB3">
-        <v>0.002204689724139422</v>
+        <v>0.00161242082844114</v>
       </c>
       <c r="AC3">
-        <v>0.002204896607158483</v>
+        <v>0.00161242082844114</v>
       </c>
       <c r="AD3">
-        <v>0.002217927487099315</v>
+        <v>0.00161242082844114</v>
       </c>
       <c r="AE3">
-        <v>0.002393724126301096</v>
+        <v>0.001762561851628969</v>
       </c>
       <c r="AF3">
-        <v>0.002524404905707729</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AG3">
-        <v>0.002531838350973977</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AH3">
-        <v>0.002536452341753026</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AI3">
-        <v>0.00255477301766984</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AJ3">
-        <v>0.002570492394598465</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AK3">
-        <v>0.002571758646692715</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AL3">
-        <v>0.002586132167627451</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AM3">
-        <v>0.002593565612893699</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AN3">
-        <v>0.002593644753647339</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AO3">
-        <v>0.0025979261166279</v>
+        <v>0.001867380855008774</v>
       </c>
       <c r="AP3">
-        <v>0.002634715952460852</v>
+        <v>0.001877879873714409</v>
       </c>
       <c r="AQ3">
-        <v>0.002680088267254835</v>
+        <v>0.001897000589606798</v>
       </c>
       <c r="AR3">
-        <v>0.002716242984090672</v>
+        <v>0.001906861587095538</v>
       </c>
       <c r="AS3">
-        <v>0.002790927753751559</v>
+        <v>0.001955428703125966</v>
       </c>
       <c r="AT3">
-        <v>0.002910954953206566</v>
+        <v>0.002049545444290525</v>
       </c>
       <c r="AU3">
-        <v>0.003045816292594216</v>
+        <v>0.002158564111006652</v>
       </c>
       <c r="AV3">
-        <v>0.003143645892150013</v>
+        <v>0.002230381818818182</v>
       </c>
       <c r="AW3">
-        <v>0.003227695665768378</v>
+        <v>0.002288356732833404</v>
       </c>
       <c r="AX3">
-        <v>0.003377610685087676</v>
+        <v>0.002412497868303172</v>
       </c>
       <c r="AY3">
-        <v>0.003433639006833275</v>
+        <v>0.002442323284501139</v>
       </c>
       <c r="AZ3">
-        <v>0.003460930566709355</v>
+        <v>0.002443280624227052</v>
       </c>
       <c r="BA3">
-        <v>0.003508634353492752</v>
+        <v>0.002464743465929873</v>
       </c>
       <c r="BB3">
-        <v>0.003526596684411193</v>
+        <v>0.002464743465929873</v>
       </c>
       <c r="BC3">
-        <v>0.003546975232318663</v>
+        <v>0.002464743465929873</v>
       </c>
       <c r="BD3">
-        <v>0.003597255152090362</v>
+        <v>0.002488794212437215</v>
       </c>
       <c r="BE3">
-        <v>0.003627797195951684</v>
+        <v>0.002493016889457677</v>
       </c>
       <c r="BF3">
-        <v>0.003630699765938504</v>
+        <v>0.002493016889457677</v>
       </c>
       <c r="BG3">
-        <v>0.003645697931870404</v>
+        <v>0.002493016889457677</v>
       </c>
       <c r="BH3">
-        <v>0.003645710125449349</v>
+        <v>0.002493016889457677</v>
       </c>
       <c r="BI3">
-        <v>0.003648748629035552</v>
+        <v>0.002493016889457677</v>
       </c>
       <c r="BJ3">
-        <v>0.003743789858604009</v>
+        <v>0.002562033485634139</v>
       </c>
       <c r="BK3">
-        <v>0.003795043872371286</v>
+        <v>0.00258706277732632</v>
       </c>
       <c r="BL3">
-        <v>0.003883043801971715</v>
+        <v>0.002649005897832048</v>
       </c>
       <c r="BM3">
-        <v>0.004119848150896485</v>
+        <v>0.002860433409652968</v>
       </c>
       <c r="BN3">
-        <v>0.004381975289706275</v>
+        <v>0.003097299425582519</v>
       </c>
       <c r="BO3">
-        <v>0.004717596118182361</v>
+        <v>0.003407994965629414</v>
       </c>
       <c r="BP3">
-        <v>0.00479438586783369</v>
+        <v>0.003458676680500593</v>
       </c>
       <c r="BQ3">
-        <v>0.004925066647240323</v>
+        <v>0.003563495683880399</v>
       </c>
       <c r="BR3">
-        <v>0.005110401326398796</v>
+        <v>0.003723218331752091</v>
       </c>
       <c r="BS3">
-        <v>0.005457681554821941</v>
+        <v>0.004045626550173058</v>
       </c>
       <c r="BT3">
-        <v>0.005635575984014196</v>
+        <v>0.004197874949346473</v>
       </c>
       <c r="BU3">
-        <v>0.005687585670778042</v>
+        <v>0.004223663367134763</v>
       </c>
       <c r="BV3">
-        <v>0.005694749219345516</v>
+        <v>0.004223663367134763</v>
       </c>
       <c r="BW3">
-        <v>0.00570393870630379</v>
+        <v>0.004223663367134763</v>
       </c>
       <c r="BX3">
-        <v>0.005710618140873462</v>
+        <v>0.004223663367134763</v>
       </c>
       <c r="BY3">
-        <v>0.00571932012583395</v>
+        <v>0.004223663367134763</v>
       </c>
       <c r="BZ3">
-        <v>0.005770160885603103</v>
+        <v>0.004248277516436357</v>
       </c>
       <c r="CA3">
-        <v>0.005871400291143417</v>
+        <v>0.004323520611574506</v>
       </c>
       <c r="CB3">
-        <v>0.005954728515765059</v>
+        <v>0.00438077067942542</v>
       </c>
       <c r="CC3">
-        <v>0.006094830295128915</v>
+        <v>0.004495053732667321</v>
       </c>
       <c r="CD3">
-        <v>0.00640810179370648</v>
+        <v>0.004783297816021248</v>
       </c>
       <c r="CE3">
-        <v>0.006694074592407997</v>
+        <v>0.005044118456219412</v>
       </c>
       <c r="CF3">
-        <v>0.006777402817029638</v>
+        <v>0.005101368524070326</v>
       </c>
       <c r="CG3">
-        <v>0.006909228206431074</v>
+        <v>0.005207337367818738</v>
       </c>
       <c r="CH3">
-        <v>0.007030989879878206</v>
+        <v>0.005303196508773183</v>
       </c>
       <c r="CI3">
-        <v>0.007129601173430452</v>
+        <v>0.005375799482585445</v>
       </c>
       <c r="CJ3">
-        <v>0.007240865138925249</v>
+        <v>0.005461112945591717</v>
       </c>
       <c r="CK3">
-        <v>0.007413124108143093</v>
+        <v>0.0056077001331702</v>
       </c>
       <c r="CL3">
-        <v>0.007465856810903656</v>
+        <v>0.005634214870826348</v>
       </c>
       <c r="CM3">
-        <v>0.008406773106631347</v>
+        <v>0.006552971817240023</v>
       </c>
       <c r="CN3">
-        <v>0.1163327526165844</v>
+        <v>0.1149456675553344</v>
       </c>
       <c r="CO3">
-        <v>0.1246018555790379</v>
+        <v>0.1232260978196077</v>
       </c>
       <c r="CP3">
-        <v>0.1659346703913628</v>
+        <v>0.1647213268307248</v>
       </c>
       <c r="CQ3">
-        <v>0.1929252402688098</v>
+        <v>0.191808773035939</v>
       </c>
       <c r="CR3">
-        <v>0.1942192328629344</v>
+        <v>0.1930822196870894</v>
       </c>
       <c r="CS3">
-        <v>0.1950133054593288</v>
+        <v>0.1938534619218233</v>
       </c>
       <c r="CT3">
-        <v>0.1950143949253239</v>
+        <v>0.1938534619218233</v>
       </c>
       <c r="CU3">
-        <v>0.2467806006902751</v>
+        <v>0.2458297579804676</v>
       </c>
       <c r="CV3">
-        <v>0.302104126439074</v>
+        <v>0.3013796294403894</v>
       </c>
       <c r="CW3">
-        <v>0.3024727942574</v>
+        <v>0.3017235229807709</v>
       </c>
       <c r="CX3">
-        <v>0.4527152135752117</v>
+        <v>0.4526260263981388</v>
       </c>
       <c r="CY3">
-        <v>0.4530038602739011</v>
+        <v>0.452889533156894</v>
       </c>
       <c r="CZ3">
-        <v>0.4558166064611296</v>
+        <v>0.4556886734497639</v>
       </c>
       <c r="DA3">
-        <v>0.5102851192138108</v>
+        <v>0.5103796248730929</v>
       </c>
       <c r="DB3">
-        <v>0.5236755501530105</v>
+        <v>0.5238047853732386</v>
       </c>
       <c r="DC3">
-        <v>0.6309615996658692</v>
+        <v>0.631554626910266</v>
       </c>
       <c r="DD3">
-        <v>0.6433048636098235</v>
+        <v>0.643927835313825</v>
       </c>
       <c r="DE3">
-        <v>0.6737109794717621</v>
+        <v>0.6744464350749554</v>
       </c>
       <c r="DF3">
-        <v>0.6757032784627158</v>
+        <v>0.6764213790818665</v>
       </c>
       <c r="DG3">
-        <v>0.678339025150748</v>
+        <v>0.6790427110641997</v>
       </c>
       <c r="DH3">
-        <v>0.6801569405424935</v>
+        <v>0.6808424746140964</v>
       </c>
       <c r="DI3">
-        <v>0.681997344934137</v>
+        <v>0.6826648299289172</v>
       </c>
       <c r="DJ3">
-        <v>0.6823514194525293</v>
+        <v>0.6829940634842809</v>
       </c>
       <c r="DK3">
-        <v>0.6825845162514709</v>
+        <v>0.6832017665042149</v>
       </c>
       <c r="DL3">
-        <v>0.7023046741619299</v>
+        <v>0.7029855780967565</v>
       </c>
       <c r="DM3">
-        <v>0.7096541154285592</v>
+        <v>0.7103421442080673</v>
       </c>
       <c r="DN3">
-        <v>0.7140274454087017</v>
+        <v>0.7147089994884311</v>
       </c>
       <c r="DO3">
-        <v>0.7146876650457039</v>
+        <v>0.7153457771135027</v>
       </c>
       <c r="DP3">
-        <v>0.7147000400371477</v>
+        <v>0.7153457771135027</v>
       </c>
       <c r="DQ3">
-        <v>0.7187275370188605</v>
+        <v>0.7193652190878524</v>
       </c>
       <c r="DR3">
-        <v>0.7188066479745013</v>
+        <v>0.7194182326156229</v>
       </c>
       <c r="DS3">
-        <v>0.7208711751651272</v>
+        <v>0.7214657348739139</v>
       </c>
       <c r="DT3">
-        <v>0.7212048721436121</v>
+        <v>0.7217744977728051</v>
       </c>
       <c r="DU3">
-        <v>0.7249666025265317</v>
+        <v>0.725526958709677</v>
       </c>
       <c r="DV3">
-        <v>0.7304882565014601</v>
+        <v>0.7310473853300093</v>
       </c>
       <c r="DW3">
-        <v>0.7423033344478127</v>
+        <v>0.742889994153857</v>
       </c>
       <c r="DX3">
-        <v>0.7424529920371332</v>
+        <v>0.7430138766829839</v>
       </c>
       <c r="DY3">
-        <v>0.7437659690311715</v>
+        <v>0.7443063944845644</v>
       </c>
       <c r="DZ3">
-        <v>0.7440267358299875</v>
+        <v>0.7445418939443332</v>
       </c>
       <c r="EA3">
-        <v>0.7440284432699797</v>
+        <v>0.7445418939443332</v>
       </c>
       <c r="EB3">
-        <v>0.7440502955208805</v>
+        <v>0.7445418939443332</v>
       </c>
       <c r="EC3">
-        <v>0.7440556850905561</v>
+        <v>0.7445418939443332</v>
       </c>
       <c r="ED3">
-        <v>0.7440996865603563</v>
+        <v>0.7445596375510617</v>
       </c>
       <c r="EE3">
-        <v>0.7466857274486142</v>
+        <v>0.7471310365995625</v>
       </c>
       <c r="EF3">
-        <v>0.7468035184180793</v>
+        <v>0.747222906892131</v>
       </c>
       <c r="EG3">
-        <v>0.7468525018018569</v>
+        <v>0.7472456551780342</v>
       </c>
       <c r="EH3">
-        <v>0.7522958967771407</v>
+        <v>0.7526874651888603</v>
       </c>
       <c r="EI3">
-        <v>0.7550187384647774</v>
+        <v>0.7553962901573669</v>
       </c>
       <c r="EJ3">
-        <v>0.7550948385944318</v>
+        <v>0.7554462791009754</v>
       </c>
       <c r="EK3">
-        <v>0.7555754083422498</v>
+        <v>0.7559025859143836</v>
       </c>
       <c r="EL3">
-        <v>0.7557001471716834</v>
+        <v>0.7560014358156428</v>
       </c>
       <c r="EM3">
-        <v>0.7558139771611666</v>
+        <v>0.7560893270282599</v>
       </c>
       <c r="EN3">
-        <v>0.7558305201240915</v>
+        <v>0.7560893270282599</v>
       </c>
       <c r="EO3">
-        <v>0.7558305211194858</v>
+        <v>0.7560893270282599</v>
       </c>
       <c r="EP3">
-        <v>0.7558305311010778</v>
+        <v>0.7560893270282599</v>
       </c>
       <c r="EQ3">
-        <v>0.755861980645935</v>
+        <v>0.7560944613531643</v>
       </c>
       <c r="ER3">
-        <v>0.7558795220448554</v>
+        <v>0.7560944613531643</v>
       </c>
       <c r="ES3">
-        <v>0.7559844988743788</v>
+        <v>0.7561734589507004</v>
       </c>
       <c r="ET3">
-        <v>0.7563010362729415</v>
+        <v>0.7564649838577933</v>
       </c>
       <c r="EU3">
-        <v>0.7564423856022997</v>
+        <v>0.7565805201617947</v>
       </c>
       <c r="EV3">
-        <v>0.7596534435877196</v>
+        <v>0.759779792365912</v>
       </c>
       <c r="EW3">
-        <v>0.7705031445384556</v>
+        <v>0.7706526128378095</v>
       </c>
       <c r="EX3">
-        <v>0.7778665677050214</v>
+        <v>0.7780232247403066</v>
       </c>
       <c r="EY3">
-        <v>0.7823695071845754</v>
+        <v>0.782520281779571</v>
       </c>
       <c r="EZ3">
-        <v>0.7832077407507694</v>
+        <v>0.783335886780682</v>
       </c>
       <c r="FA3">
-        <v>0.7887309571256907</v>
+        <v>0.7888578829405011</v>
       </c>
       <c r="FB3">
-        <v>0.7894717233523272</v>
+        <v>0.7895755752183676</v>
       </c>
       <c r="FC3">
-        <v>0.7937169933330511</v>
+        <v>0.7938137853203704</v>
       </c>
       <c r="FD3">
-        <v>0.8054174692799241</v>
+        <v>0.8055412684630487</v>
       </c>
       <c r="FE3">
-        <v>0.8174098222254718</v>
+        <v>0.8175619623563479</v>
       </c>
       <c r="FF3">
-        <v>0.8219690397047702</v>
+        <v>0.822115554561533</v>
       </c>
       <c r="FG3">
-        <v>0.8288549546735041</v>
+        <v>0.8290064762597672</v>
       </c>
       <c r="FH3">
-        <v>0.8348692996461955</v>
+        <v>0.8350218452631381</v>
       </c>
       <c r="FI3">
-        <v>0.835153496804905</v>
+        <v>0.8352808821494356</v>
       </c>
       <c r="FJ3">
-        <v>0.8351543100489013</v>
+        <v>0.8352808821494356</v>
       </c>
       <c r="FK3">
-        <v>0.8433499400116884</v>
+        <v>0.8434875036741359</v>
       </c>
       <c r="FL3">
-        <v>0.8656182259105774</v>
+        <v>0.8658310871005599</v>
       </c>
       <c r="FM3">
-        <v>0.8870317348133475</v>
+        <v>0.8873159875688081</v>
       </c>
       <c r="FN3">
-        <v>0.8993055747576171</v>
+        <v>0.8996194547349586</v>
       </c>
       <c r="FO3">
-        <v>0.9059261820275557</v>
+        <v>0.9062438563926878</v>
       </c>
       <c r="FP3">
-        <v>0.9069253957230187</v>
+        <v>0.9072211771327996</v>
       </c>
       <c r="FQ3">
-        <v>0.9093940732118094</v>
+        <v>0.9096746764817372</v>
       </c>
       <c r="FR3">
-        <v>0.9103432337574997</v>
+        <v>0.9106017153507785</v>
       </c>
       <c r="FS3">
-        <v>0.9153686157346815</v>
+        <v>0.9156236022244637</v>
       </c>
       <c r="FT3">
-        <v>0.9180398461225526</v>
+        <v>0.9182805800518337</v>
       </c>
       <c r="FU3">
-        <v>0.9243974218936856</v>
+        <v>0.9246407482702993</v>
       </c>
       <c r="FV3">
-        <v>0.9386244038290867</v>
+        <v>0.938906282443748</v>
       </c>
       <c r="FW3">
-        <v>0.9478648407871297</v>
+        <v>0.9481624852808639</v>
       </c>
       <c r="FX3">
-        <v>0.9584148487392266</v>
+        <v>0.9587342432864286</v>
       </c>
       <c r="FY3">
-        <v>0.9753021876625482</v>
+        <v>0.9756722911313537</v>
       </c>
       <c r="FZ3">
-        <v>0.9841624626223173</v>
+        <v>0.9845465947938943</v>
       </c>
       <c r="GA3">
-        <v>0.9843406377115083</v>
+        <v>0.9846991251355616</v>
       </c>
       <c r="GB3">
-        <v>0.9843638374754029</v>
+        <v>0.9846991251355616</v>
       </c>
       <c r="GC3">
-        <v>0.9843735933348586</v>
+        <v>0.9846991251355616</v>
       </c>
       <c r="GD3">
-        <v>0.9858045732283611</v>
+        <v>0.9861101850589414</v>
       </c>
       <c r="GE3">
-        <v>0.9858046267584549</v>
+        <v>0.9861101850589414</v>
       </c>
       <c r="GF3">
-        <v>0.9863126671561482</v>
+        <v>0.9865940880512419</v>
       </c>
       <c r="GG3">
-        <v>0.9867180481243075</v>
+        <v>0.9869748625047107</v>
       </c>
       <c r="GH3">
-        <v>0.9868190760038488</v>
+        <v>0.9870498931072672</v>
       </c>
       <c r="GI3">
-        <v>0.9876773717699516</v>
+        <v>0.9878856519838843</v>
       </c>
       <c r="GJ3">
-        <v>0.9877428609996542</v>
+        <v>0.9879249815403066</v>
       </c>
       <c r="GK3">
-        <v>0.9907950315857956</v>
+        <v>0.9909646402982867</v>
       </c>
       <c r="GL3">
-        <v>0.9940165265711681</v>
+        <v>0.994174397194943</v>
       </c>
       <c r="GM3">
-        <v>0.9969707250577543</v>
+        <v>0.9971156361631456</v>
       </c>
       <c r="GN3">
-        <v>0.9982097044521286</v>
+        <v>0.9983338182279597</v>
       </c>
       <c r="GO3">
-        <v>0.9983605867514436</v>
+        <v>0.9984589310634774</v>
       </c>
       <c r="GP3">
-        <v>0.9990674034482342</v>
+        <v>0.9991425186767952</v>
       </c>
       <c r="GQ3">
-        <v>0.9995364012261047</v>
+        <v>0.9995872006413463</v>
       </c>
       <c r="GR3">
-        <v>0.9995909050318572</v>
+        <v>0.999615494575171</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>9.416777165728422E-06</v>
+        <v>8.01802413587599E-06</v>
       </c>
       <c r="C4">
-        <v>0.0001257500092131086</v>
+        <v>0.0001229815482100056</v>
       </c>
       <c r="D4">
-        <v>0.0001403606674702455</v>
+        <v>0.0001361948644134626</v>
       </c>
       <c r="E4">
-        <v>0.0001412581793860411</v>
+        <v>0.0001361948644134626</v>
       </c>
       <c r="F4">
-        <v>0.0001609816187331593</v>
+        <v>0.0001545223506513464</v>
       </c>
       <c r="G4">
-        <v>0.0001629657664680788</v>
+        <v>0.0001551057261990934</v>
       </c>
       <c r="H4">
-        <v>0.0001636075731793742</v>
+        <v>0.0001551057261990934</v>
       </c>
       <c r="I4">
-        <v>0.0001650085038040295</v>
+        <v>0.0001551057261990934</v>
       </c>
       <c r="J4">
-        <v>0.0001764904240061029</v>
+        <v>0.0001651894543906304</v>
       </c>
       <c r="K4">
-        <v>0.0002734277107121286</v>
+        <v>0.0002607517639968626</v>
       </c>
       <c r="L4">
-        <v>0.0003403525018899562</v>
+        <v>0.0003262934248431763</v>
       </c>
       <c r="M4">
-        <v>0.0003545727846402228</v>
+        <v>0.0003391162594898691</v>
       </c>
       <c r="N4">
-        <v>0.0006766053403077613</v>
+        <v>0.0006598349877172719</v>
       </c>
       <c r="O4">
-        <v>0.0009490315151022636</v>
+        <v>0.0009309338589407485</v>
       </c>
       <c r="P4">
-        <v>0.00109424755765796</v>
+        <v>0.001074788039863283</v>
       </c>
       <c r="Q4">
-        <v>0.001228821110026357</v>
+        <v>0.001207996839446447</v>
       </c>
       <c r="R4">
-        <v>0.00128215932596507</v>
+        <v>0.001259948234107784</v>
       </c>
       <c r="S4">
-        <v>0.001316935380577104</v>
+        <v>0.001293332424822696</v>
       </c>
       <c r="T4">
-        <v>0.001342132430020553</v>
+        <v>0.001317135008124612</v>
       </c>
       <c r="U4">
-        <v>0.00136260526038086</v>
+        <v>0.001336212088956175</v>
       </c>
       <c r="V4">
-        <v>0.001450884371934508</v>
+        <v>0.001423113871319441</v>
       </c>
       <c r="W4">
-        <v>0.001582860614257194</v>
+        <v>0.001553724655268429</v>
       </c>
       <c r="X4">
-        <v>0.001586613827923248</v>
+        <v>0.001556077577333953</v>
       </c>
       <c r="Y4">
-        <v>0.001590934932399296</v>
+        <v>0.001558998544483392</v>
       </c>
       <c r="Z4">
-        <v>0.001594206474056873</v>
+        <v>0.001560869663688824</v>
       </c>
       <c r="AA4">
-        <v>0.001600830415173449</v>
+        <v>0.001566094093070247</v>
       </c>
       <c r="AB4">
-        <v>0.001666212586324128</v>
+        <v>0.001630092714819344</v>
       </c>
       <c r="AC4">
-        <v>0.001762171028012927</v>
+        <v>0.001724675913494099</v>
       </c>
       <c r="AD4">
-        <v>0.001849516139550137</v>
+        <v>0.001810643442109325</v>
       </c>
       <c r="AE4">
-        <v>0.002000915942214663</v>
+        <v>0.001960683063028622</v>
       </c>
       <c r="AF4">
-        <v>0.002106123314066236</v>
+        <v>0.002064517704441979</v>
       </c>
       <c r="AG4">
-        <v>0.002280777167140017</v>
+        <v>0.002237817692994676</v>
       </c>
       <c r="AH4">
-        <v>0.002678942374147435</v>
+        <v>0.002634689754852349</v>
       </c>
       <c r="AI4">
-        <v>0.003093891781450242</v>
+        <v>0.003048350576622059</v>
       </c>
       <c r="AJ4">
-        <v>0.003141567127289293</v>
+        <v>0.003094637562801426</v>
       </c>
       <c r="AK4">
-        <v>0.003144019764832458</v>
+        <v>0.003095689555427939</v>
       </c>
       <c r="AL4">
-        <v>0.003178606339441156</v>
+        <v>0.003128884214665144</v>
       </c>
       <c r="AM4">
-        <v>0.003283813711292729</v>
+        <v>0.003232718856078501</v>
       </c>
       <c r="AN4">
-        <v>0.003284619282406907</v>
+        <v>0.003232718856078501</v>
       </c>
       <c r="AO4">
-        <v>0.00328669964494352</v>
+        <v>0.003233398472565774</v>
       </c>
       <c r="AP4">
-        <v>0.003288379529173084</v>
+        <v>0.003233677501951565</v>
       </c>
       <c r="AQ4">
-        <v>0.003288391645834797</v>
+        <v>0.003233677501951565</v>
       </c>
       <c r="AR4">
-        <v>0.003289688081757614</v>
+        <v>0.003233677501951565</v>
       </c>
       <c r="AS4">
-        <v>0.003293018075016219</v>
+        <v>0.00323560708863706</v>
       </c>
       <c r="AT4">
-        <v>0.003314521564394665</v>
+        <v>0.003255715108476868</v>
       </c>
       <c r="AU4">
-        <v>0.003336444403780491</v>
+        <v>0.003276242592245199</v>
       </c>
       <c r="AV4">
-        <v>0.003345013321931298</v>
+        <v>0.003283412527035723</v>
       </c>
       <c r="AW4">
-        <v>0.003354253497093918</v>
+        <v>0.003291253901192572</v>
       </c>
       <c r="AX4">
-        <v>0.003384293683622604</v>
+        <v>0.003319900937272345</v>
       </c>
       <c r="AY4">
-        <v>0.003387111328672192</v>
+        <v>0.003321318036563674</v>
       </c>
       <c r="AZ4">
-        <v>0.003391499571149422</v>
+        <v>0.003324306159953088</v>
       </c>
       <c r="BA4">
-        <v>0.00344160208503119</v>
+        <v>0.003373020973542648</v>
       </c>
       <c r="BB4">
-        <v>0.003544612566844099</v>
+        <v>0.003474658128107472</v>
       </c>
       <c r="BC4">
-        <v>0.003585471475563186</v>
+        <v>0.003514126825405121</v>
       </c>
       <c r="BD4">
-        <v>0.003609221732981174</v>
+        <v>0.00353648222364426</v>
       </c>
       <c r="BE4">
-        <v>0.003721092264950014</v>
+        <v>0.003646981835297216</v>
       </c>
       <c r="BF4">
-        <v>0.003760525682644013</v>
+        <v>0.00368502465431912</v>
       </c>
       <c r="BG4">
-        <v>0.003807957451478778</v>
+        <v>0.003731067997323769</v>
       </c>
       <c r="BH4">
-        <v>0.003864632602476219</v>
+        <v>0.003786357233559746</v>
       </c>
       <c r="BI4">
-        <v>0.003867301207323185</v>
+        <v>0.003787625252160006</v>
       </c>
       <c r="BJ4">
-        <v>0.003867413475475161</v>
+        <v>0.003787625252160006</v>
       </c>
       <c r="BK4">
-        <v>0.003869093359704725</v>
+        <v>0.003787904281545797</v>
       </c>
       <c r="BL4">
-        <v>0.003869709650315572</v>
+        <v>0.003787904281545797</v>
       </c>
       <c r="BM4">
-        <v>0.003919584681193336</v>
+        <v>0.00383639155033304</v>
       </c>
       <c r="BN4">
-        <v>0.004082547504061363</v>
+        <v>0.003997997332680233</v>
       </c>
       <c r="BO4">
-        <v>0.004098119467335418</v>
+        <v>0.00401217221504992</v>
       </c>
       <c r="BP4">
-        <v>0.00417566312870013</v>
+        <v>0.00408833563081855</v>
       </c>
       <c r="BQ4">
-        <v>0.004399781342644448</v>
+        <v>0.004311113417791344</v>
       </c>
       <c r="BR4">
-        <v>0.004481541389083365</v>
+        <v>0.004391494364062573</v>
       </c>
       <c r="BS4">
-        <v>0.004597147757117953</v>
+        <v>0.004505730826663132</v>
       </c>
       <c r="BT4">
-        <v>0.004621846979552641</v>
+        <v>0.004529035447715984</v>
       </c>
       <c r="BU4">
-        <v>0.004731014061473902</v>
+        <v>0.004636830874898772</v>
       </c>
       <c r="BV4">
-        <v>0.004902707174495576</v>
+        <v>0.004807169319081052</v>
       </c>
       <c r="BW4">
-        <v>0.004953700651393024</v>
+        <v>0.004856775337726409</v>
       </c>
       <c r="BX4">
-        <v>0.00496118651752477</v>
+        <v>0.004862861926274618</v>
       </c>
       <c r="BY4">
-        <v>0.005016682226501454</v>
+        <v>0.004916971400081157</v>
       </c>
       <c r="BZ4">
-        <v>0.00501857243763472</v>
+        <v>0.004917460813508317</v>
       </c>
       <c r="CA4">
-        <v>0.005018646642146025</v>
+        <v>0.004917460813508317</v>
       </c>
       <c r="CB4">
-        <v>0.005018647950192949</v>
+        <v>0.004917460813508317</v>
       </c>
       <c r="CC4">
-        <v>0.005051591300772728</v>
+        <v>0.004949011802316327</v>
       </c>
       <c r="CD4">
-        <v>0.00507712829722216</v>
+        <v>0.004973154424974651</v>
       </c>
       <c r="CE4">
-        <v>0.005079687779567205</v>
+        <v>0.004974313291428636</v>
       </c>
       <c r="CF4">
-        <v>0.005144784650712863</v>
+        <v>0.005038026535667759</v>
       </c>
       <c r="CG4">
-        <v>0.005202139341722264</v>
+        <v>0.005093995496520376</v>
       </c>
       <c r="CH4">
-        <v>0.005244889232474631</v>
+        <v>0.005135355689557828</v>
       </c>
       <c r="CI4">
-        <v>0.005250805298278749</v>
+        <v>0.005139872051324508</v>
       </c>
       <c r="CJ4">
-        <v>0.005269976108616141</v>
+        <v>0.005157646758424785</v>
       </c>
       <c r="CK4">
-        <v>0.005407964061044629</v>
+        <v>0.005294270885628191</v>
       </c>
       <c r="CL4">
-        <v>0.005590261024252923</v>
+        <v>0.00547521606065217</v>
       </c>
       <c r="CM4">
-        <v>0.005916169069988667</v>
+        <v>0.005799811331768212</v>
       </c>
       <c r="CN4">
-        <v>0.1415427414569176</v>
+        <v>0.141461826890189</v>
       </c>
       <c r="CO4">
-        <v>0.1534247436660322</v>
+        <v>0.1533456556675422</v>
       </c>
       <c r="CP4">
-        <v>0.2002647144903816</v>
+        <v>0.2001969497851969</v>
       </c>
       <c r="CQ4">
-        <v>0.2403868101965012</v>
+        <v>0.2403285437983439</v>
       </c>
       <c r="CR4">
-        <v>0.2419051297232225</v>
+        <v>0.2418458744824259</v>
       </c>
       <c r="CS4">
-        <v>0.2419060828500993</v>
+        <v>0.2418458744824259</v>
       </c>
       <c r="CT4">
-        <v>0.2438817905848703</v>
+        <v>0.2438207176292048</v>
       </c>
       <c r="CU4">
-        <v>0.2670385679924128</v>
+        <v>0.2669823845243856</v>
       </c>
       <c r="CV4">
-        <v>0.3403679392829563</v>
+        <v>0.3403302752515853</v>
       </c>
       <c r="CW4">
-        <v>0.3449911223643209</v>
+        <v>0.3449533129613908</v>
       </c>
       <c r="CX4">
-        <v>0.4637291344540235</v>
+        <v>0.46372218025537</v>
       </c>
       <c r="CY4">
-        <v>0.4677016835239375</v>
+        <v>0.467694407201683</v>
       </c>
       <c r="CZ4">
-        <v>0.4719379761984931</v>
+        <v>0.4719304494015522</v>
       </c>
       <c r="DA4">
-        <v>0.5294883572113379</v>
+        <v>0.5294950633110043</v>
       </c>
       <c r="DB4">
-        <v>0.5326258523665556</v>
+        <v>0.5326320094908399</v>
       </c>
       <c r="DC4">
-        <v>0.6516630804615241</v>
+        <v>0.6517001740754758</v>
       </c>
       <c r="DD4">
-        <v>0.661179604629008</v>
+        <v>0.6612178822025027</v>
       </c>
       <c r="DE4">
-        <v>0.6791853969458969</v>
+        <v>0.6792271646840381</v>
       </c>
       <c r="DF4">
-        <v>0.6795715329226926</v>
+        <v>0.6796120042478084</v>
       </c>
       <c r="DG4">
-        <v>0.6808696590455386</v>
+        <v>0.6809090817100022</v>
       </c>
       <c r="DH4">
-        <v>0.6840091335007911</v>
+        <v>0.6840480077275718</v>
       </c>
       <c r="DI4">
-        <v>0.6848280170152028</v>
+        <v>0.6848657123896904</v>
       </c>
       <c r="DJ4">
-        <v>0.6851680594811873</v>
+        <v>0.6852044459208293</v>
       </c>
       <c r="DK4">
-        <v>0.6851974338067043</v>
+        <v>0.6852324269150087</v>
       </c>
       <c r="DL4">
-        <v>0.6992688180543504</v>
+        <v>0.6993062325011307</v>
       </c>
       <c r="DM4">
-        <v>0.7017409043978573</v>
+        <v>0.7017775891034733</v>
       </c>
       <c r="DN4">
-        <v>0.7084611395161285</v>
+        <v>0.70849824853794</v>
       </c>
       <c r="DO4">
-        <v>0.7134524014039711</v>
+        <v>0.713489465046968</v>
       </c>
       <c r="DP4">
-        <v>0.7161304444511027</v>
+        <v>0.7161668343033887</v>
       </c>
       <c r="DQ4">
-        <v>0.7203585838255149</v>
+        <v>0.7203947209881787</v>
       </c>
       <c r="DR4">
-        <v>0.7206185303300897</v>
+        <v>0.7206533367989398</v>
       </c>
       <c r="DS4">
-        <v>0.7206924385113904</v>
+        <v>0.7207258637470255</v>
       </c>
       <c r="DT4">
-        <v>0.72223225093849</v>
+        <v>0.7222646931702736</v>
       </c>
       <c r="DU4">
-        <v>0.7249983292871709</v>
+        <v>0.7250301216440228</v>
       </c>
       <c r="DV4">
-        <v>0.7317185644054421</v>
+        <v>0.7317507810784895</v>
       </c>
       <c r="DW4">
-        <v>0.7409809575684535</v>
+        <v>0.7410142891635003</v>
       </c>
       <c r="DX4">
-        <v>0.741096563936488</v>
+        <v>0.7411285256261009</v>
       </c>
       <c r="DY4">
-        <v>0.7453123800106833</v>
+        <v>0.745344085662911</v>
       </c>
       <c r="DZ4">
-        <v>0.7464956265315076</v>
+        <v>0.7465262523147479</v>
       </c>
       <c r="EA4">
-        <v>0.7466517691242556</v>
+        <v>0.7466810360141829</v>
       </c>
       <c r="EB4">
-        <v>0.7469941264502808</v>
+        <v>0.7470220850342203</v>
       </c>
       <c r="EC4">
-        <v>0.7475367908598314</v>
+        <v>0.7475634955534535</v>
       </c>
       <c r="ED4">
-        <v>0.7493266477913315</v>
+        <v>0.7493524374085021</v>
       </c>
       <c r="EE4">
-        <v>0.7558538366062053</v>
+        <v>0.7558799980963733</v>
       </c>
       <c r="EF4">
-        <v>0.7560643578899103</v>
+        <v>0.7560891752593478</v>
       </c>
       <c r="EG4">
-        <v>0.7583295409297759</v>
+        <v>0.7583535723504413</v>
       </c>
       <c r="EH4">
-        <v>0.7666771930766885</v>
+        <v>0.7667020909196757</v>
       </c>
       <c r="EI4">
-        <v>0.7716725411646029</v>
+        <v>0.7716973947388377</v>
       </c>
       <c r="EJ4">
-        <v>0.7716812801797567</v>
+        <v>0.77170473481684</v>
       </c>
       <c r="EK4">
-        <v>0.7720531508263013</v>
+        <v>0.772075305175022</v>
       </c>
       <c r="EL4">
-        <v>0.7726680009771223</v>
+        <v>0.7726889210455935</v>
       </c>
       <c r="EM4">
-        <v>0.7728363001100842</v>
+        <v>0.7728558645877032</v>
       </c>
       <c r="EN4">
-        <v>0.7728665342136163</v>
+        <v>0.7728847055934661</v>
       </c>
       <c r="EO4">
-        <v>0.7729210288415753</v>
+        <v>0.7729378137143001</v>
       </c>
       <c r="EP4">
-        <v>0.7735225626521619</v>
+        <v>0.7735381096271038</v>
       </c>
       <c r="EQ4">
-        <v>0.7744686400688122</v>
+        <v>0.774483042745114</v>
       </c>
       <c r="ER4">
-        <v>0.7751370496805757</v>
+        <v>0.7751502326266576</v>
       </c>
       <c r="ES4">
-        <v>0.7752463178824988</v>
+        <v>0.7752581292013125</v>
       </c>
       <c r="ET4">
-        <v>0.7753565288444384</v>
+        <v>0.7753669687920954</v>
       </c>
       <c r="EU4">
-        <v>0.7759015176540298</v>
+        <v>0.7759107043428188</v>
       </c>
       <c r="EV4">
-        <v>0.784133287798903</v>
+        <v>0.7841433094293655</v>
       </c>
       <c r="EW4">
-        <v>0.8002244730820962</v>
+        <v>0.8002374647526863</v>
       </c>
       <c r="EX4">
-        <v>0.8129002503051806</v>
+        <v>0.8129152841819132</v>
       </c>
       <c r="EY4">
-        <v>0.819552416422254</v>
+        <v>0.8195678561234726</v>
       </c>
       <c r="EZ4">
-        <v>0.8196583172591178</v>
+        <v>0.8196723844182857</v>
       </c>
       <c r="FA4">
-        <v>0.8232707250226935</v>
+        <v>0.823284372221827</v>
       </c>
       <c r="FB4">
-        <v>0.8237513310511518</v>
+        <v>0.8237637075011113</v>
       </c>
       <c r="FC4">
-        <v>0.8281831264291482</v>
+        <v>0.8281953055149278</v>
       </c>
       <c r="FD4">
-        <v>0.8395005716283269</v>
+        <v>0.8395144239140885</v>
       </c>
       <c r="FE4">
-        <v>0.8578021349504211</v>
+        <v>0.857819557750347</v>
       </c>
       <c r="FF4">
-        <v>0.8672376241164789</v>
+        <v>0.8672562088618789</v>
       </c>
       <c r="FG4">
-        <v>0.8771981752917773</v>
+        <v>0.8772180646216475</v>
       </c>
       <c r="FH4">
-        <v>0.8862829414516626</v>
+        <v>0.8863038974491606</v>
       </c>
       <c r="FI4">
-        <v>0.8881149248839042</v>
+        <v>0.888134977249088</v>
       </c>
       <c r="FJ4">
-        <v>0.8883157667574388</v>
+        <v>0.8883344723723716</v>
       </c>
       <c r="FK4">
-        <v>0.8942385765616759</v>
+        <v>0.8942574898632553</v>
       </c>
       <c r="FL4">
-        <v>0.9089534948206478</v>
+        <v>0.9089750042839498</v>
       </c>
       <c r="FM4">
-        <v>0.9210212080330308</v>
+        <v>0.9210445945150527</v>
       </c>
       <c r="FN4">
-        <v>0.926121142122786</v>
+        <v>0.9261445127480182</v>
       </c>
       <c r="FO4">
-        <v>0.9277396267512701</v>
+        <v>0.9277620357448386</v>
       </c>
       <c r="FP4">
-        <v>0.9278076604424674</v>
+        <v>0.9278286866069496</v>
       </c>
       <c r="FQ4">
-        <v>0.9286560545173985</v>
+        <v>0.9286759098464631</v>
       </c>
       <c r="FR4">
-        <v>0.929039731824151</v>
+        <v>0.9290582900722648</v>
       </c>
       <c r="FS4">
-        <v>0.9342918169165839</v>
+        <v>0.934310400641438</v>
       </c>
       <c r="FT4">
-        <v>0.9356776512409736</v>
+        <v>0.9356952101320941</v>
       </c>
       <c r="FU4">
-        <v>0.9406936933292522</v>
+        <v>0.9407112135733782</v>
       </c>
       <c r="FV4">
-        <v>0.9491651374783435</v>
+        <v>0.9491835577742798</v>
       </c>
       <c r="FW4">
-        <v>0.9548778562788832</v>
+        <v>0.9548964271878836</v>
       </c>
       <c r="FX4">
-        <v>0.9607239856817709</v>
+        <v>0.9607427434463249</v>
       </c>
       <c r="FY4">
-        <v>0.9687681598233425</v>
+        <v>0.9687877015670073</v>
       </c>
       <c r="FZ4">
-        <v>0.9726085292909302</v>
+        <v>0.9726277130029196</v>
       </c>
       <c r="GA4">
-        <v>0.9726849733482756</v>
+        <v>0.9727027765159491</v>
       </c>
       <c r="GB4">
-        <v>0.9737202555664959</v>
+        <v>0.9737369386690161</v>
       </c>
       <c r="GC4">
-        <v>0.9760343463072222</v>
+        <v>0.976050256747297</v>
       </c>
       <c r="GD4">
-        <v>0.9792364429635767</v>
+        <v>0.9792518219779933</v>
       </c>
       <c r="GE4">
-        <v>0.9803892634838655</v>
+        <v>0.9804035543637298</v>
       </c>
       <c r="GF4">
-        <v>0.9824785642206356</v>
+        <v>0.9824920213713236</v>
       </c>
       <c r="GG4">
-        <v>0.9828987685880309</v>
+        <v>0.9829109385807548</v>
       </c>
       <c r="GH4">
-        <v>0.9832293356638486</v>
+        <v>0.9832401941476308</v>
       </c>
       <c r="GI4">
-        <v>0.9840711890786646</v>
+        <v>0.9840808749501853</v>
       </c>
       <c r="GJ4">
-        <v>0.9840877923699568</v>
+        <v>0.9840960814407449</v>
       </c>
       <c r="GK4">
-        <v>0.9862465634079496</v>
+        <v>0.9862540376219494</v>
       </c>
       <c r="GL4">
-        <v>0.9890769088577616</v>
+        <v>0.9890837506557099</v>
       </c>
       <c r="GM4">
-        <v>0.9909334632904355</v>
+        <v>0.9909394081310581</v>
       </c>
       <c r="GN4">
-        <v>0.9909978360815684</v>
+        <v>0.99100239709858</v>
       </c>
       <c r="GO4">
-        <v>0.992357470805497</v>
+        <v>0.9923609998713591</v>
       </c>
       <c r="GP4">
-        <v>0.996131206671912</v>
+        <v>0.9961343596043319</v>
       </c>
       <c r="GQ4">
-        <v>0.9989478875214836</v>
+        <v>0.9989504043257097</v>
       </c>
       <c r="GR4">
-        <v>0.9996700175941925</v>
+        <v>0.9996713292619657</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.699048673588725E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.687126431546264E-05</v>
+        <v>1.490563849101272E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001231946659440631</v>
+        <v>6.512488520078598E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001515708243188273</v>
+        <v>6.71753399934117E-05</v>
       </c>
       <c r="F5">
-        <v>0.0001516977899615554</v>
+        <v>6.71753399934117E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001731039657355232</v>
+        <v>6.71753399934117E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001994391002271863</v>
+        <v>6.71753399934117E-05</v>
       </c>
       <c r="I5">
-        <v>0.0003606463109940925</v>
+        <v>0.0002026706163984016</v>
       </c>
       <c r="J5">
-        <v>0.0004134549579694934</v>
+        <v>0.0002292664543988092</v>
       </c>
       <c r="K5">
-        <v>0.0004224345559551897</v>
+        <v>0.0002292664543988092</v>
       </c>
       <c r="L5">
-        <v>0.0005152046606418103</v>
+        <v>0.0002960083990482914</v>
       </c>
       <c r="M5">
-        <v>0.0009894420034800111</v>
+        <v>0.0007459802182591703</v>
       </c>
       <c r="N5">
-        <v>0.001437064877842547</v>
+        <v>0.001169214592165783</v>
       </c>
       <c r="O5">
-        <v>0.001541455571863602</v>
+        <v>0.001247630821124827</v>
       </c>
       <c r="P5">
-        <v>0.001549563058399248</v>
+        <v>0.001247630821124827</v>
       </c>
       <c r="Q5">
-        <v>0.001556410999707035</v>
+        <v>0.001247630821124827</v>
       </c>
       <c r="R5">
-        <v>0.001559619593123263</v>
+        <v>0.001247630821124827</v>
       </c>
       <c r="S5">
-        <v>0.001586063231608712</v>
+        <v>0.001247739826480384</v>
       </c>
       <c r="T5">
-        <v>0.001671026380742474</v>
+        <v>0.001306638742166944</v>
       </c>
       <c r="U5">
-        <v>0.001782796144340894</v>
+        <v>0.001392468136991074</v>
       </c>
       <c r="V5">
-        <v>0.002037756129738139</v>
+        <v>0.001622149389196928</v>
       </c>
       <c r="W5">
-        <v>0.002322112293451726</v>
+        <v>0.001881362649926881</v>
       </c>
       <c r="X5">
-        <v>0.002874267861827184</v>
+        <v>0.002409612729528825</v>
       </c>
       <c r="Y5">
-        <v>0.003197830643295225</v>
+        <v>0.002708213769080415</v>
       </c>
       <c r="Z5">
-        <v>0.00325839971282615</v>
+        <v>0.002742605888032518</v>
       </c>
       <c r="AA5">
-        <v>0.003263205090550923</v>
+        <v>0.002742605888032518</v>
       </c>
       <c r="AB5">
-        <v>0.003317851363421075</v>
+        <v>0.002771047843001052</v>
       </c>
       <c r="AC5">
-        <v>0.003549888970131192</v>
+        <v>0.002977700799640864</v>
       </c>
       <c r="AD5">
-        <v>0.003577165502568937</v>
+        <v>0.002978646547481589</v>
       </c>
       <c r="AE5">
-        <v>0.003621949234003962</v>
+        <v>0.002997180389409134</v>
       </c>
       <c r="AF5">
-        <v>0.003723294238199458</v>
+        <v>0.003072536855397555</v>
       </c>
       <c r="AG5">
-        <v>0.003729908690820617</v>
+        <v>0.003072536855397555</v>
       </c>
       <c r="AH5">
-        <v>0.003786106874601883</v>
+        <v>0.003102537892154289</v>
       </c>
       <c r="AI5">
-        <v>0.003808263072332894</v>
+        <v>0.003102537892154289</v>
       </c>
       <c r="AJ5">
-        <v>0.003834952852804245</v>
+        <v>0.003102894176838048</v>
       </c>
       <c r="AK5">
-        <v>0.003918877987997458</v>
+        <v>0.003160750282258236</v>
       </c>
       <c r="AL5">
-        <v>0.004119882036485013</v>
+        <v>0.003336226284666134</v>
       </c>
       <c r="AM5">
-        <v>0.004363632872524258</v>
+        <v>0.003554646593669576</v>
       </c>
       <c r="AN5">
-        <v>0.004509483164170727</v>
+        <v>0.003674713991610633</v>
       </c>
       <c r="AO5">
-        <v>0.004623467712642297</v>
+        <v>0.003762768405110626</v>
       </c>
       <c r="AP5">
-        <v>0.004966340533004361</v>
+        <v>0.004080768708984338</v>
       </c>
       <c r="AQ5">
-        <v>0.005188716490267846</v>
+        <v>0.00427771537282839</v>
       </c>
       <c r="AR5">
-        <v>0.005252192806632259</v>
+        <v>0.004315028172058872</v>
       </c>
       <c r="AS5">
-        <v>0.005356583500653315</v>
+        <v>0.004393444401017916</v>
       </c>
       <c r="AT5">
-        <v>0.005545408759838406</v>
+        <v>0.004556685339887177</v>
       </c>
       <c r="AU5">
-        <v>0.005563746827788098</v>
+        <v>0.004556685339887177</v>
       </c>
       <c r="AV5">
-        <v>0.005569228748174123</v>
+        <v>0.004556685339887177</v>
       </c>
       <c r="AW5">
-        <v>0.005571959777617704</v>
+        <v>0.004556685339887177</v>
       </c>
       <c r="AX5">
-        <v>0.005573553131326446</v>
+        <v>0.004556685339887177</v>
       </c>
       <c r="AY5">
-        <v>0.005674898135521941</v>
+        <v>0.004632041805875598</v>
       </c>
       <c r="AZ5">
-        <v>0.00573781232591855</v>
+        <v>0.004668789881736457</v>
       </c>
       <c r="BA5">
-        <v>0.005757851639770805</v>
+        <v>0.004668789881736457</v>
       </c>
       <c r="BB5">
-        <v>0.005807363251935042</v>
+        <v>0.004692073450396963</v>
       </c>
       <c r="BC5">
-        <v>0.005913383525862763</v>
+        <v>0.004772126789023</v>
       </c>
       <c r="BD5">
-        <v>0.006000476100874562</v>
+        <v>0.004833164969974076</v>
       </c>
       <c r="BE5">
-        <v>0.006178090120701773</v>
+        <v>0.004985142865983833</v>
       </c>
       <c r="BF5">
-        <v>0.006522631400968276</v>
+        <v>0.005304819339174175</v>
       </c>
       <c r="BG5">
-        <v>0.00672263413951318</v>
+        <v>0.00547928940491087</v>
       </c>
       <c r="BH5">
-        <v>0.006845338892485303</v>
+        <v>0.005576104316148728</v>
       </c>
       <c r="BI5">
-        <v>0.007016886052659992</v>
+        <v>0.005721987319514797</v>
       </c>
       <c r="BJ5">
-        <v>0.007194500072487203</v>
+        <v>0.005873965215524554</v>
       </c>
       <c r="BK5">
-        <v>0.00731217111574763</v>
+        <v>0.00596572315791041</v>
       </c>
       <c r="BL5">
-        <v>0.007483718275922319</v>
+        <v>0.006111606161276479</v>
       </c>
       <c r="BM5">
-        <v>0.007547913668245547</v>
+        <v>0.006149641359082608</v>
       </c>
       <c r="BN5">
-        <v>0.007548357580920122</v>
+        <v>0.006149641359082608</v>
       </c>
       <c r="BO5">
-        <v>0.007599510990990327</v>
+        <v>0.006174574311864821</v>
       </c>
       <c r="BP5">
-        <v>0.0076352864189413</v>
+        <v>0.00618405822585902</v>
       </c>
       <c r="BQ5">
-        <v>0.007725858373753819</v>
+        <v>0.006248591863696622</v>
       </c>
       <c r="BR5">
-        <v>0.007924590372371504</v>
+        <v>0.006421785317828956</v>
       </c>
       <c r="BS5">
-        <v>0.007971878746663077</v>
+        <v>0.006442835375755513</v>
       </c>
       <c r="BT5">
-        <v>0.008141052606973696</v>
+        <v>0.006586334113008426</v>
       </c>
       <c r="BU5">
-        <v>0.008274162229349883</v>
+        <v>0.006693601971177896</v>
       </c>
       <c r="BV5">
-        <v>0.008471601698041597</v>
+        <v>0.006865496923022597</v>
       </c>
       <c r="BW5">
-        <v>0.00882908114756707</v>
+        <v>0.007198171348556619</v>
       </c>
       <c r="BX5">
-        <v>0.009013827366985788</v>
+        <v>0.007357314399739448</v>
       </c>
       <c r="BY5">
-        <v>0.009192385076758949</v>
+        <v>0.007510240346180387</v>
       </c>
       <c r="BZ5">
-        <v>0.009336300918516213</v>
+        <v>0.007628364355766581</v>
       </c>
       <c r="CA5">
-        <v>0.009556286745916591</v>
+        <v>0.007822909845732473</v>
       </c>
       <c r="CB5">
-        <v>0.009599861889420839</v>
+        <v>0.007840229515236318</v>
       </c>
       <c r="CC5">
-        <v>0.009608841487406535</v>
+        <v>0.007840229515236318</v>
       </c>
       <c r="CD5">
-        <v>0.009630247663180503</v>
+        <v>0.007840229515236318</v>
       </c>
       <c r="CE5">
-        <v>0.009656582797672167</v>
+        <v>0.007840229515236318</v>
       </c>
       <c r="CF5">
-        <v>0.009659954626279046</v>
+        <v>0.007840229515236318</v>
       </c>
       <c r="CG5">
-        <v>0.009791458628747194</v>
+        <v>0.007945884334448806</v>
       </c>
       <c r="CH5">
-        <v>0.009877057833844526</v>
+        <v>0.008005422245107292</v>
       </c>
       <c r="CI5">
-        <v>0.009911597235866293</v>
+        <v>0.008013664421897269</v>
       </c>
       <c r="CJ5">
-        <v>0.01005576655760904</v>
+        <v>0.008132043082717763</v>
       </c>
       <c r="CK5">
-        <v>0.01034909697080863</v>
+        <v>0.008400272060030529</v>
       </c>
       <c r="CL5">
-        <v>0.0105288592905128</v>
+        <v>0.008554408182514349</v>
       </c>
       <c r="CM5">
-        <v>0.01080667195460116</v>
+        <v>0.008807047708229158</v>
       </c>
       <c r="CN5">
-        <v>0.01182287849639824</v>
+        <v>0.009801492990323946</v>
       </c>
       <c r="CO5">
-        <v>0.1211250822361479</v>
+        <v>0.1195822899497212</v>
       </c>
       <c r="CP5">
-        <v>0.144207856914089</v>
+        <v>0.1427452658238315</v>
       </c>
       <c r="CQ5">
-        <v>0.1934616310930941</v>
+        <v>0.1922001689012782</v>
       </c>
       <c r="CR5">
-        <v>0.226051087226543</v>
+        <v>0.224913753523188</v>
       </c>
       <c r="CS5">
-        <v>0.2260519088201259</v>
+        <v>0.224913753523188</v>
       </c>
       <c r="CT5">
-        <v>0.2260579979890772</v>
+        <v>0.224913753523188</v>
       </c>
       <c r="CU5">
-        <v>0.2263592773018215</v>
+        <v>0.2251899681293327</v>
       </c>
       <c r="CV5">
-        <v>0.2620405712581863</v>
+        <v>0.2610096769541536</v>
       </c>
       <c r="CW5">
-        <v>0.3377990069191449</v>
+        <v>0.337091710959644</v>
       </c>
       <c r="CX5">
-        <v>0.3503057022028278</v>
+        <v>0.349629738806101</v>
       </c>
       <c r="CY5">
-        <v>0.4613071158452557</v>
+        <v>0.4611175971661371</v>
       </c>
       <c r="CZ5">
-        <v>0.4653544540134456</v>
+        <v>0.4651571799509709</v>
       </c>
       <c r="DA5">
-        <v>0.4653616721145322</v>
+        <v>0.4651571799509709</v>
       </c>
       <c r="DB5">
-        <v>0.5340276981817065</v>
+        <v>0.5341140326377867</v>
       </c>
       <c r="DC5">
-        <v>0.5352455693119533</v>
+        <v>0.535311074335001</v>
       </c>
       <c r="DD5">
-        <v>0.6549152124579111</v>
+        <v>0.6555072152762719</v>
       </c>
       <c r="DE5">
-        <v>0.6551097335467699</v>
+        <v>0.6556761783633969</v>
       </c>
       <c r="DF5">
-        <v>0.6820006540066007</v>
+        <v>0.6826648962261945</v>
       </c>
       <c r="DG5">
-        <v>0.6865660384451197</v>
+        <v>0.6872249190051866</v>
       </c>
       <c r="DH5">
-        <v>0.6866119041324927</v>
+        <v>0.6872445398024197</v>
       </c>
       <c r="DI5">
-        <v>0.6873011273230177</v>
+        <v>0.6879104908492064</v>
       </c>
       <c r="DJ5">
-        <v>0.6905130271390572</v>
+        <v>0.6911107749921703</v>
       </c>
       <c r="DK5">
-        <v>0.6905723519036594</v>
+        <v>0.6911439170566641</v>
       </c>
       <c r="DL5">
-        <v>0.6905755984432734</v>
+        <v>0.6911439170566641</v>
       </c>
       <c r="DM5">
-        <v>0.7092993273708775</v>
+        <v>0.7099277054435249</v>
       </c>
       <c r="DN5">
-        <v>0.7135104176296886</v>
+        <v>0.714131796964291</v>
       </c>
       <c r="DO5">
-        <v>0.7195949442811992</v>
+        <v>0.7202179814198314</v>
       </c>
       <c r="DP5">
-        <v>0.7197735019909723</v>
+        <v>0.7203709073662723</v>
       </c>
       <c r="DQ5">
-        <v>0.7200471516152992</v>
+        <v>0.7206193646161687</v>
       </c>
       <c r="DR5">
-        <v>0.724523128358939</v>
+        <v>0.7250895665763156</v>
       </c>
       <c r="DS5">
-        <v>0.7245438935647496</v>
+        <v>0.7250895665763156</v>
       </c>
       <c r="DT5">
-        <v>0.72629177946464</v>
+        <v>0.7268190720695571</v>
       </c>
       <c r="DU5">
-        <v>0.7265200137815679</v>
+        <v>0.7270219041626459</v>
       </c>
       <c r="DV5">
-        <v>0.7289645731415566</v>
+        <v>0.7294513022181357</v>
       </c>
       <c r="DW5">
-        <v>0.7319166189724791</v>
+        <v>0.7323905316749799</v>
       </c>
       <c r="DX5">
-        <v>0.7382947256071749</v>
+        <v>0.7387716526516093</v>
       </c>
       <c r="DY5">
-        <v>0.7382951695198495</v>
+        <v>0.7387716526516093</v>
       </c>
       <c r="DZ5">
-        <v>0.7434278652258759</v>
+        <v>0.7439016080595149</v>
       </c>
       <c r="EA5">
-        <v>0.7442201284304992</v>
+        <v>0.7446710752348926</v>
       </c>
       <c r="EB5">
-        <v>0.7442284332200235</v>
+        <v>0.7446710752348926</v>
       </c>
       <c r="EC5">
-        <v>0.7442325598250872</v>
+        <v>0.7446710752348926</v>
       </c>
       <c r="ED5">
-        <v>0.744247088419255</v>
+        <v>0.7446710752348926</v>
       </c>
       <c r="EE5">
-        <v>0.7442482047578911</v>
+        <v>0.7446710752348926</v>
       </c>
       <c r="EF5">
-        <v>0.7461994140461362</v>
+        <v>0.7466048436079351</v>
       </c>
       <c r="EG5">
-        <v>0.7462011884733346</v>
+        <v>0.7466048436079351</v>
       </c>
       <c r="EH5">
-        <v>0.7463757558833363</v>
+        <v>0.7467537608167233</v>
       </c>
       <c r="EI5">
-        <v>0.748832726442614</v>
+        <v>0.7491956274196296</v>
       </c>
       <c r="EJ5">
-        <v>0.7499686340775552</v>
+        <v>0.7503103268948047</v>
       </c>
       <c r="EK5">
-        <v>0.7502723091901623</v>
+        <v>0.7505889483710265</v>
       </c>
       <c r="EL5">
-        <v>0.7516175355131148</v>
+        <v>0.7519139337279949</v>
       </c>
       <c r="EM5">
-        <v>0.7522059159194155</v>
+        <v>0.7524785760287516</v>
       </c>
       <c r="EN5">
-        <v>0.7525917166773189</v>
+        <v>0.7528397026262458</v>
       </c>
       <c r="EO5">
-        <v>0.7526090770983246</v>
+        <v>0.7528397026262458</v>
       </c>
       <c r="EP5">
-        <v>0.7526188236897664</v>
+        <v>0.7528397026262458</v>
       </c>
       <c r="EQ5">
-        <v>0.7526677040429668</v>
+        <v>0.7528623520190995</v>
       </c>
       <c r="ER5">
-        <v>0.7533142597059355</v>
+        <v>0.7534854383855208</v>
       </c>
       <c r="ES5">
-        <v>0.7534177142000101</v>
+        <v>0.7535629140886572</v>
       </c>
       <c r="ET5">
-        <v>0.7534564201057933</v>
+        <v>0.7535753420212713</v>
       </c>
       <c r="EU5">
-        <v>0.7538581288827856</v>
+        <v>0.7539524501436522</v>
       </c>
       <c r="EV5">
-        <v>0.7539060381760416</v>
+        <v>0.7539741239896084</v>
       </c>
       <c r="EW5">
-        <v>0.7590158634833779</v>
+        <v>0.7590811033221277</v>
       </c>
       <c r="EX5">
-        <v>0.768323061950311</v>
+        <v>0.7684048505145398</v>
       </c>
       <c r="EY5">
-        <v>0.7769605614556008</v>
+        <v>0.7770558042835689</v>
       </c>
       <c r="EZ5">
-        <v>0.7800107078809045</v>
+        <v>0.7800935876258301</v>
       </c>
       <c r="FA5">
-        <v>0.7820667317631464</v>
+        <v>0.7821326549071203</v>
       </c>
       <c r="FB5">
-        <v>0.7889075159713426</v>
+        <v>0.7889785913402855</v>
       </c>
       <c r="FC5">
-        <v>0.7905402602778276</v>
+        <v>0.7905924232081553</v>
       </c>
       <c r="FD5">
-        <v>0.7977173892667597</v>
+        <v>0.7977762585622222</v>
       </c>
       <c r="FE5">
-        <v>0.8136450143545099</v>
+        <v>0.8137510232200725</v>
       </c>
       <c r="FF5">
-        <v>0.8279776065336151</v>
+        <v>0.8281233848394254</v>
       </c>
       <c r="FG5">
-        <v>0.8340030351885105</v>
+        <v>0.8341501982256718</v>
       </c>
       <c r="FH5">
-        <v>0.8426723996919753</v>
+        <v>0.8428331642306996</v>
       </c>
       <c r="FI5">
-        <v>0.8491073256234168</v>
+        <v>0.8492713670476203</v>
       </c>
       <c r="FJ5">
-        <v>0.8493161910514542</v>
+        <v>0.8494547407544636</v>
       </c>
       <c r="FK5">
-        <v>0.8494773982622211</v>
+        <v>0.8495902360308686</v>
       </c>
       <c r="FL5">
-        <v>0.860012017658854</v>
+        <v>0.860147075667083</v>
       </c>
       <c r="FM5">
-        <v>0.8834838823145101</v>
+        <v>0.8837009393775259</v>
       </c>
       <c r="FN5">
-        <v>0.9033041651793094</v>
+        <v>0.9035863485217482</v>
       </c>
       <c r="FO5">
-        <v>0.9158365494615209</v>
+        <v>0.9161501840672661</v>
       </c>
       <c r="FP5">
-        <v>0.9217468358230111</v>
+        <v>0.9220613231249065</v>
       </c>
       <c r="FQ5">
-        <v>0.9229832047521984</v>
+        <v>0.923276948093392</v>
       </c>
       <c r="FR5">
-        <v>0.9262108416673365</v>
+        <v>0.9264930420514865</v>
       </c>
       <c r="FS5">
-        <v>0.9272662679068873</v>
+        <v>0.9275268882528407</v>
       </c>
       <c r="FT5">
-        <v>0.9340977128156184</v>
+        <v>0.9343634422326664</v>
       </c>
       <c r="FU5">
-        <v>0.9354776856365808</v>
+        <v>0.9357233346399448</v>
       </c>
       <c r="FV5">
-        <v>0.9415334492897388</v>
+        <v>0.9417806231926442</v>
       </c>
       <c r="FW5">
-        <v>0.9529234746373786</v>
+        <v>0.9531968213333842</v>
       </c>
       <c r="FX5">
-        <v>0.9606434361952202</v>
+        <v>0.9609259975096383</v>
       </c>
       <c r="FY5">
-        <v>0.9676638822931263</v>
+        <v>0.9679524259918471</v>
       </c>
       <c r="FZ5">
-        <v>0.9836291973787177</v>
+        <v>0.9839650548007971</v>
       </c>
       <c r="GA5">
-        <v>0.9894935410428392</v>
+        <v>0.9898300388747621</v>
       </c>
       <c r="GB5">
-        <v>0.9895741346582232</v>
+        <v>0.9898845480665003</v>
       </c>
       <c r="GC5">
-        <v>0.9895742108155539</v>
+        <v>0.9898845480665003</v>
       </c>
       <c r="GD5">
-        <v>0.9896346156050941</v>
+        <v>0.9899187751463773</v>
       </c>
       <c r="GE5">
-        <v>0.9903029517968154</v>
+        <v>0.9905637426823118</v>
       </c>
       <c r="GF5">
-        <v>0.990384164932164</v>
+        <v>0.9906188742566155</v>
       </c>
       <c r="GG5">
-        <v>0.9907699656900674</v>
+        <v>0.9909800008541098</v>
       </c>
       <c r="GH5">
-        <v>0.9907701267492781</v>
+        <v>0.9909800008541098</v>
       </c>
       <c r="GI5">
-        <v>0.9908900700124084</v>
+        <v>0.9910740415155567</v>
       </c>
       <c r="GJ5">
-        <v>0.9909591524784517</v>
+        <v>0.9911169863686659</v>
       </c>
       <c r="GK5">
-        <v>0.9909731538746498</v>
+        <v>0.9911169863686659</v>
       </c>
       <c r="GL5">
-        <v>0.9929478400615502</v>
+        <v>0.9930743401194996</v>
       </c>
       <c r="GM5">
-        <v>0.9952746619282822</v>
+        <v>0.9953854566549549</v>
       </c>
       <c r="GN5">
-        <v>0.9975344181988554</v>
+        <v>0.9976291977058789</v>
       </c>
       <c r="GO5">
-        <v>0.9977544040262557</v>
+        <v>0.9978237431958448</v>
       </c>
       <c r="GP5">
-        <v>0.9983098012344455</v>
+        <v>0.9983552498938275</v>
       </c>
       <c r="GQ5">
-        <v>0.9996871483555583</v>
+        <v>0.9997125044687487</v>
       </c>
       <c r="GR5">
-        <v>0.9999996567076594</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.781371574891991E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.888194658729236E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.022699792946417E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002684712422814086</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0005304006987514713</v>
+        <v>8.157617425283296E-06</v>
       </c>
       <c r="G6">
-        <v>0.0007844554747263759</v>
+        <v>8.157617425283296E-06</v>
       </c>
       <c r="H6">
-        <v>0.00101269971907832</v>
+        <v>8.157617425283296E-06</v>
       </c>
       <c r="I6">
-        <v>0.001280526835919227</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="J6">
-        <v>0.001523160921176001</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="K6">
-        <v>0.001566332701890632</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="L6">
-        <v>0.001664050448035101</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="M6">
-        <v>0.001754127153699103</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="N6">
-        <v>0.001805651439938938</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="O6">
-        <v>0.001933886418002324</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="P6">
-        <v>0.001956227662407136</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="Q6">
-        <v>0.001995306544864407</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="R6">
-        <v>0.002080013470190758</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="S6">
-        <v>0.002096718342241156</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="T6">
-        <v>0.002128444531236092</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="U6">
-        <v>0.002153701340824234</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="V6">
-        <v>0.002265381597846662</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="W6">
-        <v>0.002277198287589693</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="X6">
-        <v>0.002293047525586289</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="Y6">
-        <v>0.002416512003349706</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="Z6">
-        <v>0.002616406085918999</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="AA6">
-        <v>0.002810318008112136</v>
+        <v>2.242479790384565E-05</v>
       </c>
       <c r="AB6">
-        <v>0.003080610185108044</v>
+        <v>3.924560804232672E-05</v>
       </c>
       <c r="AC6">
-        <v>0.003284441407924903</v>
+        <v>3.924560804232672E-05</v>
       </c>
       <c r="AD6">
-        <v>0.003553683254854768</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AE6">
-        <v>0.003804368620617804</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AF6">
-        <v>0.004015569283898053</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AG6">
-        <v>0.004147952972222308</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AH6">
-        <v>0.004312769472585931</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AI6">
-        <v>0.00438776624330171</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AJ6">
-        <v>0.004388155334966176</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AK6">
-        <v>0.00444029347824461</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AL6">
-        <v>0.004496031853749426</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AM6">
-        <v>0.004609283210870645</v>
+        <v>5.497834980084853E-05</v>
       </c>
       <c r="AN6">
-        <v>0.004890173378532953</v>
+        <v>8.277793595270126E-05</v>
       </c>
       <c r="AO6">
-        <v>0.005190686747429163</v>
+        <v>0.000130905784111368</v>
       </c>
       <c r="AP6">
-        <v>0.00555445127030259</v>
+        <v>0.0002445573974781708</v>
       </c>
       <c r="AQ6">
-        <v>0.005982637447226836</v>
+        <v>0.0004249453321438071</v>
       </c>
       <c r="AR6">
-        <v>0.006267111545114501</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AS6">
-        <v>0.006451047896680375</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AT6">
-        <v>0.006700368212357579</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AU6">
-        <v>0.006896945904718337</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AV6">
-        <v>0.006932376342946195</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AW6">
-        <v>0.006937751453284181</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AX6">
-        <v>0.006952676825222685</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AY6">
-        <v>0.006980457675969538</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="AZ6">
-        <v>0.007162390287409418</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="BA6">
-        <v>0.007302234096202764</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="BB6">
-        <v>0.007470904146808697</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="BC6">
-        <v>0.007521522051991539</v>
+        <v>0.0004564576189792425</v>
       </c>
       <c r="BD6">
-        <v>0.007795330149208528</v>
+        <v>0.0004769206762005133</v>
       </c>
       <c r="BE6">
-        <v>0.008173069752960706</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BF6">
-        <v>0.008234358712814541</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BG6">
-        <v>0.008234625647281325</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BH6">
-        <v>0.008235889417560789</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BI6">
-        <v>0.008279068205275861</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BJ6">
-        <v>0.008323659071079724</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BK6">
-        <v>0.008427811487628804</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BL6">
-        <v>0.008432846219945387</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BM6">
-        <v>0.008470473036311352</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BN6">
-        <v>0.00854110479075266</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BO6">
-        <v>0.008592636733992976</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BP6">
-        <v>0.008616416015488211</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BQ6">
-        <v>0.008629743666326252</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BR6">
-        <v>0.008662688008397784</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BS6">
-        <v>0.00866271180999428</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BT6">
-        <v>0.008790946788057665</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BU6">
-        <v>0.00891918176612105</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BV6">
-        <v>0.00901689951226552</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BW6">
-        <v>0.009109010698057449</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BX6">
-        <v>0.009334045882207608</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BY6">
-        <v>0.009388204170613069</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="BZ6">
-        <v>0.009431375951327701</v>
+        <v>0.0006050494944985293</v>
       </c>
       <c r="CA6">
-        <v>0.009746095421117188</v>
+        <v>0.0006678938681420814</v>
       </c>
       <c r="CB6">
-        <v>0.01005554291057517</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CC6">
-        <v>0.01011516618932427</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CD6">
-        <v>0.01011629026859495</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CE6">
-        <v>0.01011726171245604</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CF6">
-        <v>0.01011765013953046</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CG6">
-        <v>0.01011824682506798</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CH6">
-        <v>0.01015457743735244</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CI6">
-        <v>0.01022342906168182</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CJ6">
-        <v>0.01026660784939689</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CK6">
-        <v>0.0103083972820246</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CL6">
-        <v>0.01054872919713661</v>
+        <v>0.0007252768394284907</v>
       </c>
       <c r="CM6">
-        <v>0.01138455644969323</v>
+        <v>0.001327952375970109</v>
       </c>
       <c r="CN6">
-        <v>0.03769397810402348</v>
+        <v>0.02831948746107114</v>
       </c>
       <c r="CO6">
-        <v>0.05762984935758638</v>
+        <v>0.04870847075474521</v>
       </c>
       <c r="CP6">
-        <v>0.1109618277110886</v>
+        <v>0.1036934818342581</v>
       </c>
       <c r="CQ6">
-        <v>0.1736401766522885</v>
+        <v>0.1683606781930641</v>
       </c>
       <c r="CR6">
-        <v>0.1961174020656511</v>
+        <v>0.1913823263917519</v>
       </c>
       <c r="CS6">
-        <v>0.1979811234828415</v>
+        <v>0.1930498282858732</v>
       </c>
       <c r="CT6">
-        <v>0.1995074287788152</v>
+        <v>0.1943677907121138</v>
       </c>
       <c r="CU6">
-        <v>0.2262612804610911</v>
+        <v>0.221819724176872</v>
       </c>
       <c r="CV6">
-        <v>0.2271219404152092</v>
+        <v>0.2224481246528698</v>
       </c>
       <c r="CW6">
-        <v>0.2673082929421176</v>
+        <v>0.2638151881375294</v>
       </c>
       <c r="CX6">
-        <v>0.3840067442800888</v>
+        <v>0.3844434268393799</v>
       </c>
       <c r="CY6">
-        <v>0.4254720368874166</v>
+        <v>0.4271353826663178</v>
       </c>
       <c r="CZ6">
-        <v>0.4364723645791146</v>
+        <v>0.4382677687038281</v>
       </c>
       <c r="DA6">
-        <v>0.4508584394837076</v>
+        <v>0.4529075517053802</v>
       </c>
       <c r="DB6">
-        <v>0.5273345442925071</v>
+        <v>0.5318682567042565</v>
       </c>
       <c r="DC6">
-        <v>0.5548010460195943</v>
+        <v>0.5600584456991604</v>
       </c>
       <c r="DD6">
-        <v>0.6440049016287118</v>
+        <v>0.6522042090349659</v>
       </c>
       <c r="DE6">
-        <v>0.6566665174248713</v>
+        <v>0.6650575731867886</v>
       </c>
       <c r="DF6">
-        <v>0.6620318345622411</v>
+        <v>0.6703524829841001</v>
       </c>
       <c r="DG6">
-        <v>0.663993481485589</v>
+        <v>0.6721214288435863</v>
       </c>
       <c r="DH6">
-        <v>0.6640774054708661</v>
+        <v>0.6721214288435863</v>
       </c>
       <c r="DI6">
-        <v>0.6679418072138588</v>
+        <v>0.6758614954212172</v>
       </c>
       <c r="DJ6">
-        <v>0.6708947711995404</v>
+        <v>0.6786573763222771</v>
       </c>
       <c r="DK6">
-        <v>0.6723813233930145</v>
+        <v>0.6799341573187619</v>
       </c>
       <c r="DL6">
-        <v>0.67938064233313</v>
+        <v>0.6869217785330278</v>
       </c>
       <c r="DM6">
-        <v>0.7077517961171015</v>
+        <v>0.7160491236941527</v>
       </c>
       <c r="DN6">
-        <v>0.7077571687574393</v>
+        <v>0.7160491236941527</v>
       </c>
       <c r="DO6">
-        <v>0.714012243550757</v>
+        <v>0.7222657601015663</v>
       </c>
       <c r="DP6">
-        <v>0.7146361072899854</v>
+        <v>0.7226488562848994</v>
       </c>
       <c r="DQ6">
-        <v>0.7154468280409633</v>
+        <v>0.7232255232443449</v>
       </c>
       <c r="DR6">
-        <v>0.7173013583575757</v>
+        <v>0.7248835038020414</v>
       </c>
       <c r="DS6">
-        <v>0.7187439009482824</v>
+        <v>0.7261146939326319</v>
       </c>
       <c r="DT6">
-        <v>0.7189667192222932</v>
+        <v>0.7261146939326319</v>
       </c>
       <c r="DU6">
-        <v>0.7213293140708525</v>
+        <v>0.7282989937589677</v>
       </c>
       <c r="DV6">
-        <v>0.722932301371648</v>
+        <v>0.7296963933711518</v>
       </c>
       <c r="DW6">
-        <v>0.7330156970056896</v>
+        <v>0.7398789020217714</v>
       </c>
       <c r="DX6">
-        <v>0.734530324100929</v>
+        <v>0.7411847666500296</v>
       </c>
       <c r="DY6">
-        <v>0.736360197215991</v>
+        <v>0.7428172040739889</v>
       </c>
       <c r="DZ6">
-        <v>0.7402604599612386</v>
+        <v>0.746594420138137</v>
       </c>
       <c r="EA6">
-        <v>0.740993071907305</v>
+        <v>0.7470901718466836</v>
       </c>
       <c r="EB6">
-        <v>0.7411271656457368</v>
+        <v>0.7470901718466836</v>
       </c>
       <c r="EC6">
-        <v>0.7413033932668179</v>
+        <v>0.7470901718466836</v>
       </c>
       <c r="ED6">
-        <v>0.7414717727474056</v>
+        <v>0.7470901718466836</v>
       </c>
       <c r="EE6">
-        <v>0.743268062760356</v>
+        <v>0.7486878195291226</v>
       </c>
       <c r="EF6">
-        <v>0.7445593468415516</v>
+        <v>0.7497623164384875</v>
       </c>
       <c r="EG6">
-        <v>0.7446678844783764</v>
+        <v>0.7497623164384875</v>
       </c>
       <c r="EH6">
-        <v>0.7458926407553887</v>
+        <v>0.7507678952025377</v>
       </c>
       <c r="EI6">
-        <v>0.7480804335929566</v>
+        <v>0.7527711123891758</v>
       </c>
       <c r="EJ6">
-        <v>0.7482546859339135</v>
+        <v>0.7527711123891758</v>
       </c>
       <c r="EK6">
-        <v>0.7490880192863133</v>
+        <v>0.7533712044198357</v>
       </c>
       <c r="EL6">
-        <v>0.7518596198605909</v>
+        <v>0.7559792055299519</v>
       </c>
       <c r="EM6">
-        <v>0.7529806991310841</v>
+        <v>0.7568773821771161</v>
       </c>
       <c r="EN6">
-        <v>0.7529831380226375</v>
+        <v>0.7568773821771161</v>
       </c>
       <c r="EO6">
-        <v>0.7530169381807629</v>
+        <v>0.7568773821771161</v>
       </c>
       <c r="EP6">
-        <v>0.7531226080074074</v>
+        <v>0.7568773821771161</v>
       </c>
       <c r="EQ6">
-        <v>0.7534904494805371</v>
+        <v>0.7569952572253859</v>
       </c>
       <c r="ER6">
-        <v>0.7541922083246635</v>
+        <v>0.7574590472813721</v>
       </c>
       <c r="ES6">
-        <v>0.7542272591318675</v>
+        <v>0.7574590472813721</v>
       </c>
       <c r="ET6">
-        <v>0.7544043367030021</v>
+        <v>0.7574590472813721</v>
       </c>
       <c r="EU6">
-        <v>0.7549022174343087</v>
+        <v>0.7577116338927494</v>
       </c>
       <c r="EV6">
-        <v>0.7554226798670353</v>
+        <v>0.7579876135651035</v>
       </c>
       <c r="EW6">
-        <v>0.7635098023755517</v>
+        <v>0.7661021230830063</v>
       </c>
       <c r="EX6">
-        <v>0.7710931974523938</v>
+        <v>0.7736948062643682</v>
       </c>
       <c r="EY6">
-        <v>0.7775607838590741</v>
+        <v>0.7801315898182352</v>
       </c>
       <c r="EZ6">
-        <v>0.7777201590890956</v>
+        <v>0.7801315898182352</v>
       </c>
       <c r="FA6">
-        <v>0.7828523724118081</v>
+        <v>0.785185020390895</v>
       </c>
       <c r="FB6">
-        <v>0.787688155715881</v>
+        <v>0.7899313702271469</v>
       </c>
       <c r="FC6">
-        <v>0.7898322981507042</v>
+        <v>0.7918893686539547</v>
       </c>
       <c r="FD6">
-        <v>0.7978754881564581</v>
+        <v>0.799958367176168</v>
       </c>
       <c r="FE6">
-        <v>0.8178145224102199</v>
+        <v>0.8203506271165015</v>
       </c>
       <c r="FF6">
-        <v>0.8304522852048795</v>
+        <v>0.8331792812295106</v>
       </c>
       <c r="FG6">
-        <v>0.8361072215604606</v>
+        <v>0.8387742162510364</v>
       </c>
       <c r="FH6">
-        <v>0.8444708900863661</v>
+        <v>0.8471752080727907</v>
       </c>
       <c r="FI6">
-        <v>0.8486819678511577</v>
+        <v>0.8512744067267126</v>
       </c>
       <c r="FJ6">
-        <v>0.849408821456862</v>
+        <v>0.8517641931979766</v>
       </c>
       <c r="FK6">
-        <v>0.8518740466118748</v>
+        <v>0.8540548108332445</v>
       </c>
       <c r="FL6">
-        <v>0.8676230156021663</v>
+        <v>0.8701064566461381</v>
       </c>
       <c r="FM6">
-        <v>0.8931091662047295</v>
+        <v>0.8962451405861347</v>
       </c>
       <c r="FN6">
-        <v>0.9108033773173373</v>
+        <v>0.9143119209867946</v>
       </c>
       <c r="FO6">
-        <v>0.9188790028251307</v>
+        <v>0.922414520417235</v>
       </c>
       <c r="FP6">
-        <v>0.9200535199989841</v>
+        <v>0.9233680549893194</v>
       </c>
       <c r="FQ6">
-        <v>0.9208684950002295</v>
+        <v>0.9239491290540607</v>
       </c>
       <c r="FR6">
-        <v>0.9238481034875866</v>
+        <v>0.9267726117925905</v>
       </c>
       <c r="FS6">
-        <v>0.926462638851988</v>
+        <v>0.9292179043466224</v>
       </c>
       <c r="FT6">
-        <v>0.9335172622955811</v>
+        <v>0.9362628171527875</v>
       </c>
       <c r="FU6">
-        <v>0.9336201135220483</v>
+        <v>0.9362628171527875</v>
       </c>
       <c r="FV6">
-        <v>0.9443803091986469</v>
+        <v>0.9471464432422658</v>
       </c>
       <c r="FW6">
-        <v>0.9547635418515421</v>
+        <v>0.9576395620428783</v>
       </c>
       <c r="FX6">
-        <v>0.9623488857285067</v>
+        <v>0.9652342640446669</v>
       </c>
       <c r="FY6">
-        <v>0.9713156872923371</v>
+        <v>0.9742600594483526</v>
       </c>
       <c r="FZ6">
-        <v>0.9836556810682729</v>
+        <v>0.9867802457146544</v>
       </c>
       <c r="GA6">
-        <v>0.9851786570640373</v>
+        <v>0.9880947592190729</v>
       </c>
       <c r="GB6">
-        <v>0.9857059500571933</v>
+        <v>0.9883778148735977</v>
       </c>
       <c r="GC6">
-        <v>0.9857612120206681</v>
+        <v>0.9883778148735977</v>
       </c>
       <c r="GD6">
-        <v>0.9872791594161163</v>
+        <v>0.9896871191003077</v>
       </c>
       <c r="GE6">
-        <v>0.9874090896742863</v>
+        <v>0.9896871191003077</v>
       </c>
       <c r="GF6">
-        <v>0.9878659711830149</v>
+        <v>0.9898972333888102</v>
       </c>
       <c r="GG6">
-        <v>0.9884792318215766</v>
+        <v>0.9902693455025275</v>
       </c>
       <c r="GH6">
-        <v>0.9884893553162132</v>
+        <v>0.9902693455025275</v>
       </c>
       <c r="GI6">
-        <v>0.9889697696864215</v>
+        <v>0.9905038381872066</v>
       </c>
       <c r="GJ6">
-        <v>0.9891488384376813</v>
+        <v>0.9905038381872066</v>
       </c>
       <c r="GK6">
-        <v>0.9894097339540864</v>
+        <v>0.9905109247151449</v>
       </c>
       <c r="GL6">
-        <v>0.9917941374040171</v>
+        <v>0.9927178167249574</v>
       </c>
       <c r="GM6">
-        <v>0.9939481125394586</v>
+        <v>0.994686001140892</v>
       </c>
       <c r="GN6">
-        <v>0.9962417971836849</v>
+        <v>0.9967989148222289</v>
       </c>
       <c r="GO6">
-        <v>0.9963118925180925</v>
+        <v>0.9967989148222289</v>
       </c>
       <c r="GP6">
-        <v>0.9972954717799397</v>
+        <v>0.9975546510913743</v>
       </c>
       <c r="GQ6">
-        <v>0.9999100615443445</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GR6">
-        <v>0.999949541216827</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.01346169945484399</v>
+        <v>0.01588562398279856</v>
       </c>
       <c r="F2">
-        <v>0.5117566843776564</v>
+        <v>0.5121600298199274</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>104</v>
       </c>
       <c r="E3">
-        <v>0.007240865138925249</v>
+        <v>0.005634214870826348</v>
       </c>
       <c r="F3">
-        <v>0.5102851192138108</v>
+        <v>0.5103796248730929</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>104</v>
       </c>
       <c r="E4">
-        <v>0.005269976108616141</v>
+        <v>0.00547521606065217</v>
       </c>
       <c r="F4">
-        <v>0.5294883572113379</v>
+        <v>0.5294950633110043</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.01034909697080863</v>
+        <v>0.008807047708229158</v>
       </c>
       <c r="F5">
-        <v>0.5340276981817065</v>
+        <v>0.5341140326377867</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>105</v>
       </c>
       <c r="E6">
-        <v>0.01054872919713661</v>
+        <v>0.02831948746107114</v>
       </c>
       <c r="F6">
-        <v>0.5273345442925071</v>
+        <v>0.5318682567042565</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>0.01346169945484399</v>
+        <v>0.01588562398279856</v>
       </c>
       <c r="F2">
-        <v>0.7024013055911</v>
+        <v>0.7010747500756499</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>115</v>
       </c>
       <c r="E3">
-        <v>0.007240865138925249</v>
+        <v>0.005634214870826348</v>
       </c>
       <c r="F3">
-        <v>0.7023046741619299</v>
+        <v>0.7029855780967565</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>116</v>
       </c>
       <c r="E4">
-        <v>0.005269976108616141</v>
+        <v>0.00547521606065217</v>
       </c>
       <c r="F4">
-        <v>0.7017409043978573</v>
+        <v>0.7017775891034733</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>116</v>
       </c>
       <c r="E5">
-        <v>0.01034909697080863</v>
+        <v>0.008807047708229158</v>
       </c>
       <c r="F5">
-        <v>0.7092993273708775</v>
+        <v>0.7099277054435249</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>116</v>
       </c>
       <c r="E6">
-        <v>0.01054872919713661</v>
+        <v>0.02831948746107114</v>
       </c>
       <c r="F6">
-        <v>0.7077517961171015</v>
+        <v>0.7160491236941527</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>152</v>
       </c>
       <c r="E2">
-        <v>0.01346169945484399</v>
+        <v>0.01588562398279856</v>
       </c>
       <c r="F2">
-        <v>0.8089283614913357</v>
+        <v>0.8099084565854852</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>159</v>
       </c>
       <c r="E3">
-        <v>0.007240865138925249</v>
+        <v>0.005634214870826348</v>
       </c>
       <c r="F3">
-        <v>0.8054174692799241</v>
+        <v>0.8055412684630487</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>152</v>
       </c>
       <c r="E4">
-        <v>0.005269976108616141</v>
+        <v>0.00547521606065217</v>
       </c>
       <c r="F4">
-        <v>0.8002244730820962</v>
+        <v>0.8002374647526863</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>160</v>
       </c>
       <c r="E5">
-        <v>0.01034909697080863</v>
+        <v>0.008807047708229158</v>
       </c>
       <c r="F5">
-        <v>0.8136450143545099</v>
+        <v>0.8137510232200725</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6">
-        <v>0.01054872919713661</v>
+        <v>0.02831948746107114</v>
       </c>
       <c r="F6">
-        <v>0.8178145224102199</v>
+        <v>0.8203506271165015</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2">
-        <v>0.01346169945484399</v>
+        <v>0.01588562398279856</v>
       </c>
       <c r="F2">
-        <v>0.9056854089081023</v>
+        <v>0.9007559670089346</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="E3">
-        <v>0.007240865138925249</v>
+        <v>0.005634214870826348</v>
       </c>
       <c r="F3">
-        <v>0.9059261820275557</v>
+        <v>0.9062438563926878</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>167</v>
       </c>
       <c r="E4">
-        <v>0.005269976108616141</v>
+        <v>0.00547521606065217</v>
       </c>
       <c r="F4">
-        <v>0.9089534948206478</v>
+        <v>0.9089750042839498</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.01034909697080863</v>
+        <v>0.008807047708229158</v>
       </c>
       <c r="F5">
-        <v>0.9033041651793094</v>
+        <v>0.9035863485217482</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>169</v>
       </c>
       <c r="E6">
-        <v>0.01054872919713661</v>
+        <v>0.02831948746107114</v>
       </c>
       <c r="F6">
-        <v>0.9108033773173373</v>
+        <v>0.9143119209867946</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>36</v>

--- a/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
@@ -1994,10 +1994,10 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.91455359046516E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.674594512498182E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2009,43 +2009,43 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.63018705276586E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.261136383133289E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.990761202500743E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001286288853461511</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.809354076819694E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.874458884537447E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002276831930576167</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0006214385793367824</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0005735579829386904</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0004279412957491751</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0002822721385336335</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>9.281204692538374E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.292873135734842E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2063,40 +2063,40 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001077695922102179</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0001370952083383726</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001584290222679171</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002737187945556168</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0005172082966337342</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0004229371836572116</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0003136671331636178</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002615871103440971</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002686976046205291</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001832472939022642</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.965458957104519E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.512930012707146E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2114,34 +2114,34 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>9.482461752768124E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.953556951708545E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001269768954114096</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0002323990798066912</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003990108416540008</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0002460721179081189</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0002440023745384244</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.00028446121396561</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.000112407376965752</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>4.040939983148225E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -2171,46 +2171,46 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>3.389798412958725E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>2.710196946597238E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>7.91455359046516E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>7.437059123754435E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>7.107196276341428E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>3.965458957104519E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.710196946597238E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>3.389798412958725E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>4.683888850838575E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>4.812879776323743E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.817958534299733E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>8.34777134176183E-06</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>2.390928443052355E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -2231,25 +2231,25 @@
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.48168218304465E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>7.809354076819694E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>5.195521773926425E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>4.054766448186867E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>8.63526188131158E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0001193553023379032</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0001177408836580351</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -2264,160 +2264,160 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.007588433973154967</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.0465281693555428</v>
+        <v>0.05695737214508984</v>
       </c>
       <c r="CP2">
-        <v>0.03212765770493904</v>
+        <v>0.006328346644839397</v>
       </c>
       <c r="CQ2">
-        <v>0.03263944873743504</v>
+        <v>0.008127691130905156</v>
       </c>
       <c r="CR2">
-        <v>0.01857126785994206</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.00233454793554803</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0001832472939022642</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.034389835427184</v>
+        <v>0.01428166499661037</v>
       </c>
       <c r="CV2">
-        <v>0.003302087816763503</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.06903455914273954</v>
+        <v>0.1360848788685599</v>
       </c>
       <c r="CX2">
-        <v>0.08653948010295015</v>
+        <v>0.1976283233778537</v>
       </c>
       <c r="CY2">
-        <v>0.04527704251417185</v>
+        <v>0.05255868588360811</v>
       </c>
       <c r="CZ2">
-        <v>0.02746686397643118</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01582278512556921</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.08205741284401018</v>
+        <v>0.1818703626155918</v>
       </c>
       <c r="DC2">
-        <v>0.04786512325397305</v>
+        <v>0.06165780742534918</v>
       </c>
       <c r="DD2">
-        <v>0.1112499434184173</v>
+        <v>0.2845048669115924</v>
       </c>
       <c r="DE2">
-        <v>0.00673946043846593</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.004408718976783976</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.004352815138739574</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0005465938423087103</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0004472818770732654</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.0004229371836572116</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.0008543881636699646</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001663251165849803</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.01036420679678384</v>
+        <v>0</v>
       </c>
       <c r="DN2">
         <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003366690104708775</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.004818798024310513</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.008451722490412971</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.007272457084513034</v>
+        <v>0</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0004184882281570176</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001964915909783941</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.001364630838840097</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01176891564421706</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001554186079879356</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.003308786486707788</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.005402523161793979</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0005427623243177923</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.0002406976649332115</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.0008209250168995859</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001091952515677533</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.009154067792432956</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.008174610414577919</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001525636801215671</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.006352693406945398</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.007707166638616518</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0007333960944954641</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0007168718978154174</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0009603880555181146</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0004693358084104195</v>
+        <v>0</v>
       </c>
       <c r="EN2">
         <v>0</v>
@@ -2426,85 +2426,85 @@
         <v>0</v>
       </c>
       <c r="EP2">
-        <v>3.341535516119892E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.0001618706789451152</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001987533359268103</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.001395411193281103</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0003652569154656783</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0003150433640741902</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.001860450895421095</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01590517938413224</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01541400541305071</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01189459083297932</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.002693559873989077</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0007980543288466979</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.002522860497450514</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>1.195126313342343E-05</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.003145491698080042</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.01366596705342156</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01222951976934524</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.01174465497176213</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01672685472139048</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.006282087420986423</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001256217548769543</v>
+        <v>0</v>
       </c>
       <c r="FK2">
         <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.007040648421723173</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.01582278512556921</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.006503820359037337</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001331291949848177</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.0002699925105380871</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
         <v>0</v>
@@ -2513,85 +2513,85 @@
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>8.636908854313179E-06</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004664238983187612</v>
+        <v>0</v>
       </c>
       <c r="FU2">
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.007200856124156724</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.00436304157417719</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.00544238000978484</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.005813483567918789</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003955855624763305</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>5.86868676844548E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001574408982647471</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001574408982647471</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.004506958635905149</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.003724749839374436</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.002487372840790479</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.002065008793602604</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.000709314207294373</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.001364630838840097</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
         <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001714769910405598</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.001425027720585042</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0009272585601398133</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0001455134802598213</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001331725443277416</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.002061793598246931</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.004696517120214318</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0007901191825193425</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0008722776756302901</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2776,40 +2776,40 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.699671540688201E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.860997488740532E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001431380683004851</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.791794242472232E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.498637694469031E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0002241104336169548</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001479765474682267</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001746818238427108</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001500710147349161</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.981099751211533E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.086698763586117E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2821,31 +2821,31 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001027140182697813</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7.5030602556562E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.363883704230643E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>5.068171487117944E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>2.502929169218089E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>5.802334029562199E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.000119393047471392</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.789114732004881E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001501410231878287</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0001048190033798054</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2887,40 +2887,40 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.049901870563526E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.912071589238829E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>9.860997488740532E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>4.856711603042826E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>9.411674116455867E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0001090186667161272</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.181770781152988E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>5.797491401522157E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0001241411354697683</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>2.982541619796675E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>9.573397259134364E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>2.146284170282062E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.405074650734175E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>4.222677020462689E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -2947,40 +2947,40 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>6.901659617646191E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>2.502929169218089E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>6.194312050572805E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.00021142751182092</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002368660159295509</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0003106955400468951</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>5.068171487117944E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001048190033798054</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0001597226478716919</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0003224082184209672</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.000152248399173415</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>2.578841778828963E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -2995,163 +2995,163 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>2.461414930159485E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>7.524309513814888E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>5.72500678509135E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001142830532419024</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0002882440833539261</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0002608206401981649</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>5.72500678509135E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0001059688437484133</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>9.585914095444414E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>7.260297381226251E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>8.531346300627147E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0001465871875784831</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>2.651473765614802E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0009187569464136755</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1083926957380943</v>
+        <v>0.2172142910384735</v>
       </c>
       <c r="CO3">
-        <v>0.008280430264273355</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.04149522901111709</v>
+        <v>0.03158958476248672</v>
       </c>
       <c r="CQ3">
-        <v>0.02708744620521418</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.001273446651150404</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0007712422347339374</v>
+        <v>0</v>
       </c>
       <c r="CT3">
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.05197629605864433</v>
+        <v>0.06067207603373842</v>
       </c>
       <c r="CV3">
-        <v>0.05554987145992177</v>
+        <v>0.07058790568577092</v>
       </c>
       <c r="CW3">
-        <v>0.0003438935403814903</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.1509025034173679</v>
+        <v>0.3351689902278785</v>
       </c>
       <c r="CY3">
-        <v>0.000263506758755246</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.002799140292869894</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.05469095142332895</v>
+        <v>0.06820460498235566</v>
       </c>
       <c r="DB3">
-        <v>0.01342516050014571</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.1077498415370274</v>
+        <v>0.2154305221143326</v>
       </c>
       <c r="DD3">
-        <v>0.0123732084035591</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.03051859976113032</v>
+        <v>0.001132025154963649</v>
       </c>
       <c r="DF3">
-        <v>0.001974944006911093</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.002621331982333195</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.001799763549896766</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.001822355314820733</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0003292335553637065</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0002077030199340484</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.0197838115925416</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.007356566111310731</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.004366855280363876</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.000636777625071558</v>
+        <v>0</v>
       </c>
       <c r="DP3">
         <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.004019441974349803</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>5.301352777046813E-05</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.002047502258290937</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0003087628988912646</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.003752460936871829</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.005520426620332316</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01184260882384765</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.0001238825291269173</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001292517801580506</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0002354994597689093</v>
+        <v>0</v>
       </c>
       <c r="EA3">
         <v>0</v>
@@ -3163,34 +3163,34 @@
         <v>0</v>
       </c>
       <c r="ED3">
-        <v>1.774360672847721E-05</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.002571399048500755</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>9.187029256853732E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>2.27482859031592E-05</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.005441810010826123</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.002708824968506567</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>4.998894360847916E-05</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0004563068134082271</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>9.884990125921442E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>8.789121261707049E-05</v>
+        <v>0</v>
       </c>
       <c r="EN3">
         <v>0</v>
@@ -3202,115 +3202,115 @@
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>5.134324904328826E-06</v>
+        <v>0</v>
       </c>
       <c r="ER3">
         <v>0</v>
       </c>
       <c r="ES3">
-        <v>7.899759753617435E-05</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0002915249070928735</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0001155363040014246</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.003199272204117279</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.01087282047189758</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.007370611902497108</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.00449705703926436</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0008156050011110278</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.005521996159819052</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0007176922778665781</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.004238210102002753</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01172748314267834</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.01202069389329922</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.004553592205185079</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.006890921698234271</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.006015369003370893</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0002590368862976093</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
         <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.008206621524700291</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.02234358342642394</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.02148490046824819</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01230346716615052</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0066244016577292</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.0009773207401118618</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.00245349934893752</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0009270388690413787</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.005021886873685187</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002656977827369995</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.006360168218465623</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.01426553417344867</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.009256202837115955</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.01057175800556476</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.01693804784492503</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.00887430366254059</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0001525303416672369</v>
+        <v>0</v>
       </c>
       <c r="GB3">
         <v>0</v>
@@ -3319,52 +3319,52 @@
         <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001411059923379896</v>
+        <v>0</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0004839029923005119</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0003807744534687046</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>7.5030602556562E-05</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0008357588766171697</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>3.932955642222238E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.003039658757980037</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.003209756896656362</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002941238968202481</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.001218182064814185</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0001251128355175986</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0006835876133177236</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0004446819645511323</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>2.829393382459188E-05</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.0003845054248292638</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.01802413587599E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001149635240741297</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.321331620345699E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.832748623788382E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.83375547746973E-07</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3564,103 +3564,103 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.008372819153695E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.556230960623226E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.554166084631372E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.28228346466928E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0003207187282274027</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002710988712234766</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001438541809225343</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.000133208799583164</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>5.195139466133676E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3.338419071491184E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.380258330191591E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.907708083156369E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8.690178236326536E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001306107839489882</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2.352922065523958E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.920967149439479E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.87111920543227E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>5.224429381422692E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>6.399862174909688E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>9.458319867475514E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>8.596752861522596E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001500396209192969</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.000103834641413357</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.000173299988552697</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0003968720618576727</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004136608217697102</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.628698617936683E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.051992626513816E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.319465923720466E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.000103834641413357</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>6.796164872725207E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.790293857913116E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3669,106 +3669,106 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.929586685495332E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.010801983980839E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.052748376833122E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>7.169934790523803E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>7.84137415684895E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.864703607977278E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.417099291329119E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>2.988123389413643E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>4.871481358956096E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0001016371545648235</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>3.946869729764898E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>2.235539823913922E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001104996116529568</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>3.804281902190333E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>4.604334300464928E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>5.528923623597688E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1.268018600260015E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>2.790293857913116E-07</v>
+        <v>0</v>
       </c>
       <c r="BL4">
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>4.848726878724271E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0001616057823471926</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.41748823696872E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>7.616341576862978E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0002227777869727938</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>8.038094627122842E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001142364626005591</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>2.330462105285251E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001077954271827886</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001703384441822792</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>4.9606018645358E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>6.086588548209484E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>5.410947380653888E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>4.894134271601652E-07</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -3777,367 +3777,367 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>3.155098880800947E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.414262265832356E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>1.158866453985465E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.371324423912294E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>5.596896085261789E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>4.136019303745096E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>4.516361766680165E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.777470710027647E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001366241272034058</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0001809451750239791</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0003245952711160421</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1356620155584208</v>
+        <v>0.2770579327385373</v>
       </c>
       <c r="CO4">
-        <v>0.01188382877735323</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.04685129411765473</v>
+        <v>0.04417115313446342</v>
       </c>
       <c r="CQ4">
-        <v>0.040131594013147</v>
+        <v>0.02655020273730081</v>
       </c>
       <c r="CR4">
-        <v>0.00151733068408193</v>
+        <v>0</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001974843146778929</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.02316166689518084</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.07334789072719972</v>
+        <v>0.1136527084552455</v>
       </c>
       <c r="CW4">
-        <v>0.004623037709805427</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.1187688672939792</v>
+        <v>0.2327593296773752</v>
       </c>
       <c r="CY4">
-        <v>0.003972226946313061</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.00423604219986917</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.05756461390945208</v>
+        <v>0.07226450160303038</v>
       </c>
       <c r="DB4">
-        <v>0.003136946179835627</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.1190681645846359</v>
+        <v>0.2335441716540474</v>
       </c>
       <c r="DD4">
-        <v>0.009517708127026937</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01800928248153549</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0003848395637703836</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.001297077462193772</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.003138926017569561</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0008177046621186652</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0003387335311389148</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>2.798099417942667E-05</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01407380558612197</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.00247135660234269</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.006720659434466595</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004991216509027961</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002677369256420664</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.004227886684790059</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0002586158107611694</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>7.252694808562946E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.001538829423248136</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002765428473749115</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.006720659434466595</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.009263508085010877</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0001142364626005591</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.004215560036810172</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001182166651836954</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0001547836994349969</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0003410490200374015</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.0005414105192331498</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001788941855048606</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.006527560687871158</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0002091771629745824</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.002264397091093524</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.008348518569234308</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.00499530381916205</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>7.340078002279969E-06</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0003705703581820335</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0006136158705714774</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0001669435421097195</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>2.884100576291899E-05</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>5.3108120834011E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.0006002959128036326</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0009449331180102596</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0006671898815436045</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0001078965746549532</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0001088395907828992</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0005437355507234526</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.008232605086546618</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01609415532332084</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.01267781942922687</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.006652571941559429</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0001045282948131258</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.003611987803541343</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0004793352792842701</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.004431598013816518</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.01131911839916064</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.01830513383625857</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.009436651111531892</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.009961855759768578</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.00908583282751302</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001831079799927388</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0001994951232836723</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.005923017490883676</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01471751442069456</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.01206959023110285</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.005099918232965529</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.001617522996820412</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>6.665086211098278E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0008472232395134637</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0003823802258017626</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.005252110569173176</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.001384809490656073</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.005016003441284028</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.008472344200901646</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.005712869413603861</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.005846316258441319</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.008044958120682377</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.003840011435912258</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>7.506351302948726E-05</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001034162153067118</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002313318078280876</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.003201565230696406</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001151732385736476</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.002088467007593747</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0004189172094311633</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0003292555668759223</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.000840680802554522</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>1.520649055968505E-05</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.002157956181204477</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002829713033760489</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.00185565747534824</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>6.298896752190628E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.001358602772779057</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.003773359732972902</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.00281604472137777</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0007209249362560251</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0003286707380334531</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.490563849101272E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.021924670977327E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.050454792625714E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4334,25 +4334,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001354952764049899</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.659583800040763E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.674194464948222E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004499718192108788</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0004232343739066132</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>7.841622895904373E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4364,88 +4364,88 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1.090053555563581E-07</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.889891568656063E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>8.582939482412941E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0002296812522058547</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0002592132607299526</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0005282500796019437</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002986010395515907</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>3.439211895210287E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.844195496853422E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0002066529566398115</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>9.457478407251737E-07</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.85338419275448E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>7.535646598842104E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.000103675673396E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>3.56284683759493E-07</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>5.785610542018817E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001754760024078977</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0002184203090034423</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001200673979410572</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>8.805441349999288E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0003180003038737125</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000196946663844052</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>3.731279923048113E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>7.841622895904373E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001632409388692611</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4460,94 +4460,94 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>7.535646598842104E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.674807586085907E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>2.328356866050534E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>8.005333862603784E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>6.103818095107579E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0001519778960097567</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.000319676473190342</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0001744700657366953</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>9.681491123785814E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0001458830033660694</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0001519778960097567</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>9.175794238585641E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0001458830033660694</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>3.803519780612852E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.493295278221254E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>9.48391399419888E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>6.453363783760238E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0001731934541323334</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>2.10500579265563E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001434987372529131</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001072678581694707</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0001718949518447011</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0003326744255340215</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0001591430511828292</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0001529259464409387</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0001181240095861948</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0001945454899658915</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1.731966950384477E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
@@ -4562,40 +4562,40 @@
         <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0001056548192124884</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>5.953791065848568E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>8.242176789976887E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0001183786608204942</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0002682289773127665</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001541361224838196</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0002526395257148099</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0009944452820947886</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1097807969593972</v>
+        <v>0.2191139243336143</v>
       </c>
       <c r="CP5">
-        <v>0.02316297587411035</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.0494549030774467</v>
+        <v>0.05319864795233169</v>
       </c>
       <c r="CR5">
-        <v>0.0327135846219098</v>
+        <v>0.007154730493388876</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -4604,103 +4604,103 @@
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0002762146061447168</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.03581970882482084</v>
+        <v>0.01569755385559305</v>
       </c>
       <c r="CW5">
-        <v>0.07608203400549041</v>
+        <v>0.1264316744833947</v>
       </c>
       <c r="CX5">
-        <v>0.01253802784645708</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.1114878583600361</v>
+        <v>0.2238088827645835</v>
       </c>
       <c r="CZ5">
-        <v>0.004039582784833714</v>
+        <v>0</v>
       </c>
       <c r="DA5">
         <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.06895685268681578</v>
+        <v>0.106835173682793</v>
       </c>
       <c r="DC5">
-        <v>0.00119704169721433</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.1201961409412708</v>
+        <v>0.2477594124343007</v>
       </c>
       <c r="DE5">
-        <v>0.0001689630871249804</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.02698871786279762</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.004560022778992048</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>1.962079723312188E-05</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0006659510467867237</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.003200284142963966</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>3.314206449378285E-05</v>
+        <v>0</v>
       </c>
       <c r="DL5">
         <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01878378838686083</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.004204091520766033</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.006086184455540414</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0001529259464409387</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0002484572498964499</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004470201960146878</v>
+        <v>0</v>
       </c>
       <c r="DS5">
         <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001729505493241501</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0002028320930888462</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.002429398055489829</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.002939229456844174</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.006381120976629366</v>
+        <v>0</v>
       </c>
       <c r="DY5">
         <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.005129955407905635</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0007694671753776905</v>
+        <v>0</v>
       </c>
       <c r="EB5">
         <v>0</v>
@@ -4715,31 +4715,31 @@
         <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001933768373042501</v>
+        <v>0</v>
       </c>
       <c r="EG5">
         <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0001489172087881652</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.00244186660290634</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.00111469947517511</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0002786214762217824</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001324985356968359</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.0005646423007566678</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0003611265974942427</v>
+        <v>0</v>
       </c>
       <c r="EO5">
         <v>0</v>
@@ -4748,166 +4748,166 @@
         <v>0</v>
       </c>
       <c r="EQ5">
-        <v>2.264939285368576E-05</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0006230863664213769</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>7.747570313629192E-05</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>1.242793261415839E-05</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0003771081223808613</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>2.167384595618376E-05</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.005106979332519326</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.009323747192412054</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.008650953769029157</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.003037783342261228</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0020390672812901</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.006845936433165186</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.001613831867869828</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.007183835354067017</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.01597476465785033</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0143723616193529</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.006026813386246474</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.008682966005027862</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.006438202816920631</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0001833737068433437</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0001354952764049899</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0105568396362145</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.02355386371044286</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.01988540914422228</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.01256383554551783</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.005911139057640368</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001215624968485532</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.003216093958094523</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001033846201354113</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0068365539798257</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001359892407278385</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.006057288552699343</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.01141619814074007</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.007729176176254055</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.007026428482208824</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.01601262880895</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.005864984073964936</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>5.45091917382675E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
         <v>0</v>
       </c>
       <c r="GD5">
-        <v>3.422707987694621E-05</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0006449675359345371</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>5.513157430365013E-05</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0003611265974942427</v>
+        <v>0</v>
       </c>
       <c r="GH5">
         <v>0</v>
       </c>
       <c r="GI5">
-        <v>9.404066144692577E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>4.294485310916099E-05</v>
+        <v>0</v>
       </c>
       <c r="GK5">
         <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001957353750833744</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002311116535455391</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.00224374105092394</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0001945454899658915</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0005315066979827012</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001357254574921196</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0002874955312512251</v>
+        <v>0</v>
       </c>
       <c r="GS5">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8.157617425283296E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.426718047856236E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5164,13 +5164,13 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.682081013848106E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.573274175852181E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -5200,19 +5200,19 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.779958615185274E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>4.812784815866676E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0001136516133668028</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0001803879346656363</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.151228683543548E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5248,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>2.046305722127073E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0001281288182980161</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>6.284437364355206E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>5.738297128640929E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -5353,127 +5353,127 @@
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0006026755365416183</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02699153508510103</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02038898329367407</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.05498501107951284</v>
+        <v>0.08640181143251859</v>
       </c>
       <c r="CQ6">
-        <v>0.06466719635880605</v>
+        <v>0.121012821989001</v>
       </c>
       <c r="CR6">
-        <v>0.02302164819868777</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.001667501894121334</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.001317962426240593</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02745193346475818</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0006284004759978034</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.04136706348465959</v>
+        <v>0.03772158952320424</v>
       </c>
       <c r="CX6">
-        <v>0.1206282387018506</v>
+        <v>0.3210573544386282</v>
       </c>
       <c r="CY6">
-        <v>0.04269195582693785</v>
+        <v>0.04245769625138937</v>
       </c>
       <c r="CZ6">
-        <v>0.0111323860375103</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.01463978300155207</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.07896070499887639</v>
+        <v>0.172107979142073</v>
       </c>
       <c r="DC6">
-        <v>0.02819018899490393</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.09214576333580549</v>
+        <v>0.2192407472231856</v>
       </c>
       <c r="DE6">
-        <v>0.01285336415182275</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.005294909797311483</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.001768945859486222</v>
+        <v>0</v>
       </c>
       <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003740066577630908</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.002795880901059913</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.001276780996484841</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.00698762121426588</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.02912734516112495</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.006216636407413507</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0003830961833331038</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0005766669594454222</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.00165798055769655</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.00123119013059064</v>
+        <v>0</v>
       </c>
       <c r="DT6">
         <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.00218429982633576</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001397399612184095</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01018250865061968</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.001305864628258206</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001632437423959218</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003777216064148212</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0004957517085465966</v>
+        <v>0</v>
       </c>
       <c r="EB6">
         <v>0</v>
@@ -5485,31 +5485,31 @@
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.001597647682438924</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001074496909364863</v>
+        <v>0</v>
       </c>
       <c r="EG6">
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.00100557876405029</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.002003217186638102</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
         <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0006000920306598666</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.002608001110116203</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0008981766471641321</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <v>0</v>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0001178750482698094</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0004637900559862377</v>
+        <v>0</v>
       </c>
       <c r="ES6">
         <v>0</v>
@@ -5533,151 +5533,151 @@
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.0002525866113772328</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0002759796723539986</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.008114509517902867</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.007592683181361873</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.006436783553867054</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
         <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.005053430572659848</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.004746349836251929</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.001957998426807787</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.008068998522213358</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.02039225994033351</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.01282865411300907</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.005594935021525876</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.008400991821754246</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004099198653921944</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0004897864712639762</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.002290617635267939</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01605164581289348</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.02613868393999667</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.01806678040065995</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.008102599430440456</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0009535345720843247</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0005810740647413215</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002823482738529875</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.002445292554031943</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.007044912806165053</v>
+        <v>0</v>
       </c>
       <c r="FU6">
         <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.01088362608947837</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0104931188006124</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.007594702001788657</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.009025795403685621</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.01252018626630176</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001314513504418501</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.000283055654524759</v>
+        <v>0</v>
       </c>
       <c r="GC6">
         <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001309304226710101</v>
+        <v>0</v>
       </c>
       <c r="GE6">
         <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0002101142885025227</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.00037211211371732</v>
+        <v>0</v>
       </c>
       <c r="GH6">
         <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0002344926846789707</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>7.086527938383799E-06</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002206892009812553</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.001968184415934657</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002112913681336884</v>
+        <v>0</v>
       </c>
       <c r="GO6">
         <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.000755736269145413</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.002445348908625137</v>
+        <v>0</v>
       </c>
       <c r="GR6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.91455359046516E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.589148102963342E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.589148102963342E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.589148102963342E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9.589148102963342E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000112193351557292</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001248047153886249</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002247123274136324</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0003533412127597835</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004314347535279804</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0004701793423733549</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0006978625354309715</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001319301114767754</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001892859097706444</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.00232080039345562</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002603072531989253</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.002695884578914637</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.002738813310271985</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002738813310271985</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002738813310271985</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.002738813310271985</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.002738813310271985</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.002738813310271985</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.002846582902482203</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.002983678110820575</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003142107133088492</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.003415825927644109</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003933034224277843</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.004355971407935055</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.004669638541098673</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.00493122565144277</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.005199923256063299</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.005383170549965564</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.005422825139536609</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.00546795443966368</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.00546795443966368</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.00546795443966368</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.00546795443966368</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.00546795443966368</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.00546795443966368</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.005562779057191361</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.005642314626708447</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.005769291522119857</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.006001690601926548</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.006400701443580549</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.006646773561488668</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.006890775936027093</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.007175237149992702</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.007287644526958455</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.007328053926789937</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.007361951910919524</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.007389053880385497</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.007389053880385497</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.007468199416290148</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.007542570007527692</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.007613641970291106</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.007653296559862151</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.007680398529328124</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.007714296513457711</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.007761135401966096</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.007809264199729334</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.007814082158263633</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.007822429929605395</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.007824820858048448</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.007839637679878894</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.007917731220647092</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.007969686438386355</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.007973741204834541</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.008060093823647656</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.008179449125985559</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.008297190009643594</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.008297190009643594</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.008297190009643594</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.008297190009643594</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.008297190009643594</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01588562398279856</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.06241379333834136</v>
+        <v>0.05695737214508984</v>
       </c>
       <c r="CP2">
-        <v>0.09454145104328041</v>
+        <v>0.06328571878992924</v>
       </c>
       <c r="CQ2">
-        <v>0.1271808997807155</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="CR2">
-        <v>0.1457521676406575</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="CS2">
-        <v>0.1480867155762055</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="CT2">
-        <v>0.1482699628701078</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="CU2">
-        <v>0.1826597982972918</v>
+        <v>0.08569507491744477</v>
       </c>
       <c r="CV2">
-        <v>0.1859618861140553</v>
+        <v>0.08569507491744477</v>
       </c>
       <c r="CW2">
-        <v>0.2549964452567948</v>
+        <v>0.2217799537860047</v>
       </c>
       <c r="CX2">
-        <v>0.341535925359745</v>
+        <v>0.4194082771638584</v>
       </c>
       <c r="CY2">
-        <v>0.3868129678739168</v>
+        <v>0.4719669630474665</v>
       </c>
       <c r="CZ2">
-        <v>0.414279831850348</v>
+        <v>0.4719669630474665</v>
       </c>
       <c r="DA2">
-        <v>0.4301026169759172</v>
+        <v>0.4719669630474665</v>
       </c>
       <c r="DB2">
-        <v>0.5121600298199274</v>
+        <v>0.6538373256630583</v>
       </c>
       <c r="DC2">
-        <v>0.5600251530739004</v>
+        <v>0.7154951330884075</v>
       </c>
       <c r="DD2">
-        <v>0.6712750964923178</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE2">
-        <v>0.6780145569307837</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF2">
-        <v>0.6824232759075677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.6867760910463072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.6873226848886159</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.6877699667656891</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.6881929039493463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.6890472921130163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.6907105432788661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.7010747500756499</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7010747500756499</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7044414401803587</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7092602382046692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7177119606950821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.7249844177795952</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7249844177795952</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7254029060077523</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7273678219175362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7287324527563763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7405013684005933</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.7420555544804727</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.7453643409671804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.7507668641289744</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.7513096264532922</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.7515503241182254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.752371249135125</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.7534632016508025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.7626172694432355</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.7707918798578134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.770944443537935</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.7772971369448805</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.7850043035834969</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.7857376996779923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.7864545715758078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.7874149596313259</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.7878842954397364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.7878842954397364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7878842954397364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.7879177107948976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.7880795814738427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.7900671148331109</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.791462526026392</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.7918277829418576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.7921428263059318</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.7940032772013529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8099084565854852</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8253224619985359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8372170528315152</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.8399106127055043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.840708667034351</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8432315275318015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.843243478794935</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8463889704930151</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8600549375464367</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.872284457315782</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8840291122875441</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.9007559670089346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.907038054429921</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.9082942719786906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.9082942719786906</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9153349204004138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.931157705525983</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9376615258850203</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9389928178348684</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9392628103454065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9392628103454065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9392628103454065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9392714472542608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9439356862374484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9439356862374484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9511365423616052</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9554995839357824</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9609419639455672</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.966755447513486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9707113031382493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9707699900059338</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9723443989885813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9739188079712288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9784257666071339</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9821505164465083</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9846378892872988</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9867028980809014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9874122122881958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9887768431270358</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9887768431270358</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9889483201180764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9903733478386615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9913006063988014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9914461198790612</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9915792924233889</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9936410860216359</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9983376031418503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9991277223243696</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
         <v>0.9999999999999999</v>
@@ -7427,592 +7427,592 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.699671540688201E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.556066902942873E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001586987373299138</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002366166797546361</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002366166797546361</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003316030566993264</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0005557134903162812</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0007036900377845078</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0008783718616272185</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001028442876362135</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.00110825387387425</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001159120861510111</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001159120861510111</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001159120861510111</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001159120861510111</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001261834879779892</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001336865482336454</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001350504319378761</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001350504319378761</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.00140118603424994</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001426215325942121</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001484238666237743</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001603631713709135</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00161242082844114</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.00161242082844114</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.00161242082844114</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.001762561851628969</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.001867380855008774</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.001877879873714409</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.001897000589606798</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.001906861587095538</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001955428703125966</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.002049545444290525</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.002158564111006652</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.002230381818818182</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.002288356732833404</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.002412497868303172</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.002442323284501139</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.002443280624227052</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.002464743465929873</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.002464743465929873</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.002464743465929873</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.002488794212437215</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.002493016889457677</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.002493016889457677</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.002493016889457677</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.002493016889457677</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.002493016889457677</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.002562033485634139</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.00258706277732632</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.002649005897832048</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.002860433409652968</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.003097299425582519</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.003407994965629414</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.003458676680500593</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.003563495683880399</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.003723218331752091</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.004045626550173058</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.004197874949346473</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.004223663367134763</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.004223663367134763</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.004223663367134763</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.004223663367134763</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.004223663367134763</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.004248277516436357</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.004323520611574506</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00438077067942542</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.004495053732667321</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.004783297816021248</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.005044118456219412</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.005101368524070326</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.005207337367818738</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.005303196508773183</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.005375799482585445</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.005461112945591717</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0056077001331702</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.005634214870826348</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.006552971817240023</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1149456675553344</v>
+        <v>0.2172142910384735</v>
       </c>
       <c r="CO3">
-        <v>0.1232260978196077</v>
+        <v>0.2172142910384735</v>
       </c>
       <c r="CP3">
-        <v>0.1647213268307248</v>
+        <v>0.2488038758009603</v>
       </c>
       <c r="CQ3">
-        <v>0.191808773035939</v>
+        <v>0.2488038758009603</v>
       </c>
       <c r="CR3">
-        <v>0.1930822196870894</v>
+        <v>0.2488038758009603</v>
       </c>
       <c r="CS3">
-        <v>0.1938534619218233</v>
+        <v>0.2488038758009603</v>
       </c>
       <c r="CT3">
-        <v>0.1938534619218233</v>
+        <v>0.2488038758009603</v>
       </c>
       <c r="CU3">
-        <v>0.2458297579804676</v>
+        <v>0.3094759518346987</v>
       </c>
       <c r="CV3">
-        <v>0.3013796294403894</v>
+        <v>0.3800638575204696</v>
       </c>
       <c r="CW3">
-        <v>0.3017235229807709</v>
+        <v>0.3800638575204696</v>
       </c>
       <c r="CX3">
-        <v>0.4526260263981388</v>
+        <v>0.7152328477483481</v>
       </c>
       <c r="CY3">
-        <v>0.452889533156894</v>
+        <v>0.7152328477483481</v>
       </c>
       <c r="CZ3">
-        <v>0.4556886734497639</v>
+        <v>0.7152328477483481</v>
       </c>
       <c r="DA3">
-        <v>0.5103796248730929</v>
+        <v>0.7834374527307038</v>
       </c>
       <c r="DB3">
-        <v>0.5238047853732386</v>
+        <v>0.7834374527307038</v>
       </c>
       <c r="DC3">
-        <v>0.631554626910266</v>
+        <v>0.9988679748450363</v>
       </c>
       <c r="DD3">
-        <v>0.643927835313825</v>
+        <v>0.9988679748450363</v>
       </c>
       <c r="DE3">
-        <v>0.6744464350749554</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.6764213790818665</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.6790427110641997</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.6808424746140964</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.6826648299289172</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.6829940634842809</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6832017665042149</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.7029855780967565</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.7103421442080673</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.7147089994884311</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7153457771135027</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7153457771135027</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7193652190878524</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7194182326156229</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7214657348739139</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7217744977728051</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.725526958709677</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7310473853300093</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.742889994153857</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7430138766829839</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7443063944845644</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7445418939443332</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7445418939443332</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7445418939443332</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7445418939443332</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7445596375510617</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7471310365995625</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.747222906892131</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.7472456551780342</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7526874651888603</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7553962901573669</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.7554462791009754</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7559025859143836</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.7560014358156428</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7560893270282599</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7560893270282599</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7560893270282599</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7560893270282599</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7560944613531643</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7560944613531643</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7561734589507004</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7564649838577933</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7565805201617947</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.759779792365912</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.7706526128378095</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.7780232247403066</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.782520281779571</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.783335886780682</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.7888578829405011</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.7895755752183676</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.7938137853203704</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8055412684630487</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8175619623563479</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.822115554561533</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8290064762597672</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8350218452631381</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8352808821494356</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8352808821494356</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8434875036741359</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8658310871005599</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8873159875688081</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8996194547349586</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9062438563926878</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9072211771327996</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9096746764817372</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9106017153507785</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9156236022244637</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9182805800518337</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9246407482702993</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.938906282443748</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9481624852808639</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9587342432864286</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9756722911313537</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9845465947938943</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9846991251355616</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9846991251355616</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9846991251355616</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9861101850589414</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9861101850589414</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9865940880512419</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9869748625047107</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9870498931072672</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9878856519838843</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9879249815403066</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9909646402982867</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.994174397194943</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9971156361631456</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9983338182279597</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9984589310634774</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9991425186767952</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9995872006413463</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.999615494575171</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.01802413587599E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001229815482100056</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001361948644134626</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001361948644134626</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001545223506513464</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001551057261990934</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001551057261990934</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001551057261990934</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001651894543906304</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002607517639968626</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003262934248431763</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0003391162594898691</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0006598349877172719</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0009309338589407485</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001074788039863283</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001207996839446447</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001259948234107784</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001293332424822696</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001317135008124612</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001336212088956175</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001423113871319441</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001553724655268429</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001556077577333953</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001558998544483392</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001560869663688824</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001566094093070247</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001630092714819344</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001724675913494099</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001810643442109325</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001960683063028622</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002064517704441979</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002237817692994676</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002634689754852349</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.003048350576622059</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.003094637562801426</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.003095689555427939</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.003128884214665144</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.003232718856078501</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.003232718856078501</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.003233398472565774</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003233677501951565</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003233677501951565</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003233677501951565</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.00323560708863706</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003255715108476868</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003276242592245199</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.003283412527035723</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003291253901192572</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.003319900937272345</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003321318036563674</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.003324306159953088</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.003373020973542648</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003474658128107472</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003514126825405121</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.00353648222364426</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003646981835297216</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.00368502465431912</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.003731067997323769</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.003786357233559746</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.003787625252160006</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.003787625252160006</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.003787904281545797</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.003787904281545797</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.00383639155033304</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.003997997332680233</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.00401217221504992</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.00408833563081855</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.004311113417791344</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.004391494364062573</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.004505730826663132</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.004529035447715984</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.004636830874898772</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.004807169319081052</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.004856775337726409</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.004862861926274618</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.004916971400081157</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.004917460813508317</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004917460813508317</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.004917460813508317</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.004949011802316327</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.004973154424974651</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.004974313291428636</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.005038026535667759</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.005093995496520376</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.005135355689557828</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.005139872051324508</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.005157646758424785</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.005294270885628191</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.00547521606065217</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.005799811331768212</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.141461826890189</v>
+        <v>0.2770579327385373</v>
       </c>
       <c r="CO4">
-        <v>0.1533456556675422</v>
+        <v>0.2770579327385373</v>
       </c>
       <c r="CP4">
-        <v>0.2001969497851969</v>
+        <v>0.3212290858730007</v>
       </c>
       <c r="CQ4">
-        <v>0.2403285437983439</v>
+        <v>0.3477792886103015</v>
       </c>
       <c r="CR4">
-        <v>0.2418458744824259</v>
+        <v>0.3477792886103015</v>
       </c>
       <c r="CS4">
-        <v>0.2418458744824259</v>
+        <v>0.3477792886103015</v>
       </c>
       <c r="CT4">
-        <v>0.2438207176292048</v>
+        <v>0.3477792886103015</v>
       </c>
       <c r="CU4">
-        <v>0.2669823845243856</v>
+        <v>0.3477792886103015</v>
       </c>
       <c r="CV4">
-        <v>0.3403302752515853</v>
+        <v>0.4614319970655471</v>
       </c>
       <c r="CW4">
-        <v>0.3449533129613908</v>
+        <v>0.4614319970655471</v>
       </c>
       <c r="CX4">
-        <v>0.46372218025537</v>
+        <v>0.6941913267429223</v>
       </c>
       <c r="CY4">
-        <v>0.467694407201683</v>
+        <v>0.6941913267429223</v>
       </c>
       <c r="CZ4">
-        <v>0.4719304494015522</v>
+        <v>0.6941913267429223</v>
       </c>
       <c r="DA4">
-        <v>0.5294950633110043</v>
+        <v>0.7664558283459526</v>
       </c>
       <c r="DB4">
-        <v>0.5326320094908399</v>
+        <v>0.7664558283459526</v>
       </c>
       <c r="DC4">
-        <v>0.6517001740754758</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.6612178822025027</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.6792271646840381</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.6796120042478084</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.6809090817100022</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.6840480077275718</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.6848657123896904</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.6852044459208293</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.6852324269150087</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.6993062325011307</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7017775891034733</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.70849824853794</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.713489465046968</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7161668343033887</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7203947209881787</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7206533367989398</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7207258637470255</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7222646931702736</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7250301216440228</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7317507810784895</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7410142891635003</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7411285256261009</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.745344085662911</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.7465262523147479</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7466810360141829</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7470220850342203</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7475634955534535</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7493524374085021</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7558799980963733</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7560891752593478</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7583535723504413</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7667020909196757</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7716973947388377</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.77170473481684</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.772075305175022</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7726889210455935</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7728558645877032</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7728847055934661</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7729378137143001</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7735381096271038</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.774483042745114</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7751502326266576</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7752581292013125</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7753669687920954</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7759107043428188</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7841433094293655</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8002374647526863</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8129152841819132</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8195678561234726</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8196723844182857</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.823284372221827</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8237637075011113</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8281953055149278</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8395144239140885</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.857819557750347</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8672562088618789</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8772180646216475</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8863038974491606</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.888134977249088</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8883344723723716</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8942574898632553</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9089750042839498</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9210445945150527</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9261445127480182</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9277620357448386</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9278286866069496</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9286759098464631</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9290582900722648</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.934310400641438</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9356952101320941</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9407112135733782</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9491835577742798</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9548964271878836</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9607427434463249</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9687877015670073</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9726277130029196</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9727027765159491</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9737369386690161</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.976050256747297</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9792518219779933</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9804035543637298</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9824920213713236</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9829109385807548</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9832401941476308</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9840808749501853</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9840960814407449</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9862540376219494</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9890837506557099</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9909394081310581</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.99100239709858</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9923609998713591</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9961343596043319</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9989504043257097</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9996713292619657</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,769 +8967,769 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.490563849101272E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6.512488520078598E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.71753399934117E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.71753399934117E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6.71753399934117E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.71753399934117E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002026706163984016</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002292664543988092</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002292664543988092</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002960083990482914</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0007459802182591703</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001169214592165783</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001247630821124827</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001247630821124827</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001247630821124827</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001247630821124827</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001247739826480384</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001306638742166944</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001392468136991074</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001622149389196928</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001881362649926881</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002409612729528825</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002708213769080415</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002742605888032518</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002742605888032518</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002771047843001052</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002977700799640864</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002978646547481589</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002997180389409134</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003072536855397555</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003072536855397555</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003102537892154289</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003102537892154289</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003102894176838048</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003160750282258236</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003336226284666134</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003554646593669576</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003674713991610633</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003762768405110626</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.004080768708984338</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.00427771537282839</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.004315028172058872</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004393444401017916</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004556685339887177</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004556685339887177</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004556685339887177</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.004556685339887177</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.004556685339887177</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004632041805875598</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004668789881736457</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004668789881736457</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.004692073450396963</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.004772126789023</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.004833164969974076</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.004985142865983833</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005304819339174175</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.00547928940491087</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005576104316148728</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005721987319514797</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005873965215524554</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.00596572315791041</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.006111606161276479</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.006149641359082608</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.006149641359082608</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.006174574311864821</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.00618405822585902</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.006248591863696622</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.006421785317828956</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.006442835375755513</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.006586334113008426</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.006693601971177896</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.006865496923022597</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007198171348556619</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007357314399739448</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007510240346180387</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007628364355766581</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007822909845732473</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.007840229515236318</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.007840229515236318</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.007840229515236318</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.007840229515236318</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.007840229515236318</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.007945884334448806</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.008005422245107292</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.008013664421897269</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.008132043082717763</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.008400272060030529</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.008554408182514349</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008807047708229158</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.009801492990323946</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1195822899497212</v>
+        <v>0.2191139243336143</v>
       </c>
       <c r="CP5">
-        <v>0.1427452658238315</v>
+        <v>0.2191139243336143</v>
       </c>
       <c r="CQ5">
-        <v>0.1922001689012782</v>
+        <v>0.272312572285946</v>
       </c>
       <c r="CR5">
-        <v>0.224913753523188</v>
+        <v>0.2794673027793349</v>
       </c>
       <c r="CS5">
-        <v>0.224913753523188</v>
+        <v>0.2794673027793349</v>
       </c>
       <c r="CT5">
-        <v>0.224913753523188</v>
+        <v>0.2794673027793349</v>
       </c>
       <c r="CU5">
-        <v>0.2251899681293327</v>
+        <v>0.2794673027793349</v>
       </c>
       <c r="CV5">
-        <v>0.2610096769541536</v>
+        <v>0.295164856634928</v>
       </c>
       <c r="CW5">
-        <v>0.337091710959644</v>
+        <v>0.4215965311183226</v>
       </c>
       <c r="CX5">
-        <v>0.349629738806101</v>
+        <v>0.4215965311183226</v>
       </c>
       <c r="CY5">
-        <v>0.4611175971661371</v>
+        <v>0.6454054138829062</v>
       </c>
       <c r="CZ5">
-        <v>0.4651571799509709</v>
+        <v>0.6454054138829062</v>
       </c>
       <c r="DA5">
-        <v>0.4651571799509709</v>
+        <v>0.6454054138829062</v>
       </c>
       <c r="DB5">
-        <v>0.5341140326377867</v>
+        <v>0.7522405875656992</v>
       </c>
       <c r="DC5">
-        <v>0.535311074335001</v>
+        <v>0.7522405875656992</v>
       </c>
       <c r="DD5">
-        <v>0.6555072152762719</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.6556761783633969</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.6826648962261945</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.6872249190051866</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.6872445398024197</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.6879104908492064</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.6911107749921703</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6911439170566641</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.6911439170566641</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7099277054435249</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.714131796964291</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7202179814198314</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7203709073662723</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7206193646161687</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7250895665763156</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7250895665763156</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7268190720695571</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7270219041626459</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7294513022181357</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7323905316749799</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7387716526516093</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7387716526516093</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7439016080595149</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7446710752348926</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7446710752348926</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7446710752348926</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7446710752348926</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.7446710752348926</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7466048436079351</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7466048436079351</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7467537608167233</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7491956274196296</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.7503103268948047</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.7505889483710265</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.7519139337279949</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.7524785760287516</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.7528397026262458</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.7528397026262458</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7528397026262458</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.7528623520190995</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7534854383855208</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.7535629140886572</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.7535753420212713</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.7539524501436522</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.7539741239896084</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.7590811033221277</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.7684048505145398</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.7770558042835689</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.7800935876258301</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.7821326549071203</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.7889785913402855</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.7905924232081553</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.7977762585622222</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8137510232200725</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8281233848394254</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8341501982256718</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8428331642306996</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8492713670476203</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8494547407544636</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8495902360308686</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.860147075667083</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8837009393775259</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9035863485217482</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9161501840672661</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9220613231249065</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.923276948093392</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9264930420514865</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9275268882528407</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9343634422326664</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9357233346399448</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9417806231926442</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9531968213333842</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9609259975096383</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9679524259918471</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9839650548007971</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9898300388747621</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9898845480665003</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9898845480665003</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9899187751463773</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9905637426823118</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9906188742566155</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9909800008541098</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9909800008541098</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9910740415155567</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9911169863686659</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9911169863686659</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9930743401194996</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9953854566549549</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9976291977058789</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9978237431958448</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9983552498938275</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9997125044687487</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9749,760 +9749,760 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8.157617425283296E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.157617425283296E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.157617425283296E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.242479790384565E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.924560804232672E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>3.924560804232672E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>5.497834980084853E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>8.277793595270126E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.000130905784111368</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002445573974781708</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0004249453321438071</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0004564576189792425</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0004769206762005133</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0006050494944985293</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0006678938681420814</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0007252768394284907</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001327952375970109</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.02831948746107114</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.04870847075474521</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.1036934818342581</v>
+        <v>0.08640181143251859</v>
       </c>
       <c r="CQ6">
-        <v>0.1683606781930641</v>
+        <v>0.2074146334215196</v>
       </c>
       <c r="CR6">
-        <v>0.1913823263917519</v>
+        <v>0.2074146334215196</v>
       </c>
       <c r="CS6">
-        <v>0.1930498282858732</v>
+        <v>0.2074146334215196</v>
       </c>
       <c r="CT6">
-        <v>0.1943677907121138</v>
+        <v>0.2074146334215196</v>
       </c>
       <c r="CU6">
-        <v>0.221819724176872</v>
+        <v>0.2074146334215196</v>
       </c>
       <c r="CV6">
-        <v>0.2224481246528698</v>
+        <v>0.2074146334215196</v>
       </c>
       <c r="CW6">
-        <v>0.2638151881375294</v>
+        <v>0.2451362229447238</v>
       </c>
       <c r="CX6">
-        <v>0.3844434268393799</v>
+        <v>0.566193577383352</v>
       </c>
       <c r="CY6">
-        <v>0.4271353826663178</v>
+        <v>0.6086512736347414</v>
       </c>
       <c r="CZ6">
-        <v>0.4382677687038281</v>
+        <v>0.6086512736347414</v>
       </c>
       <c r="DA6">
-        <v>0.4529075517053802</v>
+        <v>0.6086512736347414</v>
       </c>
       <c r="DB6">
-        <v>0.5318682567042565</v>
+        <v>0.7807592527768143</v>
       </c>
       <c r="DC6">
-        <v>0.5600584456991604</v>
+        <v>0.7807592527768143</v>
       </c>
       <c r="DD6">
-        <v>0.6522042090349659</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE6">
-        <v>0.6650575731867886</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF6">
-        <v>0.6703524829841001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG6">
-        <v>0.6721214288435863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH6">
-        <v>0.6721214288435863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI6">
-        <v>0.6758614954212172</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ6">
-        <v>0.6786573763222771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK6">
-        <v>0.6799341573187619</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL6">
-        <v>0.6869217785330278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM6">
-        <v>0.7160491236941527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN6">
-        <v>0.7160491236941527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO6">
-        <v>0.7222657601015663</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP6">
-        <v>0.7226488562848994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ6">
-        <v>0.7232255232443449</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR6">
-        <v>0.7248835038020414</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS6">
-        <v>0.7261146939326319</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT6">
-        <v>0.7261146939326319</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU6">
-        <v>0.7282989937589677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV6">
-        <v>0.7296963933711518</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW6">
-        <v>0.7398789020217714</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX6">
-        <v>0.7411847666500296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY6">
-        <v>0.7428172040739889</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ6">
-        <v>0.746594420138137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA6">
-        <v>0.7470901718466836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB6">
-        <v>0.7470901718466836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC6">
-        <v>0.7470901718466836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED6">
-        <v>0.7470901718466836</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE6">
-        <v>0.7486878195291226</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF6">
-        <v>0.7497623164384875</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG6">
-        <v>0.7497623164384875</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH6">
-        <v>0.7507678952025377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI6">
-        <v>0.7527711123891758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ6">
-        <v>0.7527711123891758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.7533712044198357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.7559792055299519</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.7568773821771161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.7568773821771161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.7568773821771161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.7568773821771161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.7569952572253859</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.7574590472813721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.7574590472813721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.7574590472813721</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.7577116338927494</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.7579876135651035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.7661021230830063</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.7736948062643682</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.7801315898182352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.7801315898182352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.785185020390895</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.7899313702271469</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.7918893686539547</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.799958367176168</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.8203506271165015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.8331792812295106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.8387742162510364</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.8471752080727907</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.8512744067267126</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.8517641931979766</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.8540548108332445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.8701064566461381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.8962451405861347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9143119209867946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.922414520417235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9233680549893194</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9239491290540607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9267726117925905</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9292179043466224</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9362628171527875</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9362628171527875</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.9471464432422658</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9576395620428783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9652342640446669</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9742600594483526</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9867802457146544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9880947592190729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9883778148735977</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9883778148735977</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9896871191003077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9896871191003077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9898972333888102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9902693455025275</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9902693455025275</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9905038381872066</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9905038381872066</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9905109247151449</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9927178167249574</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.994686001140892</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9967989148222289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9967989148222289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.9975546510913743</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999994</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.01588562398279856</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="F2">
-        <v>0.5121600298199274</v>
+        <v>0.6538373256630583</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.005634214870826348</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5103796248730929</v>
+        <v>0.7152328477483481</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.00547521606065217</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5294950633110043</v>
+        <v>0.6941913267429223</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.008807047708229158</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5341140326377867</v>
+        <v>0.6454054138829062</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.02831948746107114</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5318682567042565</v>
+        <v>0.566193577383352</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.01588562398279856</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="F2">
-        <v>0.7010747500756499</v>
+        <v>0.7154951330884075</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.005634214870826348</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7029855780967565</v>
+        <v>0.7152328477483481</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.00547521606065217</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7017775891034733</v>
+        <v>0.7664558283459526</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.008807047708229158</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7099277054435249</v>
+        <v>0.7522405875656992</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.02831948746107114</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7160491236941527</v>
+        <v>0.7807592527768143</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.01588562398279856</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="F2">
-        <v>0.8099084565854852</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.005634214870826348</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8055412684630487</v>
+        <v>0.9988679748450363</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.00547521606065217</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8002374647526863</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.008807047708229158</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8137510232200725</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.02831948746107114</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8203506271165015</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.01588562398279856</v>
+        <v>0.07141340992083439</v>
       </c>
       <c r="F2">
-        <v>0.9007559670089346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.005634214870826348</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9062438563926878</v>
+        <v>0.9988679748450363</v>
       </c>
       <c r="G3">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.00547521606065217</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9089750042839498</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>36</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.008807047708229158</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9035863485217482</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>36</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.02831948746107114</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9143119209867946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>36</v>

--- a/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/36_11R22.xlsx
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0008464570636233179</v>
       </c>
       <c r="E2">
-        <v>0.06609880608426172</v>
+        <v>0.07009297764934155</v>
       </c>
       <c r="F2">
-        <v>0.02807758862582222</v>
+        <v>0.04448455179163968</v>
       </c>
       <c r="G2">
-        <v>0.02942885437331349</v>
+        <v>0.04539466964219265</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02037722750575902</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -695,34 +695,34 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03405034523294645</v>
+        <v>0.04850738180508758</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1255217183436001</v>
+        <v>0.1101160843398459</v>
       </c>
       <c r="N2">
-        <v>0.171739409948541</v>
+        <v>0.1412450804082384</v>
       </c>
       <c r="O2">
-        <v>0.0627954952812833</v>
+        <v>0.06786809913577249</v>
       </c>
       <c r="P2">
-        <v>0.01577184170653839</v>
+        <v>0.03619626360227308</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01548960142468087</v>
       </c>
       <c r="R2">
-        <v>0.1599055488990023</v>
+        <v>0.1332746214499288</v>
       </c>
       <c r="S2">
-        <v>0.0696287233634157</v>
+        <v>0.07247048239457612</v>
       </c>
       <c r="T2">
-        <v>0.2369816681412752</v>
+        <v>0.1851876904402279</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.005782613102825118</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.002381642793435917</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0002845554505514655</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.199715458992991</v>
+        <v>0.171702537436719</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.001949443460812957</v>
       </c>
       <c r="F3">
-        <v>0.04605434009984664</v>
+        <v>0.05826936416561582</v>
       </c>
       <c r="G3">
-        <v>0.01296017173978138</v>
+        <v>0.03383913379315021</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.07012898101696872</v>
+        <v>0.07604134795866979</v>
       </c>
       <c r="L3">
-        <v>0.07833735752919727</v>
+        <v>0.08210080009524807</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2973589861924357</v>
+        <v>0.243783329372892</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.07636444853398457</v>
+        <v>0.0806443918020239</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.01067298868354193</v>
       </c>
       <c r="S3">
-        <v>0.1982388455926024</v>
+        <v>0.1706124962805226</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.008889269952726517</v>
       </c>
       <c r="U3">
-        <v>0.02084141030219245</v>
+        <v>0.03965709155553353</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.02145489129396419</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0003829141485795281</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.257834991782686</v>
+        <v>0.2207149227007408</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.008132993378711265</v>
       </c>
       <c r="F4">
-        <v>0.05734774162254026</v>
+        <v>0.06818760751432139</v>
       </c>
       <c r="G4">
-        <v>0.04217824210719011</v>
+        <v>0.05664690838283121</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003869195990856959</v>
+        <v>0.02750203285179573</v>
       </c>
       <c r="L4">
-        <v>0.1171629272968669</v>
+        <v>0.1136939909426669</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.2196992713748246</v>
+        <v>0.1917019104425311</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -933,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.08153270476999412</v>
+        <v>0.08658711917312777</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2203749250550412</v>
+        <v>0.1922159363556849</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.004069317007811368</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01865310843509864</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01189415281467878</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2008160853258724</v>
+        <v>0.1710063744167687</v>
       </c>
       <c r="F5">
-        <v>0.00376799859757768</v>
+        <v>0.02667952771242</v>
       </c>
       <c r="G5">
-        <v>0.06357986972183358</v>
+        <v>0.07048842176554446</v>
       </c>
       <c r="H5">
-        <v>0.02549481136271736</v>
+        <v>0.04259321876820902</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03256097654276062</v>
+        <v>0.04776879471852993</v>
       </c>
       <c r="M5">
-        <v>0.1241543004647705</v>
+        <v>0.1148558486469529</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.008975720043108143</v>
       </c>
       <c r="O5">
-        <v>0.2046995030649587</v>
+        <v>0.1738507635505282</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1079451263150931</v>
+        <v>0.102983523309786</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2245100963103378</v>
+        <v>0.1883609295811709</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01247123229407827</v>
+        <v>0.03305416598677679</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01938271150020498</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01426311936157165</v>
+        <v>0.03458282264795465</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02312423813842653</v>
       </c>
       <c r="F6">
-        <v>0.09000552828078598</v>
+        <v>0.08316488917773351</v>
       </c>
       <c r="G6">
-        <v>0.1162027764111081</v>
+        <v>0.09996811038135137</v>
       </c>
       <c r="H6">
-        <v>0.003521731047602918</v>
+        <v>0.02769317061367617</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1135,37 +1135,37 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01550882683800999</v>
+        <v>0.03538183398599539</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0531592232497241</v>
+        <v>0.05953123838766115</v>
       </c>
       <c r="N6">
-        <v>0.267617490094342</v>
+        <v>0.1970872778162309</v>
       </c>
       <c r="O6">
-        <v>0.05674400627498356</v>
+        <v>0.0618305601271338</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.007059615658957061</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01314662652846956</v>
       </c>
       <c r="R6">
-        <v>0.1548769580855329</v>
+        <v>0.1247741826188429</v>
       </c>
       <c r="S6">
-        <v>0.01750633698152818</v>
+        <v>0.03666306034347517</v>
       </c>
       <c r="T6">
-        <v>0.1905519875237755</v>
+        <v>0.1476565635511564</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.01004633560979529</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02004201585103498</v>
+        <v>0.03828947441314022</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1347,94 +1347,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0008464570636233179</v>
       </c>
       <c r="E2">
-        <v>0.06609880608426172</v>
+        <v>0.07093943471296488</v>
       </c>
       <c r="F2">
-        <v>0.09417639471008395</v>
+        <v>0.1154239865046046</v>
       </c>
       <c r="G2">
-        <v>0.1236052490833974</v>
+        <v>0.1608186561467972</v>
       </c>
       <c r="H2">
-        <v>0.1236052490833974</v>
+        <v>0.1811958836525562</v>
       </c>
       <c r="I2">
-        <v>0.1236052490833974</v>
+        <v>0.1811958836525562</v>
       </c>
       <c r="J2">
-        <v>0.1236052490833974</v>
+        <v>0.1811958836525562</v>
       </c>
       <c r="K2">
-        <v>0.1576555943163439</v>
+        <v>0.2297032654576438</v>
       </c>
       <c r="L2">
-        <v>0.1576555943163439</v>
+        <v>0.2297032654576438</v>
       </c>
       <c r="M2">
-        <v>0.2831773126599441</v>
+        <v>0.3398193497974897</v>
       </c>
       <c r="N2">
-        <v>0.454916722608485</v>
+        <v>0.4810644302057281</v>
       </c>
       <c r="O2">
-        <v>0.5177122178897683</v>
+        <v>0.5489325293415006</v>
       </c>
       <c r="P2">
-        <v>0.5334840595963066</v>
+        <v>0.5851287929437737</v>
       </c>
       <c r="Q2">
-        <v>0.5334840595963066</v>
+        <v>0.6006183943684547</v>
       </c>
       <c r="R2">
-        <v>0.693389608495309</v>
+        <v>0.7338930158183834</v>
       </c>
       <c r="S2">
-        <v>0.7630183318587247</v>
+        <v>0.8063634982129595</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9973338017560125</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>0.9973338017560125</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9973338017560125</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.9973338017560125</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.9997154445494484</v>
       </c>
       <c r="AH2">
         <v>0.9999999999999999</v>
@@ -1457,79 +1457,79 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.199715458992991</v>
+        <v>0.171702537436719</v>
       </c>
       <c r="E3">
-        <v>0.199715458992991</v>
+        <v>0.1736519808975319</v>
       </c>
       <c r="F3">
-        <v>0.2457697990928376</v>
+        <v>0.2319213450631478</v>
       </c>
       <c r="G3">
-        <v>0.258729970832619</v>
+        <v>0.265760478856298</v>
       </c>
       <c r="H3">
-        <v>0.258729970832619</v>
+        <v>0.265760478856298</v>
       </c>
       <c r="I3">
-        <v>0.258729970832619</v>
+        <v>0.265760478856298</v>
       </c>
       <c r="J3">
-        <v>0.258729970832619</v>
+        <v>0.265760478856298</v>
       </c>
       <c r="K3">
-        <v>0.3288589518495877</v>
+        <v>0.3418018268149678</v>
       </c>
       <c r="L3">
-        <v>0.407196309378785</v>
+        <v>0.4239026269102159</v>
       </c>
       <c r="M3">
-        <v>0.407196309378785</v>
+        <v>0.4239026269102159</v>
       </c>
       <c r="N3">
-        <v>0.7045552955712207</v>
+        <v>0.6676859562831079</v>
       </c>
       <c r="O3">
-        <v>0.7045552955712207</v>
+        <v>0.6676859562831079</v>
       </c>
       <c r="P3">
-        <v>0.7045552955712207</v>
+        <v>0.6676859562831079</v>
       </c>
       <c r="Q3">
-        <v>0.7809197441052053</v>
+        <v>0.7483303480851318</v>
       </c>
       <c r="R3">
-        <v>0.7809197441052053</v>
+        <v>0.7590033367686737</v>
       </c>
       <c r="S3">
-        <v>0.9791585896978077</v>
+        <v>0.9296158330491963</v>
       </c>
       <c r="T3">
-        <v>0.9791585896978077</v>
+        <v>0.9385051030019228</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9781621945574563</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9996170858514205</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.257834991782686</v>
+        <v>0.2207149227007408</v>
       </c>
       <c r="E4">
-        <v>0.257834991782686</v>
+        <v>0.228847916079452</v>
       </c>
       <c r="F4">
-        <v>0.3151827334052263</v>
+        <v>0.2970355235937734</v>
       </c>
       <c r="G4">
-        <v>0.3573609755124164</v>
+        <v>0.3536824319766046</v>
       </c>
       <c r="H4">
-        <v>0.3573609755124164</v>
+        <v>0.3536824319766046</v>
       </c>
       <c r="I4">
-        <v>0.3573609755124164</v>
+        <v>0.3536824319766046</v>
       </c>
       <c r="J4">
-        <v>0.3573609755124164</v>
+        <v>0.3536824319766046</v>
       </c>
       <c r="K4">
-        <v>0.3612301715032734</v>
+        <v>0.3811844648284003</v>
       </c>
       <c r="L4">
-        <v>0.4783930988001402</v>
+        <v>0.4948784557710672</v>
       </c>
       <c r="M4">
-        <v>0.4783930988001402</v>
+        <v>0.4948784557710672</v>
       </c>
       <c r="N4">
-        <v>0.6980923701749648</v>
+        <v>0.6865803662135983</v>
       </c>
       <c r="O4">
-        <v>0.6980923701749648</v>
+        <v>0.6865803662135983</v>
       </c>
       <c r="P4">
-        <v>0.6980923701749648</v>
+        <v>0.6865803662135983</v>
       </c>
       <c r="Q4">
-        <v>0.7796250749449589</v>
+        <v>0.7731674853867261</v>
       </c>
       <c r="R4">
-        <v>0.7796250749449589</v>
+        <v>0.7731674853867261</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.965383421742411</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9694527387502223</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9881058471853209</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1680,76 +1680,76 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2008160853258724</v>
+        <v>0.1710063744167687</v>
       </c>
       <c r="F5">
-        <v>0.20458408392345</v>
+        <v>0.1976859021291887</v>
       </c>
       <c r="G5">
-        <v>0.2681639536452836</v>
+        <v>0.2681743238947331</v>
       </c>
       <c r="H5">
-        <v>0.293658765008001</v>
+        <v>0.3107675426629422</v>
       </c>
       <c r="I5">
-        <v>0.293658765008001</v>
+        <v>0.3107675426629422</v>
       </c>
       <c r="J5">
-        <v>0.293658765008001</v>
+        <v>0.3107675426629422</v>
       </c>
       <c r="K5">
-        <v>0.293658765008001</v>
+        <v>0.3107675426629422</v>
       </c>
       <c r="L5">
-        <v>0.3262197415507616</v>
+        <v>0.3585363373814721</v>
       </c>
       <c r="M5">
-        <v>0.4503740420155321</v>
+        <v>0.473392186028425</v>
       </c>
       <c r="N5">
-        <v>0.4503740420155321</v>
+        <v>0.4823679060715331</v>
       </c>
       <c r="O5">
-        <v>0.6550735450804909</v>
+        <v>0.6562186696220613</v>
       </c>
       <c r="P5">
-        <v>0.6550735450804909</v>
+        <v>0.6562186696220613</v>
       </c>
       <c r="Q5">
-        <v>0.6550735450804909</v>
+        <v>0.6562186696220613</v>
       </c>
       <c r="R5">
-        <v>0.7630186713955839</v>
+        <v>0.7592021929318473</v>
       </c>
       <c r="S5">
-        <v>0.7630186713955839</v>
+        <v>0.7592021929318473</v>
       </c>
       <c r="T5">
-        <v>0.9875287677059217</v>
+        <v>0.9475631225130182</v>
       </c>
       <c r="U5">
-        <v>0.9875287677059217</v>
+        <v>0.9475631225130182</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.980617288499795</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01426311936157165</v>
+        <v>0.03458282264795465</v>
       </c>
       <c r="E6">
-        <v>0.01426311936157165</v>
+        <v>0.05770706078638118</v>
       </c>
       <c r="F6">
-        <v>0.1042686476423576</v>
+        <v>0.1408719499641147</v>
       </c>
       <c r="G6">
-        <v>0.2204714240534658</v>
+        <v>0.2408400603454661</v>
       </c>
       <c r="H6">
-        <v>0.2239931551010687</v>
+        <v>0.2685332309591422</v>
       </c>
       <c r="I6">
-        <v>0.2239931551010687</v>
+        <v>0.2685332309591422</v>
       </c>
       <c r="J6">
-        <v>0.2239931551010687</v>
+        <v>0.2685332309591422</v>
       </c>
       <c r="K6">
-        <v>0.2395019819390787</v>
+        <v>0.3039150649451376</v>
       </c>
       <c r="L6">
-        <v>0.2395019819390787</v>
+        <v>0.3039150649451376</v>
       </c>
       <c r="M6">
-        <v>0.2926612051888028</v>
+        <v>0.3634463033327988</v>
       </c>
       <c r="N6">
-        <v>0.5602786952831449</v>
+        <v>0.5605335811490296</v>
       </c>
       <c r="O6">
-        <v>0.6170227015581284</v>
+        <v>0.6223641412761635</v>
       </c>
       <c r="P6">
-        <v>0.6170227015581284</v>
+        <v>0.6294237569351205</v>
       </c>
       <c r="Q6">
-        <v>0.6170227015581284</v>
+        <v>0.6425703834635901</v>
       </c>
       <c r="R6">
-        <v>0.7718996596436614</v>
+        <v>0.7673445660824331</v>
       </c>
       <c r="S6">
-        <v>0.7894059966251895</v>
+        <v>0.8040076264259083</v>
       </c>
       <c r="T6">
-        <v>0.979957984148965</v>
+        <v>0.9516641899770647</v>
       </c>
       <c r="U6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="V6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="W6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="X6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="Y6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="Z6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="AA6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="AB6">
-        <v>0.979957984148965</v>
+        <v>0.96171052558686</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5177122178897683</v>
+        <v>0.5489325293415006</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7045552955712207</v>
+        <v>0.6676859562831079</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6980923701749648</v>
+        <v>0.6865803662135983</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6550735450804909</v>
+        <v>0.6562186696220613</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2112,19 +2112,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0.01426311936157165</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5602786952831449</v>
+        <v>0.5605335811490296</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7630183318587247</v>
+        <v>0.7338930158183834</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -2251,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7045552955712207</v>
+        <v>0.7483303480851318</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7796250749449589</v>
+        <v>0.7731674853867261</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7630186713955839</v>
+        <v>0.7592021929318473</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -2371,19 +2371,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>0.01426311936157165</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7718996596436614</v>
+        <v>0.7673445660824331</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999999</v>
+        <v>0.8063634982129595</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9791585896978077</v>
+        <v>0.9296158330491963</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.965383421742411</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9875287677059217</v>
+        <v>0.9475631225130182</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2630,16 +2630,16 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>0.01426311936157165</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.979957984148965</v>
+        <v>0.8040076264259083</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999999</v>
+        <v>0.9915511886531874</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9791585896978077</v>
+        <v>0.9296158330491963</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.965383421742411</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9875287677059217</v>
+        <v>0.9475631225130182</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2889,19 +2889,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6">
-        <v>0.01426311936157165</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.979957984148965</v>
+        <v>0.9516641899770647</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>36</v>
